--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="502">
   <si>
     <t>Source:</t>
   </si>
@@ -1392,9 +1392,6 @@
     <t>the case when estimating the first year, this is using a share of</t>
   </si>
   <si>
-    <t>For freight LDVs, we use the same percentages as passenger LDVs.</t>
-  </si>
-  <si>
     <t>LDVs (except battery electric vehicles in the Last Year)</t>
   </si>
   <si>
@@ -1525,6 +1522,21 @@
   </si>
   <si>
     <t>To make it easier to set the values for this variable, it is set up to interpolate</t>
+  </si>
+  <si>
+    <t>For freight LDVs, we use the same percentages as passenger LDVs,</t>
+  </si>
+  <si>
+    <t>necessary to avoid a situation where the retirement rate of the</t>
+  </si>
+  <si>
+    <t>start year diesel engine freight LDVs is far in excess of how quickly</t>
+  </si>
+  <si>
+    <t>they can be replaced.</t>
+  </si>
+  <si>
+    <t>except we allow up to 100% diesel engine market share, which is</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2190,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,12 +2232,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2235,22 +2247,22 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2292,7 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
@@ -2290,7 +2302,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2365,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,37 +2524,37 @@
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2564,7 @@
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
@@ -2562,96 +2574,116 @@
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>453</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>428</v>
       </c>
     </row>
@@ -43271,7 +43303,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -43281,12 +43313,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -43296,47 +43328,47 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -43364,10 +43396,10 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I1" s="49"/>
       <c r="J1" s="50"/>
@@ -43376,10 +43408,10 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I2" s="44">
         <v>1</v>
@@ -43387,10 +43419,10 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I3" s="44">
         <v>-0.3</v>
@@ -43398,10 +43430,10 @@
     </row>
     <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I4" s="45">
         <v>-17</v>
@@ -43409,7 +43441,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="30" x14ac:dyDescent="0.25">
@@ -43423,7 +43455,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -44973,157 +45005,155 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="19">
-        <f>SUM('AEO 40'!C18,'AEO 40'!C27,'AEO 40'!C43,'AEO 40'!C52)/'AEO 40'!C65</f>
-        <v>5.2524106974080496E-3</v>
-      </c>
-      <c r="E17" s="19">
-        <f>E11</f>
-        <v>5.1101356068725484E-2</v>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
       </c>
       <c r="F17" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H17" s="33">
         <f t="shared" si="2"/>
-        <v>5.2524106974080496E-3</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:I$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,I$7))</f>
-        <v>6.6009090906820056E-3</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:J$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,J$7))</f>
-        <v>7.9494074839563389E-3</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:K$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,K$7))</f>
-        <v>9.2979058772302281E-3</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:L$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,L$7))</f>
-        <v>1.0646404270504117E-2</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:M$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,M$7))</f>
-        <v>1.1994902663778451E-2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:N$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,N$7))</f>
-        <v>1.334340105705234E-2</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:O$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,O$7))</f>
-        <v>1.4691899450326229E-2</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:P$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,P$7))</f>
-        <v>1.6040397843600562E-2</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:Q$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,Q$7))</f>
-        <v>1.7388896236874452E-2</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:R$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,R$7))</f>
-        <v>1.8737394630148341E-2</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:S$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,S$7))</f>
-        <v>2.0085893023422674E-2</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:T$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,T$7))</f>
-        <v>2.1434391416696563E-2</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:U$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,U$7))</f>
-        <v>2.2782889809970452E-2</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:V$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,V$7))</f>
-        <v>2.4131388203244786E-2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:W$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,W$7))</f>
-        <v>2.5479886596518675E-2</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:X$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,X$7))</f>
-        <v>2.6828384989792564E-2</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:Y$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,Y$7))</f>
-        <v>2.8176883383066897E-2</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:Z$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,Z$7))</f>
-        <v>2.9525381776340787E-2</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AA$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AA$7))</f>
-        <v>3.087388016961512E-2</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AB$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AB$7))</f>
-        <v>3.2222378562889009E-2</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AC$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AC$7))</f>
-        <v>3.3570876956162898E-2</v>
+        <v>1</v>
       </c>
       <c r="AD17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AD$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AD$7))</f>
-        <v>3.4919375349437232E-2</v>
+        <v>1</v>
       </c>
       <c r="AE17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AE$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AE$7))</f>
-        <v>3.6267873742711121E-2</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AF$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AF$7))</f>
-        <v>3.761637213598501E-2</v>
+        <v>1</v>
       </c>
       <c r="AG17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AG$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AG$7))</f>
-        <v>3.8964870529259343E-2</v>
+        <v>1</v>
       </c>
       <c r="AH17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AH$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AH$7))</f>
-        <v>4.0313368922533233E-2</v>
+        <v>1</v>
       </c>
       <c r="AI17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AI$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AI$7))</f>
-        <v>4.1661867315807122E-2</v>
+        <v>1</v>
       </c>
       <c r="AJ17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AJ$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AJ$7))</f>
-        <v>4.3010365709081455E-2</v>
+        <v>1</v>
       </c>
       <c r="AK17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AK$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AK$7))</f>
-        <v>4.4358864102355344E-2</v>
+        <v>1</v>
       </c>
       <c r="AL17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AL$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AL$7))</f>
-        <v>4.5707362495629233E-2</v>
+        <v>1</v>
       </c>
       <c r="AM17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AM$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AM$7))</f>
-        <v>4.7055860888903567E-2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AN$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AN$7))</f>
-        <v>4.8404359282177456E-2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AO$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AO$7))</f>
-        <v>4.9752857675451345E-2</v>
+        <v>1</v>
       </c>
       <c r="AP17">
         <f>IF($F17="s-curve",$D17+($E17-$D17)*$I$2/(1+EXP($I$3*(COUNT($H$7:AP$7)+$I$4))),TREND($D17:$E17,$D$7:$E$7,AP$7))</f>
-        <v>5.1101356068725678E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -56411,143 +56441,143 @@
       </c>
       <c r="B5">
         <f>Data!H17</f>
-        <v>5.2524106974080496E-3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f>Data!I17</f>
-        <v>6.6009090906820056E-3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>Data!J17</f>
-        <v>7.9494074839563389E-3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f>Data!K17</f>
-        <v>9.2979058772302281E-3</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f>Data!L17</f>
-        <v>1.0646404270504117E-2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>Data!M17</f>
-        <v>1.1994902663778451E-2</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f>Data!N17</f>
-        <v>1.334340105705234E-2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f>Data!O17</f>
-        <v>1.4691899450326229E-2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>Data!P17</f>
-        <v>1.6040397843600562E-2</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <f>Data!Q17</f>
-        <v>1.7388896236874452E-2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f>Data!R17</f>
-        <v>1.8737394630148341E-2</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f>Data!S17</f>
-        <v>2.0085893023422674E-2</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f>Data!T17</f>
-        <v>2.1434391416696563E-2</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <f>Data!U17</f>
-        <v>2.2782889809970452E-2</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f>Data!V17</f>
-        <v>2.4131388203244786E-2</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f>Data!W17</f>
-        <v>2.5479886596518675E-2</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f>Data!X17</f>
-        <v>2.6828384989792564E-2</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f>Data!Y17</f>
-        <v>2.8176883383066897E-2</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f>Data!Z17</f>
-        <v>2.9525381776340787E-2</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f>Data!AA17</f>
-        <v>3.087388016961512E-2</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f>Data!AB17</f>
-        <v>3.2222378562889009E-2</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f>Data!AC17</f>
-        <v>3.3570876956162898E-2</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f>Data!AD17</f>
-        <v>3.4919375349437232E-2</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f>Data!AE17</f>
-        <v>3.6267873742711121E-2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <f>Data!AF17</f>
-        <v>3.761637213598501E-2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f>Data!AG17</f>
-        <v>3.8964870529259343E-2</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f>Data!AH17</f>
-        <v>4.0313368922533233E-2</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <f>Data!AI17</f>
-        <v>4.1661867315807122E-2</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <f>Data!AJ17</f>
-        <v>4.3010365709081455E-2</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f>Data!AK17</f>
-        <v>4.4358864102355344E-2</v>
+        <v>1</v>
       </c>
       <c r="AF5">
         <f>Data!AL17</f>
-        <v>4.5707362495629233E-2</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <f>Data!AM17</f>
-        <v>4.7055860888903567E-2</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f>Data!AN17</f>
-        <v>4.8404359282177456E-2</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <f>Data!AO17</f>
-        <v>4.9752857675451345E-2</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <f>Data!AP17</f>
-        <v>5.1101356068725678E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB689A-F61D-45D1-951B-F8A3E68C7F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="338" windowWidth="15397" windowHeight="9194" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="338" windowWidth="15398" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1839,7 +1838,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2192,16 +2191,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Table title" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2292,23 +2291,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2344,23 +2326,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2536,10 +2501,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -3040,7 +3005,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3048,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4196,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5344,7 +5309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6494,7 +6459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7642,7 +7607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8790,14 +8755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8953,139 +8918,139 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I50</f>
-        <v>0.5118281341400337</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J50</f>
-        <v>0.51444491476645848</v>
+        <v>0.75379348625303</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K50</f>
-        <v>0.51534689283469481</v>
+        <v>0.75435333436117979</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L50</f>
-        <v>0.51655353677595117</v>
+        <v>0.75510228530745249</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M50</f>
-        <v>0.51816278972650143</v>
+        <v>0.75610113134554036</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N50</f>
-        <v>0.52030019065995547</v>
+        <v>0.75742779316924924</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O50</f>
-        <v>0.52312364284477286</v>
+        <v>0.75918027964290846</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P50</f>
-        <v>0.52682661585159252</v>
+        <v>0.76147867525296065</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q50</f>
-        <v>0.53163753045259587</v>
+        <v>0.7644647583215971</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R50</f>
-        <v>0.53781192760358398</v>
+        <v>0.76829714037796482</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S50</f>
-        <v>0.54561306694160605</v>
+        <v>0.77313922385383504</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T50</f>
-        <v>0.55527676152547534</v>
+        <v>0.77913737538438765</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U50</f>
-        <v>0.56695901835441231</v>
+        <v>0.78638842683998322</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V50</f>
-        <v>0.58067183042758774</v>
+        <v>0.79489982214651456</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W50</f>
-        <v>0.59622283284194855</v>
+        <v>0.80455216247285544</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X50</f>
-        <v>0.61318395394167213</v>
+        <v>0.81507974833572117</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y50</f>
-        <v>0.63091406707001685</v>
+        <v>0.82608463929897324</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z50</f>
-        <v>0.64864418019836156</v>
+        <v>0.83708953026222532</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA50</f>
-        <v>0.66560530129808515</v>
+        <v>0.84761711612509105</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB50</f>
-        <v>0.68115630371244595</v>
+        <v>0.85726945645143193</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC50</f>
-        <v>0.69486911578562138</v>
+        <v>0.86578085175796327</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD50</f>
-        <v>0.70655137261455836</v>
+        <v>0.87303190321355884</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE50</f>
-        <v>0.71621506719842765</v>
+        <v>0.87903005474411144</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF50</f>
-        <v>0.72401620653644971</v>
+        <v>0.88387213821998167</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG50</f>
-        <v>0.73019060368743782</v>
+        <v>0.88770452027634938</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH50</f>
-        <v>0.73500151828844118</v>
+        <v>0.89069060334498584</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI50</f>
-        <v>0.73870449129526083</v>
+        <v>0.89298899895503803</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ50</f>
-        <v>0.74152794348007822</v>
+        <v>0.89474148542869725</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK50</f>
-        <v>0.74366534441353227</v>
+        <v>0.89606814725240613</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL50</f>
-        <v>0.74527459736408264</v>
+        <v>0.897066993290494</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM50</f>
-        <v>0.74648124130533888</v>
+        <v>0.89781594423676669</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN50</f>
-        <v>0.74738321937357521</v>
+        <v>0.89837579234491649</v>
       </c>
       <c r="AH2" s="16">
         <f>Data!AO50</f>
-        <v>0.74805590519823717</v>
+        <v>0.89879332121793287</v>
       </c>
       <c r="AI2" s="16">
         <f>Data!AP50</f>
-        <v>0.74855672577200838</v>
+        <v>0.89910417517394592</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -9376,139 +9341,139 @@
       </c>
       <c r="B5" s="16">
         <f>Data!I53</f>
-        <v>0.48817186585996641</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="C5" s="16">
         <f>Data!J53</f>
-        <v>0.49661793470319182</v>
+        <v>0.24306198845360072</v>
       </c>
       <c r="D5" s="16">
         <f>Data!K53</f>
-        <v>0.50506400354641912</v>
+        <v>0.23829325550514646</v>
       </c>
       <c r="E5" s="16">
         <f>Data!L53</f>
-        <v>0.51351007238964641</v>
+        <v>0.23352452255669398</v>
       </c>
       <c r="F5" s="16">
         <f>Data!M53</f>
-        <v>0.5219561412328737</v>
+        <v>0.22875578960823972</v>
       </c>
       <c r="G5" s="16">
         <f>Data!N53</f>
-        <v>0.530402210076101</v>
+        <v>0.22398705665978724</v>
       </c>
       <c r="H5" s="16">
         <f>Data!O53</f>
-        <v>0.53884827891932829</v>
+        <v>0.21921832371133299</v>
       </c>
       <c r="I5" s="16">
         <f>Data!P53</f>
-        <v>0.54729434776255559</v>
+        <v>0.2144495907628805</v>
       </c>
       <c r="J5" s="16">
         <f>Data!Q53</f>
-        <v>0.55574041660577933</v>
+        <v>0.20968085781442625</v>
       </c>
       <c r="K5" s="16">
         <f>Data!R53</f>
-        <v>0.56418648544900663</v>
+        <v>0.20491212486597377</v>
       </c>
       <c r="L5" s="16">
         <f>Data!S53</f>
-        <v>0.57263255429223392</v>
+        <v>0.20014339191751951</v>
       </c>
       <c r="M5" s="16">
         <f>Data!T53</f>
-        <v>0.58107862313546121</v>
+        <v>0.19537465896906703</v>
       </c>
       <c r="N5" s="16">
         <f>Data!U53</f>
-        <v>0.58952469197868851</v>
+        <v>0.19060592602061277</v>
       </c>
       <c r="O5" s="16">
         <f>Data!V53</f>
-        <v>0.5979707608219158</v>
+        <v>0.18583719307216029</v>
       </c>
       <c r="P5" s="16">
         <f>Data!W53</f>
-        <v>0.6064168296651431</v>
+        <v>0.18106846012370603</v>
       </c>
       <c r="Q5" s="16">
         <f>Data!X53</f>
-        <v>0.61486289850837039</v>
+        <v>0.17629972717525355</v>
       </c>
       <c r="R5" s="16">
         <f>Data!Y53</f>
-        <v>0.62330896735159413</v>
+        <v>0.17153099422679929</v>
       </c>
       <c r="S5" s="16">
         <f>Data!Z53</f>
-        <v>0.63175503619482143</v>
+        <v>0.16676226127834681</v>
       </c>
       <c r="T5" s="16">
         <f>Data!AA53</f>
-        <v>0.64020110503804872</v>
+        <v>0.16199352832989256</v>
       </c>
       <c r="U5" s="16">
         <f>Data!AB53</f>
-        <v>0.64864717388127602</v>
+        <v>0.15722479538144007</v>
       </c>
       <c r="V5" s="16">
         <f>Data!AC53</f>
-        <v>0.65709324272450331</v>
+        <v>0.15245606243298582</v>
       </c>
       <c r="W5" s="16">
         <f>Data!AD53</f>
-        <v>0.66553931156773061</v>
+        <v>0.14768732948453334</v>
       </c>
       <c r="X5" s="16">
         <f>Data!AE53</f>
-        <v>0.6739853804109579</v>
+        <v>0.14291859653607908</v>
       </c>
       <c r="Y5" s="16">
         <f>Data!AF53</f>
-        <v>0.6824314492541852</v>
+        <v>0.1381498635876266</v>
       </c>
       <c r="Z5" s="16">
         <f>Data!AG53</f>
-        <v>0.69087751809741249</v>
+        <v>0.13338113063917234</v>
       </c>
       <c r="AA5" s="16">
         <f>Data!AH53</f>
-        <v>0.69932358694063623</v>
+        <v>0.12861239769071986</v>
       </c>
       <c r="AB5" s="16">
         <f>Data!AI53</f>
-        <v>0.70776965578386353</v>
+        <v>0.1238436647422656</v>
       </c>
       <c r="AC5" s="16">
         <f>Data!AJ53</f>
-        <v>0.71621572462709082</v>
+        <v>0.11907493179381312</v>
       </c>
       <c r="AD5" s="16">
         <f>Data!AK53</f>
-        <v>0.72466179347031812</v>
+        <v>0.11430619884535886</v>
       </c>
       <c r="AE5" s="16">
         <f>Data!AL53</f>
-        <v>0.73310786231354541</v>
+        <v>0.10953746589690638</v>
       </c>
       <c r="AF5" s="16">
         <f>Data!AM53</f>
-        <v>0.74155393115677271</v>
+        <v>0.1047687329484539</v>
       </c>
       <c r="AG5" s="16">
         <f>Data!AN53</f>
-        <v>0.75</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="AH5" s="16">
         <f>Data!AO53</f>
-        <v>0.75844606884322729</v>
+        <v>9.5231267051547164E-2</v>
       </c>
       <c r="AI5" s="16">
         <f>Data!AP53</f>
-        <v>0.76689213768645459</v>
+        <v>9.0462534103092906E-2</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
@@ -9940,13 +9905,13 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AI8"/>
     </sheetView>
   </sheetViews>
@@ -11026,7 +10991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12112,7 +12077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13198,7 +13163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14284,7 +14249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20691,7 +20656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21777,7 +21742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26439,7 +26404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49971,10 +49936,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -50099,7 +50066,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="6">
-        <v>1258.1247365296165</v>
+        <v>1861.3933137463398</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -50108,7 +50075,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>1199.9752634703832</v>
+        <v>613.30668625366241</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -50191,7 +50158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -50408,11 +50375,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50532,7 +50499,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="24">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
@@ -50617,14 +50584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57351,11 +57318,11 @@
       </c>
       <c r="D50" s="31">
         <f>'SYVbT-passenger'!B5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.5118281341400337</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="E50" s="16">
         <f>Assumptions!A28</f>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F50" s="9" t="str">
         <f t="shared" si="1"/>
@@ -57364,139 +57331,139 @@
       <c r="H50" s="32"/>
       <c r="I50" s="31">
         <f t="shared" si="5"/>
-        <v>0.5118281341400337</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="J50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,J$7))</f>
-        <v>0.51444491476645848</v>
+        <v>0.75379348625303</v>
       </c>
       <c r="K50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,K$7))</f>
-        <v>0.51534689283469481</v>
+        <v>0.75435333436117979</v>
       </c>
       <c r="L50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,L$7))</f>
-        <v>0.51655353677595117</v>
+        <v>0.75510228530745249</v>
       </c>
       <c r="M50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,M$7))</f>
-        <v>0.51816278972650143</v>
+        <v>0.75610113134554036</v>
       </c>
       <c r="N50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,N$7))</f>
-        <v>0.52030019065995547</v>
+        <v>0.75742779316924924</v>
       </c>
       <c r="O50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,O$7))</f>
-        <v>0.52312364284477286</v>
+        <v>0.75918027964290846</v>
       </c>
       <c r="P50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,P$7))</f>
-        <v>0.52682661585159252</v>
+        <v>0.76147867525296065</v>
       </c>
       <c r="Q50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Q$7))</f>
-        <v>0.53163753045259587</v>
+        <v>0.7644647583215971</v>
       </c>
       <c r="R50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,R$7))</f>
-        <v>0.53781192760358398</v>
+        <v>0.76829714037796482</v>
       </c>
       <c r="S50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,S$7))</f>
-        <v>0.54561306694160605</v>
+        <v>0.77313922385383504</v>
       </c>
       <c r="T50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,T$7))</f>
-        <v>0.55527676152547534</v>
+        <v>0.77913737538438765</v>
       </c>
       <c r="U50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,U$7))</f>
-        <v>0.56695901835441231</v>
+        <v>0.78638842683998322</v>
       </c>
       <c r="V50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,V$7))</f>
-        <v>0.58067183042758774</v>
+        <v>0.79489982214651456</v>
       </c>
       <c r="W50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,W$7))</f>
-        <v>0.59622283284194855</v>
+        <v>0.80455216247285544</v>
       </c>
       <c r="X50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,X$7))</f>
-        <v>0.61318395394167213</v>
+        <v>0.81507974833572117</v>
       </c>
       <c r="Y50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Y$7))</f>
-        <v>0.63091406707001685</v>
+        <v>0.82608463929897324</v>
       </c>
       <c r="Z50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Z$7))</f>
-        <v>0.64864418019836156</v>
+        <v>0.83708953026222532</v>
       </c>
       <c r="AA50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AA$7))</f>
-        <v>0.66560530129808515</v>
+        <v>0.84761711612509105</v>
       </c>
       <c r="AB50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AB$7))</f>
-        <v>0.68115630371244595</v>
+        <v>0.85726945645143193</v>
       </c>
       <c r="AC50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AC$7))</f>
-        <v>0.69486911578562138</v>
+        <v>0.86578085175796327</v>
       </c>
       <c r="AD50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AD$7))</f>
-        <v>0.70655137261455836</v>
+        <v>0.87303190321355884</v>
       </c>
       <c r="AE50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AE$7))</f>
-        <v>0.71621506719842765</v>
+        <v>0.87903005474411144</v>
       </c>
       <c r="AF50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AF$7))</f>
-        <v>0.72401620653644971</v>
+        <v>0.88387213821998167</v>
       </c>
       <c r="AG50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AG$7))</f>
-        <v>0.73019060368743782</v>
+        <v>0.88770452027634938</v>
       </c>
       <c r="AH50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AH$7))</f>
-        <v>0.73500151828844118</v>
+        <v>0.89069060334498584</v>
       </c>
       <c r="AI50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AI$7))</f>
-        <v>0.73870449129526083</v>
+        <v>0.89298899895503803</v>
       </c>
       <c r="AJ50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AJ$7))</f>
-        <v>0.74152794348007822</v>
+        <v>0.89474148542869725</v>
       </c>
       <c r="AK50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AK$7))</f>
-        <v>0.74366534441353227</v>
+        <v>0.89606814725240613</v>
       </c>
       <c r="AL50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AL$7))</f>
-        <v>0.74527459736408264</v>
+        <v>0.897066993290494</v>
       </c>
       <c r="AM50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AM$7))</f>
-        <v>0.74648124130533888</v>
+        <v>0.89781594423676669</v>
       </c>
       <c r="AN50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AN$7))</f>
-        <v>0.74738321937357521</v>
+        <v>0.89837579234491649</v>
       </c>
       <c r="AO50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AO$7))</f>
-        <v>0.74805590519823717</v>
+        <v>0.89879332121793287</v>
       </c>
       <c r="AP50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AP$7))</f>
-        <v>0.74855672577200838</v>
+        <v>0.89910417517394592</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.45">
@@ -57808,12 +57775,12 @@
         <v>5</v>
       </c>
       <c r="D53" s="31">
-        <f>'SYVbT-passenger'!E5/SUM('SYVbT-passenger'!B5:H5)</f>
-        <v>0.48817186585996641</v>
+        <f>1-D50</f>
+        <v>0.24783072140205353</v>
       </c>
       <c r="E53" s="16">
-        <f>Assumptions!A28</f>
-        <v>0.75</v>
+        <f>1-E50</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F53" s="9" t="str">
         <f t="shared" si="1"/>
@@ -57822,139 +57789,139 @@
       <c r="H53" s="32"/>
       <c r="I53" s="31">
         <f t="shared" si="5"/>
-        <v>0.48817186585996641</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="J53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,J$7))</f>
-        <v>0.49661793470319182</v>
+        <v>0.24306198845360072</v>
       </c>
       <c r="K53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,K$7))</f>
-        <v>0.50506400354641912</v>
+        <v>0.23829325550514646</v>
       </c>
       <c r="L53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,L$7))</f>
-        <v>0.51351007238964641</v>
+        <v>0.23352452255669398</v>
       </c>
       <c r="M53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,M$7))</f>
-        <v>0.5219561412328737</v>
+        <v>0.22875578960823972</v>
       </c>
       <c r="N53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,N$7))</f>
-        <v>0.530402210076101</v>
+        <v>0.22398705665978724</v>
       </c>
       <c r="O53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,O$7))</f>
-        <v>0.53884827891932829</v>
+        <v>0.21921832371133299</v>
       </c>
       <c r="P53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,P$7))</f>
-        <v>0.54729434776255559</v>
+        <v>0.2144495907628805</v>
       </c>
       <c r="Q53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Q$7))</f>
-        <v>0.55574041660577933</v>
+        <v>0.20968085781442625</v>
       </c>
       <c r="R53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,R$7))</f>
-        <v>0.56418648544900663</v>
+        <v>0.20491212486597377</v>
       </c>
       <c r="S53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,S$7))</f>
-        <v>0.57263255429223392</v>
+        <v>0.20014339191751951</v>
       </c>
       <c r="T53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,T$7))</f>
-        <v>0.58107862313546121</v>
+        <v>0.19537465896906703</v>
       </c>
       <c r="U53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,U$7))</f>
-        <v>0.58952469197868851</v>
+        <v>0.19060592602061277</v>
       </c>
       <c r="V53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,V$7))</f>
-        <v>0.5979707608219158</v>
+        <v>0.18583719307216029</v>
       </c>
       <c r="W53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,W$7))</f>
-        <v>0.6064168296651431</v>
+        <v>0.18106846012370603</v>
       </c>
       <c r="X53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,X$7))</f>
-        <v>0.61486289850837039</v>
+        <v>0.17629972717525355</v>
       </c>
       <c r="Y53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Y$7))</f>
-        <v>0.62330896735159413</v>
+        <v>0.17153099422679929</v>
       </c>
       <c r="Z53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Z$7))</f>
-        <v>0.63175503619482143</v>
+        <v>0.16676226127834681</v>
       </c>
       <c r="AA53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AA$7))</f>
-        <v>0.64020110503804872</v>
+        <v>0.16199352832989256</v>
       </c>
       <c r="AB53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AB$7))</f>
-        <v>0.64864717388127602</v>
+        <v>0.15722479538144007</v>
       </c>
       <c r="AC53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AC$7))</f>
-        <v>0.65709324272450331</v>
+        <v>0.15245606243298582</v>
       </c>
       <c r="AD53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AD$7))</f>
-        <v>0.66553931156773061</v>
+        <v>0.14768732948453334</v>
       </c>
       <c r="AE53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AE$7))</f>
-        <v>0.6739853804109579</v>
+        <v>0.14291859653607908</v>
       </c>
       <c r="AF53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AF$7))</f>
-        <v>0.6824314492541852</v>
+        <v>0.1381498635876266</v>
       </c>
       <c r="AG53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AG$7))</f>
-        <v>0.69087751809741249</v>
+        <v>0.13338113063917234</v>
       </c>
       <c r="AH53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AH$7))</f>
-        <v>0.69932358694063623</v>
+        <v>0.12861239769071986</v>
       </c>
       <c r="AI53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AI$7))</f>
-        <v>0.70776965578386353</v>
+        <v>0.1238436647422656</v>
       </c>
       <c r="AJ53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AJ$7))</f>
-        <v>0.71621572462709082</v>
+        <v>0.11907493179381312</v>
       </c>
       <c r="AK53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AK$7))</f>
-        <v>0.72466179347031812</v>
+        <v>0.11430619884535886</v>
       </c>
       <c r="AL53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AL$7))</f>
-        <v>0.73310786231354541</v>
+        <v>0.10953746589690638</v>
       </c>
       <c r="AM53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AM$7))</f>
-        <v>0.74155393115677271</v>
+        <v>0.1047687329484539</v>
       </c>
       <c r="AN53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AN$7))</f>
-        <v>0.75</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="AO53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AO$7))</f>
-        <v>0.75844606884322729</v>
+        <v>9.5231267051547164E-2</v>
       </c>
       <c r="AP53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AP$7))</f>
-        <v>0.76689213768645459</v>
+        <v>9.0462534103092906E-2</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.45">
@@ -63793,7 +63760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="586">
   <si>
     <t>Source:</t>
   </si>
@@ -384,24 +384,6 @@
   </si>
   <si>
     <t>Here are the assumptions we use for the U.S.:</t>
-  </si>
-  <si>
-    <t>For LDVs, the potential sales share of each non-reference technology</t>
-  </si>
-  <si>
-    <t>is estimated as the that technology's percentage of the total LDV stock</t>
-  </si>
-  <si>
-    <t>existing stock of LDVs of a given technology type could be built and sold</t>
-  </si>
-  <si>
-    <t>in the first calculated year of the model run, which would represent a</t>
-  </si>
-  <si>
-    <t>100% annual growth rate relative to the prior year.</t>
-  </si>
-  <si>
-    <t>in the start year (AEO 40).  This is generous, as it effectively means that the entire</t>
   </si>
   <si>
     <t>EIA</t>
@@ -1202,9 +1184,6 @@
     <t>as maximum potentials in the first simulated year.</t>
   </si>
   <si>
-    <t>For freight HDVs, we use the sales shares by technology from AEO 50</t>
-  </si>
-  <si>
     <t>First and Last Simulated Year Values</t>
   </si>
   <si>
@@ -1748,33 +1727,6 @@
     <t>not on the basis of which types are compatible with which</t>
   </si>
   <si>
-    <t>track.  Accordingly, we bound the maximum penetration</t>
-  </si>
-  <si>
-    <t>of rail technology here.</t>
-  </si>
-  <si>
-    <t>Even without changing rail infrastructure, it is possible</t>
-  </si>
-  <si>
-    <t>for demand changes to shift patterns (e.g. if urban metro</t>
-  </si>
-  <si>
-    <t>systems grow in usage while intercity passenger rail</t>
-  </si>
-  <si>
-    <t>declines in usage), so some flexibility should be</t>
-  </si>
-  <si>
-    <t>included under this limit, even if no dramatic</t>
-  </si>
-  <si>
-    <t>track replacements or installation of new high-speed</t>
-  </si>
-  <si>
-    <t>rail lines is anticipated.</t>
-  </si>
-  <si>
     <t>ref2020.d112119a</t>
   </si>
   <si>
@@ -1833,6 +1785,27 @@
   </si>
   <si>
     <t>https://www.eia.gov/outlooks/aeo/supplement/excel/suptab_49.xlsx</t>
+  </si>
+  <si>
+    <t>For passenger LDVs and freight HDVs, we use the sales shares by technology from AEO 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For passenger LDVs, we use the sales shares by technology from AEO 38 </t>
+  </si>
+  <si>
+    <t>in year 2025 as the maximum potential in the first simulated year.</t>
+  </si>
+  <si>
+    <t>Using the reported sales share from a few years out produces more accurate</t>
+  </si>
+  <si>
+    <t>forecasts in the start year.</t>
+  </si>
+  <si>
+    <t>track.  Accordingly, we bound the BAU maximum penetration</t>
+  </si>
+  <si>
+    <t>of rail technology at the same level as 2019 here.</t>
   </si>
 </sst>
 </file>
@@ -2502,10 +2475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2525,12 +2498,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -2540,27 +2513,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -2570,27 +2543,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="16" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="18" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="16" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="17" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
@@ -2600,37 +2573,37 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="16" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="16" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="16" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="17" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="19" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="17" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="20" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.45">
@@ -2640,12 +2613,12 @@
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="20" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="20" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.45">
@@ -2653,7 +2626,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="20" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -2663,12 +2636,12 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" s="20" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="20" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -2678,12 +2651,12 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="38" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="38" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -2701,22 +2674,22 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -2727,7 +2700,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B52" s="17" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -2775,232 +2748,222 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="17" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" s="16" t="s">
-        <v>112</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="16" t="s">
-        <v>113</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="16" t="s">
-        <v>117</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B71" s="16" t="s">
-        <v>115</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B74" s="16" t="s">
-        <v>384</v>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B73" s="16" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" s="16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B77" s="16" t="s">
-        <v>387</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B76" s="16" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B80" s="16" t="s">
-        <v>390</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B79" s="16" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B81" s="16" t="s">
-        <v>388</v>
+      <c r="B81" s="17" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B83" s="17" t="s">
-        <v>391</v>
+      <c r="B83" s="16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B84" s="16" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="16" t="s">
-        <v>417</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" s="16" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" s="16" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" s="16" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="16" t="s">
-        <v>551</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" s="16" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" s="16" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="16" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" s="16" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" s="16" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B96" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="16" t="s">
-        <v>434</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B98" s="16" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="16" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" s="16" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" s="16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B102" s="16" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" s="16" t="s">
-        <v>462</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B104" s="16" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" s="16" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" s="16" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" s="16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" s="16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B109" s="16" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" s="16" t="s">
-        <v>416</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B112" s="16" t="s">
-        <v>549</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B113" s="16" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B114" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B116" s="16" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" s="16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B118" s="16" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B119" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B120" s="16" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +2992,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -3174,139 +3137,139 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I15</f>
-        <v>3.3967233634410762E-3</v>
+        <v>3.9166926468788582E-2</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J15</f>
-        <v>1.4346346389308134E-2</v>
+        <v>4.9723544325252521E-2</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K15</f>
-        <v>1.8120571758089371E-2</v>
+        <v>5.3362304749083656E-2</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L15</f>
-        <v>2.316963706749383E-2</v>
+        <v>5.8230148407061193E-2</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M15</f>
-        <v>2.9903374310827107E-2</v>
+        <v>6.4722197553938501E-2</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N15</f>
-        <v>3.8847087146409505E-2</v>
+        <v>7.3344901586776062E-2</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O15</f>
-        <v>5.0661503969554017E-2</v>
+        <v>8.4735273958891508E-2</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P15</f>
-        <v>6.6156176350644483E-2</v>
+        <v>9.9673809719607862E-2</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q15</f>
-        <v>8.6286905215982146E-2</v>
+        <v>0.11908200407492263</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R15</f>
-        <v>0.1121229728376217</v>
+        <v>0.14399076049065435</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S15</f>
-        <v>0.14476595943765241</v>
+        <v>0.17546212114079962</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T15</f>
-        <v>0.1852025981309964</v>
+        <v>0.21444740319819114</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U15</f>
-        <v>0.23408568258847698</v>
+        <v>0.26157597018573009</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V15</f>
-        <v>0.29146539616078926</v>
+        <v>0.31689620426733145</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W15</f>
-        <v>0.35653680963431478</v>
+        <v>0.37963206684425987</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X15</f>
-        <v>0.42750870550614906</v>
+        <v>0.44805663100484905</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y15</f>
-        <v>0.50169836168172055</v>
+        <v>0.5195834632343943</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z15</f>
-        <v>0.57588801785729204</v>
+        <v>0.59111029546393956</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA15</f>
-        <v>0.64685991372912632</v>
+        <v>0.65953485962452862</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB15</f>
-        <v>0.71193132720265184</v>
+        <v>0.72227072220145716</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC15</f>
-        <v>0.76931104077496404</v>
+        <v>0.77759095628305852</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD15</f>
-        <v>0.81819412523244461</v>
+        <v>0.82471952327059739</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE15</f>
-        <v>0.85863076392578874</v>
+        <v>0.86370480532798899</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF15</f>
-        <v>0.89127375052581936</v>
+        <v>0.89517616597813421</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG15</f>
-        <v>0.91710981814745896</v>
+        <v>0.92008492239386597</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH15</f>
-        <v>0.93724054701279669</v>
+        <v>0.93949311674918079</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI15</f>
-        <v>0.95273521939388717</v>
+        <v>0.95443165250989714</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ15</f>
-        <v>0.9645496362170316</v>
+        <v>0.96582202488201252</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK15</f>
-        <v>0.97349334905261387</v>
+        <v>0.97444472891485001</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL15</f>
-        <v>0.98022708629594735</v>
+        <v>0.98093677806172741</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM15</f>
-        <v>0.98527615160535176</v>
+        <v>0.98580462171970495</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN15</f>
-        <v>0.98905037697413301</v>
+        <v>0.98944338214353611</v>
       </c>
       <c r="AH2" s="16">
         <f>Data!AO15</f>
-        <v>0.99186515484298177</v>
+        <v>0.99215713167099218</v>
       </c>
       <c r="AI2" s="16">
         <f>Data!AP15</f>
-        <v>0.99396078197772009</v>
+        <v>0.99417754230785216</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -3875,7 +3838,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I20</f>
@@ -4016,7 +3979,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I21</f>
@@ -4177,7 +4140,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -5023,7 +4986,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I27</f>
@@ -5164,7 +5127,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I28</f>
@@ -5327,7 +5290,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -6173,7 +6136,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I34</f>
@@ -6314,7 +6277,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I35</f>
@@ -6475,7 +6438,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -7321,7 +7284,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I41</f>
@@ -7462,7 +7425,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I42</f>
@@ -7623,7 +7586,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -8469,7 +8432,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I48</f>
@@ -8610,7 +8573,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I49</f>
@@ -8773,7 +8736,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -8922,135 +8885,135 @@
       </c>
       <c r="C2" s="16">
         <f>Data!J50</f>
-        <v>0.75379348625303</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K50</f>
-        <v>0.75435333436117979</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L50</f>
-        <v>0.75510228530745249</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M50</f>
-        <v>0.75610113134554036</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N50</f>
-        <v>0.75742779316924924</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O50</f>
-        <v>0.75918027964290846</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P50</f>
-        <v>0.76147867525296065</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q50</f>
-        <v>0.7644647583215971</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R50</f>
-        <v>0.76829714037796482</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S50</f>
-        <v>0.77313922385383504</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T50</f>
-        <v>0.77913737538438765</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U50</f>
-        <v>0.78638842683998322</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V50</f>
-        <v>0.79489982214651456</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W50</f>
-        <v>0.80455216247285544</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X50</f>
-        <v>0.81507974833572117</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y50</f>
-        <v>0.82608463929897324</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z50</f>
-        <v>0.83708953026222532</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA50</f>
-        <v>0.84761711612509105</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB50</f>
-        <v>0.85726945645143193</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC50</f>
-        <v>0.86578085175796327</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD50</f>
-        <v>0.87303190321355884</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE50</f>
-        <v>0.87903005474411144</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF50</f>
-        <v>0.88387213821998167</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG50</f>
-        <v>0.88770452027634938</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH50</f>
-        <v>0.89069060334498584</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI50</f>
-        <v>0.89298899895503803</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ50</f>
-        <v>0.89474148542869725</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK50</f>
-        <v>0.89606814725240613</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL50</f>
-        <v>0.897066993290494</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM50</f>
-        <v>0.89781594423676669</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN50</f>
-        <v>0.89837579234491649</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AH2" s="16">
         <f>Data!AO50</f>
-        <v>0.89879332121793287</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AI2" s="16">
         <f>Data!AP50</f>
-        <v>0.89910417517394592</v>
+        <v>0.75216927859794647</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -9345,135 +9308,135 @@
       </c>
       <c r="C5" s="16">
         <f>Data!J53</f>
-        <v>0.24306198845360072</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="D5" s="16">
         <f>Data!K53</f>
-        <v>0.23829325550514646</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="E5" s="16">
         <f>Data!L53</f>
-        <v>0.23352452255669398</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="F5" s="16">
         <f>Data!M53</f>
-        <v>0.22875578960823972</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="G5" s="16">
         <f>Data!N53</f>
-        <v>0.22398705665978724</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="H5" s="16">
         <f>Data!O53</f>
-        <v>0.21921832371133299</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="I5" s="16">
         <f>Data!P53</f>
-        <v>0.2144495907628805</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="J5" s="16">
         <f>Data!Q53</f>
-        <v>0.20968085781442625</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="K5" s="16">
         <f>Data!R53</f>
-        <v>0.20491212486597377</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="L5" s="16">
         <f>Data!S53</f>
-        <v>0.20014339191751951</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="M5" s="16">
         <f>Data!T53</f>
-        <v>0.19537465896906703</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="N5" s="16">
         <f>Data!U53</f>
-        <v>0.19060592602061277</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="O5" s="16">
         <f>Data!V53</f>
-        <v>0.18583719307216029</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="P5" s="16">
         <f>Data!W53</f>
-        <v>0.18106846012370603</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="Q5" s="16">
         <f>Data!X53</f>
-        <v>0.17629972717525355</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="R5" s="16">
         <f>Data!Y53</f>
-        <v>0.17153099422679929</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="S5" s="16">
         <f>Data!Z53</f>
-        <v>0.16676226127834681</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="T5" s="16">
         <f>Data!AA53</f>
-        <v>0.16199352832989256</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="U5" s="16">
         <f>Data!AB53</f>
-        <v>0.15722479538144007</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="V5" s="16">
         <f>Data!AC53</f>
-        <v>0.15245606243298582</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="W5" s="16">
         <f>Data!AD53</f>
-        <v>0.14768732948453334</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="X5" s="16">
         <f>Data!AE53</f>
-        <v>0.14291859653607908</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="Y5" s="16">
         <f>Data!AF53</f>
-        <v>0.1381498635876266</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="Z5" s="16">
         <f>Data!AG53</f>
-        <v>0.13338113063917234</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AA5" s="16">
         <f>Data!AH53</f>
-        <v>0.12861239769071986</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AB5" s="16">
         <f>Data!AI53</f>
-        <v>0.1238436647422656</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AC5" s="16">
         <f>Data!AJ53</f>
-        <v>0.11907493179381312</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AD5" s="16">
         <f>Data!AK53</f>
-        <v>0.11430619884535886</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AE5" s="16">
         <f>Data!AL53</f>
-        <v>0.10953746589690638</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AF5" s="16">
         <f>Data!AM53</f>
-        <v>0.1047687329484539</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AG5" s="16">
         <f>Data!AN53</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AH5" s="16">
         <f>Data!AO53</f>
-        <v>9.5231267051547164E-2</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AI5" s="16">
         <f>Data!AP53</f>
-        <v>9.0462534103092906E-2</v>
+        <v>0.24783072140205353</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
@@ -9619,7 +9582,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I55</f>
@@ -9760,7 +9723,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I56</f>
@@ -9923,7 +9886,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -10721,7 +10684,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I62</f>
@@ -10854,7 +10817,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I63</f>
@@ -11009,7 +10972,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -11807,7 +11770,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I69</f>
@@ -11940,7 +11903,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I70</f>
@@ -12095,7 +12058,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -12893,7 +12856,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I76</f>
@@ -13026,7 +12989,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I77</f>
@@ -13181,7 +13144,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -13979,7 +13942,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I83</f>
@@ -14112,7 +14075,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I84</f>
@@ -14252,7 +14215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14264,7 +14227,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="43" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C1" s="44">
         <v>2019</v>
@@ -14369,7 +14332,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -14381,7 +14344,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
@@ -14395,7 +14358,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
@@ -14408,7 +14371,7 @@
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -14419,15 +14382,15 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="43" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14531,7 +14494,7 @@
         <v>95</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -14641,7 +14604,7 @@
     <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="47" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14651,7 +14614,7 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>65</v>
@@ -14758,7 +14721,7 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>63</v>
@@ -14865,7 +14828,7 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>88</v>
@@ -14978,7 +14941,7 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>58</v>
@@ -15085,7 +15048,7 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>56</v>
@@ -15192,7 +15155,7 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>54</v>
@@ -15299,10 +15262,10 @@
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C25" s="49">
         <v>223.874359</v>
@@ -15406,7 +15369,7 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>52</v>
@@ -15513,7 +15476,7 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>50</v>
@@ -15620,7 +15583,7 @@
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>48</v>
@@ -15727,7 +15690,7 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>46</v>
@@ -15834,7 +15797,7 @@
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>44</v>
@@ -15941,7 +15904,7 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>42</v>
@@ -16048,7 +16011,7 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>40</v>
@@ -16155,7 +16118,7 @@
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>38</v>
@@ -16262,7 +16225,7 @@
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>35</v>
@@ -16369,7 +16332,7 @@
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>32</v>
@@ -16476,7 +16439,7 @@
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>71</v>
@@ -16584,10 +16547,10 @@
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C38" s="49">
         <v>8.5290809999999997</v>
@@ -16691,10 +16654,10 @@
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C39" s="51">
         <v>7338.0126950000003</v>
@@ -16799,7 +16762,7 @@
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="47" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16809,7 +16772,7 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B43" s="48" t="s">
         <v>65</v>
@@ -16916,7 +16879,7 @@
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>63</v>
@@ -17023,7 +16986,7 @@
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>61</v>
@@ -17136,7 +17099,7 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B48" s="48" t="s">
         <v>58</v>
@@ -17243,7 +17206,7 @@
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="14" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B49" s="48" t="s">
         <v>56</v>
@@ -17350,7 +17313,7 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="14" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B50" s="48" t="s">
         <v>54</v>
@@ -17457,10 +17420,10 @@
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C51" s="49">
         <v>5.4257739999999997</v>
@@ -17564,7 +17527,7 @@
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="14" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B52" s="48" t="s">
         <v>52</v>
@@ -17671,7 +17634,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="14" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>50</v>
@@ -17778,7 +17741,7 @@
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="14" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B54" s="48" t="s">
         <v>48</v>
@@ -17885,7 +17848,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="14" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B55" s="48" t="s">
         <v>46</v>
@@ -17992,7 +17955,7 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B56" s="48" t="s">
         <v>44</v>
@@ -18099,7 +18062,7 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="14" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B57" s="48" t="s">
         <v>42</v>
@@ -18206,7 +18169,7 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="14" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B58" s="48" t="s">
         <v>40</v>
@@ -18313,7 +18276,7 @@
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="14" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B59" s="48" t="s">
         <v>38</v>
@@ -18420,7 +18383,7 @@
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="14" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B60" s="48" t="s">
         <v>35</v>
@@ -18527,7 +18490,7 @@
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="14" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B61" s="48" t="s">
         <v>32</v>
@@ -18634,7 +18597,7 @@
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B62" s="48" t="s">
         <v>30</v>
@@ -18742,10 +18705,10 @@
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C64" s="49">
         <v>12.330686</v>
@@ -18849,10 +18812,10 @@
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="14" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C65" s="51">
         <v>8360.6298829999996</v>
@@ -18957,10 +18920,10 @@
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C67" s="49">
         <v>10.553703000000001</v>
@@ -19064,10 +19027,10 @@
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="14" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C68" s="49">
         <v>106.40548699999999</v>
@@ -19171,10 +19134,10 @@
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="14" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B69" s="48" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C69" s="49">
         <v>0</v>
@@ -19279,15 +19242,15 @@
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="47" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C72" s="49">
         <v>13964.814453000001</v>
@@ -19391,10 +19354,10 @@
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C73" s="49">
         <v>77.040076999999997</v>
@@ -19498,10 +19461,10 @@
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B74" s="48" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C74" s="49">
         <v>857.57031199999994</v>
@@ -19605,10 +19568,10 @@
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B75" s="48" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C75" s="49">
         <v>289.600525</v>
@@ -19712,10 +19675,10 @@
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="14" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B76" s="48" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C76" s="49">
         <v>136.54045099999999</v>
@@ -19819,10 +19782,10 @@
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="14" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B77" s="48" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C77" s="49">
         <v>354.722015</v>
@@ -19926,10 +19889,10 @@
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B78" s="48" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C78" s="49">
         <v>16.390930000000001</v>
@@ -20033,10 +19996,10 @@
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="14" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C79" s="49">
         <v>1.9637789999999999</v>
@@ -20140,10 +20103,10 @@
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C80" s="51">
         <v>15698.642578000001</v>
@@ -20248,10 +20211,10 @@
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="14" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C82" s="49">
         <v>1685.349365</v>
@@ -20355,10 +20318,10 @@
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="14" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B83" s="48" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C83" s="49">
         <v>9.403886</v>
@@ -20463,10 +20426,10 @@
     <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="14" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C85" s="51">
         <v>3419.1777339999999</v>
@@ -20571,7 +20534,7 @@
     <row r="86" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="57" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C87" s="57"/>
       <c r="D87" s="57"/>
@@ -20609,7 +20572,7 @@
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="53" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20619,12 +20582,12 @@
     </row>
     <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="53" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="53" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20639,7 +20602,7 @@
     </row>
     <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="53" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20674,7 +20637,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -21472,7 +21435,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I90</f>
@@ -21605,7 +21568,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I91</f>
@@ -21760,7 +21723,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="43" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C1" s="44">
         <v>2019</v>
@@ -21865,7 +21828,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -21877,7 +21840,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
@@ -21891,7 +21854,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
@@ -21904,7 +21867,7 @@
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -21915,7 +21878,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22024,7 +21987,7 @@
         <v>95</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -22794,7 +22757,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C25" s="54">
         <v>0.38929200000000003</v>
@@ -24842,7 +24805,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C50" s="54">
         <v>1.3566E-2</v>
@@ -26391,7 +26354,7 @@
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="53" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -26422,7 +26385,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="43" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C1" s="44">
         <v>2019</v>
@@ -26527,7 +26490,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -26539,7 +26502,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
@@ -26553,7 +26516,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
@@ -26566,7 +26529,7 @@
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -26574,10 +26537,10 @@
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -26686,12 +26649,12 @@
         <v>95</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="44" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C13" s="44">
         <v>2019</v>
@@ -26796,25 +26759,25 @@
     <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="47" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="47" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C19" s="49">
         <v>45.338524</v>
@@ -26918,10 +26881,10 @@
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C20" s="49">
         <v>12.993387999999999</v>
@@ -27025,10 +26988,10 @@
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C21" s="49">
         <v>1.0973999999999999E-2</v>
@@ -27132,10 +27095,10 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C22" s="49">
         <v>6.4700000000000001E-3</v>
@@ -27239,10 +27202,10 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C23" s="49">
         <v>3.7658459999999998</v>
@@ -27346,10 +27309,10 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C24" s="49">
         <v>1.196E-3</v>
@@ -27453,10 +27416,10 @@
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C25" s="49">
         <v>0</v>
@@ -27560,10 +27523,10 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C26" s="49">
         <v>0</v>
@@ -27667,10 +27630,10 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C27" s="49">
         <v>0</v>
@@ -27774,10 +27737,10 @@
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C28" s="49">
         <v>62.116385999999999</v>
@@ -27881,15 +27844,15 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C30" s="49">
         <v>37.390987000000003</v>
@@ -27993,10 +27956,10 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="14" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C31" s="49">
         <v>16.566603000000001</v>
@@ -28100,10 +28063,10 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C32" s="49">
         <v>5.5921999999999999E-2</v>
@@ -28207,10 +28170,10 @@
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C33" s="49">
         <v>5.5612000000000002E-2</v>
@@ -28314,10 +28277,10 @@
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C34" s="49">
         <v>0.53423900000000002</v>
@@ -28421,10 +28384,10 @@
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C35" s="49">
         <v>7.1000000000000005E-5</v>
@@ -28528,10 +28491,10 @@
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C36" s="49">
         <v>0</v>
@@ -28635,10 +28598,10 @@
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C37" s="49">
         <v>0</v>
@@ -28742,10 +28705,10 @@
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C38" s="49">
         <v>0</v>
@@ -28849,10 +28812,10 @@
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C39" s="49">
         <v>54.603447000000003</v>
@@ -28956,15 +28919,15 @@
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B41" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C41" s="49">
         <v>185.11108400000001</v>
@@ -29068,10 +29031,10 @@
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C42" s="49">
         <v>0.18604699999999999</v>
@@ -29175,10 +29138,10 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C43" s="49">
         <v>3.8039999999999997E-2</v>
@@ -29282,10 +29245,10 @@
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C44" s="49">
         <v>2.235852</v>
@@ -29389,10 +29352,10 @@
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C45" s="49">
         <v>0</v>
@@ -29496,10 +29459,10 @@
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="14" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C46" s="49">
         <v>0</v>
@@ -29603,10 +29566,10 @@
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C47" s="49">
         <v>1.0020000000000001E-3</v>
@@ -29710,10 +29673,10 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C48" s="49">
         <v>1.0790000000000001E-3</v>
@@ -29817,10 +29780,10 @@
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="14" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C49" s="49">
         <v>1.173E-3</v>
@@ -29924,10 +29887,10 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C50" s="49">
         <v>187.57427999999999</v>
@@ -30031,10 +29994,10 @@
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C51" s="51">
         <v>304.29357900000002</v>
@@ -30138,20 +30101,20 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="47" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="14" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C55" s="49">
         <v>441.157196</v>
@@ -30255,10 +30218,10 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C56" s="49">
         <v>165.25325000000001</v>
@@ -30362,10 +30325,10 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="14" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C57" s="49">
         <v>0.118809</v>
@@ -30469,10 +30432,10 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="14" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C58" s="49">
         <v>6.5120999999999998E-2</v>
@@ -30576,10 +30539,10 @@
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C59" s="49">
         <v>46.497841000000001</v>
@@ -30683,10 +30646,10 @@
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="14" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C60" s="49">
         <v>6.8770000000000003E-3</v>
@@ -30790,10 +30753,10 @@
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C61" s="49">
         <v>0</v>
@@ -30897,10 +30860,10 @@
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C62" s="49">
         <v>0</v>
@@ -31004,10 +30967,10 @@
     </row>
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="14" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C63" s="49">
         <v>0</v>
@@ -31111,10 +31074,10 @@
     </row>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C64" s="49">
         <v>653.09906000000001</v>
@@ -31218,15 +31181,15 @@
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C66" s="49">
         <v>583.02459699999997</v>
@@ -31330,10 +31293,10 @@
     </row>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C67" s="49">
         <v>315.82879600000001</v>
@@ -31437,10 +31400,10 @@
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C68" s="49">
         <v>1.0311980000000001</v>
@@ -31544,10 +31507,10 @@
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="14" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B69" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C69" s="49">
         <v>1.050346</v>
@@ -31651,10 +31614,10 @@
     </row>
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B70" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C70" s="49">
         <v>9.4828349999999997</v>
@@ -31758,10 +31721,10 @@
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C71" s="49">
         <v>0</v>
@@ -31865,10 +31828,10 @@
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B72" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C72" s="49">
         <v>0</v>
@@ -31972,10 +31935,10 @@
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B73" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C73" s="49">
         <v>0</v>
@@ -32079,10 +32042,10 @@
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B74" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C74" s="49">
         <v>0</v>
@@ -32186,10 +32149,10 @@
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B75" s="48" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C75" s="49">
         <v>910.41778599999998</v>
@@ -32293,15 +32256,15 @@
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B77" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C77" s="49">
         <v>4258.8935549999997</v>
@@ -32405,10 +32368,10 @@
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B78" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C78" s="49">
         <v>4.3203969999999998</v>
@@ -32512,10 +32475,10 @@
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C79" s="49">
         <v>0.81035999999999997</v>
@@ -32619,10 +32582,10 @@
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C80" s="49">
         <v>54.018715</v>
@@ -32726,10 +32689,10 @@
     </row>
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B81" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C81" s="49">
         <v>0</v>
@@ -32833,10 +32796,10 @@
     </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="14" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C82" s="49">
         <v>0</v>
@@ -32940,10 +32903,10 @@
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B83" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C83" s="49">
         <v>5.6251000000000002E-2</v>
@@ -33047,10 +33010,10 @@
     </row>
     <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="14" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C84" s="49">
         <v>5.3886999999999997E-2</v>
@@ -33154,10 +33117,10 @@
     </row>
     <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="14" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C85" s="49">
         <v>2.4469000000000001E-2</v>
@@ -33261,10 +33224,10 @@
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C86" s="49">
         <v>4318.1782229999999</v>
@@ -33368,15 +33331,15 @@
     </row>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="47" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="14" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C88" s="49">
         <v>5283.0751950000003</v>
@@ -33480,10 +33443,10 @@
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B89" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C89" s="49">
         <v>485.40243500000003</v>
@@ -33587,10 +33550,10 @@
     </row>
     <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C90" s="49">
         <v>1.960367</v>
@@ -33694,10 +33657,10 @@
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="14" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C91" s="49">
         <v>55.134182000000003</v>
@@ -33801,10 +33764,10 @@
     </row>
     <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C92" s="49">
         <v>55.980674999999998</v>
@@ -33908,10 +33871,10 @@
     </row>
     <row r="93" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="14" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C93" s="49">
         <v>6.8770000000000003E-3</v>
@@ -34015,10 +33978,10 @@
     </row>
     <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="14" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C94" s="49">
         <v>5.6251000000000002E-2</v>
@@ -34122,10 +34085,10 @@
     </row>
     <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C95" s="49">
         <v>5.3886999999999997E-2</v>
@@ -34229,10 +34192,10 @@
     </row>
     <row r="96" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B96" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C96" s="49">
         <v>2.4469000000000001E-2</v>
@@ -34336,10 +34299,10 @@
     </row>
     <row r="97" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="14" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C97" s="51">
         <v>5881.6953119999998</v>
@@ -34443,20 +34406,20 @@
     </row>
     <row r="99" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="47" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B101" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C101" s="49">
         <v>14.254448999999999</v>
@@ -34560,10 +34523,10 @@
     </row>
     <row r="102" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B102" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C102" s="49">
         <v>9.8339770000000009</v>
@@ -34667,10 +34630,10 @@
     </row>
     <row r="103" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B103" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C103" s="49">
         <v>11.552765000000001</v>
@@ -34774,10 +34737,10 @@
     </row>
     <row r="104" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="14" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B104" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C104" s="49">
         <v>12.425288</v>
@@ -34881,10 +34844,10 @@
     </row>
     <row r="105" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="14" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C105" s="49">
         <v>10.129466000000001</v>
@@ -34988,10 +34951,10 @@
     </row>
     <row r="106" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B106" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C106" s="49">
         <v>24.122505</v>
@@ -35095,10 +35058,10 @@
     </row>
     <row r="107" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C107" s="49">
         <v>0</v>
@@ -35202,10 +35165,10 @@
     </row>
     <row r="108" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="14" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C108" s="49">
         <v>0</v>
@@ -35309,10 +35272,10 @@
     </row>
     <row r="109" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="14" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C109" s="49">
         <v>0</v>
@@ -35416,10 +35379,10 @@
     </row>
     <row r="110" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C110" s="49">
         <v>12.956725</v>
@@ -35523,15 +35486,15 @@
     </row>
     <row r="111" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C112" s="49">
         <v>8.8952179999999998</v>
@@ -35635,10 +35598,10 @@
     </row>
     <row r="113" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C113" s="49">
         <v>6.5605250000000002</v>
@@ -35742,10 +35705,10 @@
     </row>
     <row r="114" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C114" s="49">
         <v>6.7825660000000001</v>
@@ -35849,10 +35812,10 @@
     </row>
     <row r="115" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C115" s="49">
         <v>6.6220169999999996</v>
@@ -35956,10 +35919,10 @@
     </row>
     <row r="116" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="14" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C116" s="49">
         <v>7.0461770000000001</v>
@@ -36063,10 +36026,10 @@
     </row>
     <row r="117" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C117" s="49">
         <v>0</v>
@@ -36170,10 +36133,10 @@
     </row>
     <row r="118" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C118" s="49">
         <v>0</v>
@@ -36277,10 +36240,10 @@
     </row>
     <row r="119" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C119" s="49">
         <v>0</v>
@@ -36384,10 +36347,10 @@
     </row>
     <row r="120" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C120" s="49">
         <v>0</v>
@@ -36491,10 +36454,10 @@
     </row>
     <row r="121" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C121" s="49">
         <v>8.0157849999999993</v>
@@ -36598,15 +36561,15 @@
     </row>
     <row r="122" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C123" s="49">
         <v>6.0285409999999997</v>
@@ -36710,10 +36673,10 @@
     </row>
     <row r="124" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C124" s="49">
         <v>5.385866</v>
@@ -36817,10 +36780,10 @@
     </row>
     <row r="125" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C125" s="49">
         <v>5.8711399999999996</v>
@@ -36924,10 +36887,10 @@
     </row>
     <row r="126" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C126" s="49">
         <v>5.7408359999999998</v>
@@ -37031,10 +36994,10 @@
     </row>
     <row r="127" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="14" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C127" s="49">
         <v>0</v>
@@ -37138,10 +37101,10 @@
     </row>
     <row r="128" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C128" s="49">
         <v>0</v>
@@ -37245,10 +37208,10 @@
     </row>
     <row r="129" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C129" s="49">
         <v>2.4713270000000001</v>
@@ -37352,10 +37315,10 @@
     </row>
     <row r="130" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C130" s="49">
         <v>2.505185</v>
@@ -37459,10 +37422,10 @@
     </row>
     <row r="131" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C131" s="49">
         <v>6.6463850000000004</v>
@@ -37566,10 +37529,10 @@
     </row>
     <row r="132" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C132" s="49">
         <v>6.0241959999999999</v>
@@ -37673,10 +37636,10 @@
     </row>
     <row r="133" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B133" s="47" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C133" s="51">
         <v>7.1191649999999997</v>
@@ -37780,20 +37743,20 @@
     </row>
     <row r="135" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B135" s="47" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C137" s="54">
         <v>2.5165860000000002</v>
@@ -37897,10 +37860,10 @@
     </row>
     <row r="138" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C138" s="54">
         <v>1.108212</v>
@@ -38004,10 +37967,10 @@
     </row>
     <row r="139" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C139" s="54">
         <v>5.0699999999999996E-4</v>
@@ -38111,10 +38074,10 @@
     </row>
     <row r="140" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C140" s="54">
         <v>2.4399999999999999E-4</v>
@@ -38218,10 +38181,10 @@
     </row>
     <row r="141" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C141" s="54">
         <v>0.20819499999999999</v>
@@ -38325,10 +38288,10 @@
     </row>
     <row r="142" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B142" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C142" s="54">
         <v>8.0000000000000007E-5</v>
@@ -38432,10 +38395,10 @@
     </row>
     <row r="143" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C143" s="54">
         <v>0</v>
@@ -38539,10 +38502,10 @@
     </row>
     <row r="144" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B144" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C144" s="54">
         <v>0</v>
@@ -38646,10 +38609,10 @@
     </row>
     <row r="145" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C145" s="54">
         <v>0</v>
@@ -38753,10 +38716,10 @@
     </row>
     <row r="146" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C146" s="54">
         <v>3.8338220000000001</v>
@@ -38860,15 +38823,15 @@
     </row>
     <row r="147" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B147" s="47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="14" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B148" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C148" s="54">
         <v>2.0808499999999999</v>
@@ -38972,10 +38935,10 @@
     </row>
     <row r="149" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C149" s="54">
         <v>1.328433</v>
@@ -39079,10 +39042,10 @@
     </row>
     <row r="150" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C150" s="54">
         <v>3.4510000000000001E-3</v>
@@ -39186,10 +39149,10 @@
     </row>
     <row r="151" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B151" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C151" s="54">
         <v>2.813E-3</v>
@@ -39293,10 +39256,10 @@
     </row>
     <row r="152" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C152" s="54">
         <v>2.9399000000000002E-2</v>
@@ -39400,10 +39363,10 @@
     </row>
     <row r="153" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C153" s="54">
         <v>3.9999999999999998E-6</v>
@@ -39507,10 +39470,10 @@
     </row>
     <row r="154" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B154" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C154" s="54">
         <v>0</v>
@@ -39614,10 +39577,10 @@
     </row>
     <row r="155" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B155" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C155" s="54">
         <v>0</v>
@@ -39721,10 +39684,10 @@
     </row>
     <row r="156" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B156" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C156" s="54">
         <v>0</v>
@@ -39828,10 +39791,10 @@
     </row>
     <row r="157" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C157" s="54">
         <v>3.4449489999999998</v>
@@ -39935,15 +39898,15 @@
     </row>
     <row r="158" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B158" s="47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B159" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C159" s="54">
         <v>4.9681369999999996</v>
@@ -40047,10 +40010,10 @@
     </row>
     <row r="160" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B160" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C160" s="54">
         <v>4.9465000000000002E-2</v>
@@ -40154,10 +40117,10 @@
     </row>
     <row r="161" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B161" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C161" s="54">
         <v>4.0080000000000003E-3</v>
@@ -40261,10 +40224,10 @@
     </row>
     <row r="162" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B162" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C162" s="54">
         <v>4.317E-2</v>
@@ -40368,10 +40331,10 @@
     </row>
     <row r="163" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B163" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C163" s="54">
         <v>0</v>
@@ -40475,10 +40438,10 @@
     </row>
     <row r="164" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B164" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C164" s="54">
         <v>0</v>
@@ -40582,10 +40545,10 @@
     </row>
     <row r="165" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C165" s="54">
         <v>9.7E-5</v>
@@ -40689,10 +40652,10 @@
     </row>
     <row r="166" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C166" s="54">
         <v>1.05E-4</v>
@@ -40796,10 +40759,10 @@
     </row>
     <row r="167" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="14" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C167" s="54">
         <v>1.1400000000000001E-4</v>
@@ -40903,10 +40866,10 @@
     </row>
     <row r="168" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C168" s="54">
         <v>5.0650940000000002</v>
@@ -41010,10 +40973,10 @@
     </row>
     <row r="169" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B169" s="47" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C169" s="55">
         <v>12.343863000000001</v>
@@ -41117,25 +41080,25 @@
     </row>
     <row r="171" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="47" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="47" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="174" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B174" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C175" s="49">
         <v>15.833444</v>
@@ -41239,10 +41202,10 @@
     </row>
     <row r="176" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C176" s="49">
         <v>10.982303</v>
@@ -41346,10 +41309,10 @@
     </row>
     <row r="177" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B177" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C177" s="49">
         <v>12.17399</v>
@@ -41453,10 +41416,10 @@
     </row>
     <row r="178" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C178" s="49">
         <v>12.041198</v>
@@ -41560,10 +41523,10 @@
     </row>
     <row r="179" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C179" s="49">
         <v>10.610325</v>
@@ -41667,10 +41630,10 @@
     </row>
     <row r="180" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C180" s="49">
         <v>26.787324999999999</v>
@@ -41774,10 +41737,10 @@
     </row>
     <row r="181" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C181" s="49">
         <v>0</v>
@@ -41881,10 +41844,10 @@
     </row>
     <row r="182" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="14" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C182" s="49">
         <v>0</v>
@@ -41988,10 +41951,10 @@
     </row>
     <row r="183" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C183" s="49">
         <v>0</v>
@@ -42095,10 +42058,10 @@
     </row>
     <row r="184" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="14" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C184" s="49">
         <v>14.746924</v>
@@ -42202,15 +42165,15 @@
     </row>
     <row r="185" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B185" s="47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C186" s="49">
         <v>9.6279889999999995</v>
@@ -42314,10 +42277,10 @@
     </row>
     <row r="187" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B187" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C187" s="49">
         <v>7.0474810000000003</v>
@@ -42421,10 +42384,10 @@
     </row>
     <row r="188" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B188" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C188" s="49">
         <v>7.1174850000000003</v>
@@ -42528,10 +42491,10 @@
     </row>
     <row r="189" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B189" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C189" s="49">
         <v>6.9478559999999998</v>
@@ -42635,10 +42598,10 @@
     </row>
     <row r="190" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B190" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C190" s="49">
         <v>7.011361</v>
@@ -42742,10 +42705,10 @@
     </row>
     <row r="191" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B191" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C191" s="49">
         <v>16.819811000000001</v>
@@ -42849,10 +42812,10 @@
     </row>
     <row r="192" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B192" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C192" s="49">
         <v>0</v>
@@ -42956,10 +42919,10 @@
     </row>
     <row r="193" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B193" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C193" s="49">
         <v>0</v>
@@ -43063,10 +43026,10 @@
     </row>
     <row r="194" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B194" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C194" s="49">
         <v>0</v>
@@ -43170,10 +43133,10 @@
     </row>
     <row r="195" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C195" s="49">
         <v>8.8458699999999997</v>
@@ -43277,15 +43240,15 @@
     </row>
     <row r="196" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B196" s="47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C197" s="49">
         <v>6.2325189999999999</v>
@@ -43389,10 +43352,10 @@
     </row>
     <row r="198" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C198" s="49">
         <v>6.020702</v>
@@ -43496,10 +43459,10 @@
     </row>
     <row r="199" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="14" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C199" s="49">
         <v>6.2882499999999997</v>
@@ -43603,10 +43566,10 @@
     </row>
     <row r="200" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B200" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C200" s="49">
         <v>5.6803720000000002</v>
@@ -43710,10 +43673,10 @@
     </row>
     <row r="201" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B201" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C201" s="49">
         <v>0</v>
@@ -43817,10 +43780,10 @@
     </row>
     <row r="202" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B202" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C202" s="49">
         <v>0</v>
@@ -43924,10 +43887,10 @@
     </row>
     <row r="203" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B203" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C203" s="49">
         <v>7.8188630000000003</v>
@@ -44031,10 +43994,10 @@
     </row>
     <row r="204" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B204" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C204" s="49">
         <v>8.6858280000000008</v>
@@ -44138,10 +44101,10 @@
     </row>
     <row r="205" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="14" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B205" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C205" s="49">
         <v>6.2527379999999999</v>
@@ -44245,10 +44208,10 @@
     </row>
     <row r="206" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C206" s="49">
         <v>6.2240250000000001</v>
@@ -44352,10 +44315,10 @@
     </row>
     <row r="207" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B207" s="47" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C207" s="51">
         <v>7.3111649999999999</v>
@@ -44459,20 +44422,20 @@
     </row>
     <row r="209" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B209" s="47" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B210" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="211" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B211" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C211" s="49">
         <v>164.36260999999999</v>
@@ -44576,10 +44539,10 @@
     </row>
     <row r="212" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B212" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C212" s="49">
         <v>56.661766</v>
@@ -44683,10 +44646,10 @@
     </row>
     <row r="213" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C213" s="49">
         <v>0.19626199999999999</v>
@@ -44790,10 +44753,10 @@
     </row>
     <row r="214" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C214" s="49">
         <v>0.12302200000000001</v>
@@ -44897,10 +44860,10 @@
     </row>
     <row r="215" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C215" s="49">
         <v>24.537821000000001</v>
@@ -45004,10 +44967,10 @@
     </row>
     <row r="216" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C216" s="49">
         <v>0</v>
@@ -45111,10 +45074,10 @@
     </row>
     <row r="217" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B217" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C217" s="49">
         <v>0</v>
@@ -45218,10 +45181,10 @@
     </row>
     <row r="218" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B218" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C218" s="49">
         <v>0</v>
@@ -45325,10 +45288,10 @@
     </row>
     <row r="219" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B219" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C219" s="49">
         <v>0</v>
@@ -45432,10 +45395,10 @@
     </row>
     <row r="220" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C220" s="49">
         <v>245.88149999999999</v>
@@ -45539,15 +45502,15 @@
     </row>
     <row r="221" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B221" s="47" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="222" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="14" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C222" s="49">
         <v>133.18078600000001</v>
@@ -45651,10 +45614,10 @@
     </row>
     <row r="223" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B223" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C223" s="49">
         <v>68.587029000000001</v>
@@ -45758,10 +45721,10 @@
     </row>
     <row r="224" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C224" s="49">
         <v>0.287275</v>
@@ -45865,10 +45828,10 @@
     </row>
     <row r="225" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B225" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C225" s="49">
         <v>0.55974599999999997</v>
@@ -45972,10 +45935,10 @@
     </row>
     <row r="226" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C226" s="49">
         <v>4.698429</v>
@@ -46079,10 +46042,10 @@
     </row>
     <row r="227" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B227" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C227" s="49">
         <v>0</v>
@@ -46186,10 +46149,10 @@
     </row>
     <row r="228" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B228" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C228" s="49">
         <v>0</v>
@@ -46293,10 +46256,10 @@
     </row>
     <row r="229" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B229" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C229" s="49">
         <v>0</v>
@@ -46400,10 +46363,10 @@
     </row>
     <row r="230" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B230" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C230" s="49">
         <v>0</v>
@@ -46507,10 +46470,10 @@
     </row>
     <row r="231" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B231" s="48" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C231" s="49">
         <v>207.31321700000001</v>
@@ -46614,15 +46577,15 @@
     </row>
     <row r="232" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B232" s="47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="233" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B233" s="48" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C233" s="49">
         <v>313.00292999999999</v>
@@ -46726,10 +46689,10 @@
     </row>
     <row r="234" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B234" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C234" s="49">
         <v>0.50072899999999998</v>
@@ -46833,10 +46796,10 @@
     </row>
     <row r="235" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B235" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C235" s="49">
         <v>0.36423699999999998</v>
@@ -46940,10 +46903,10 @@
     </row>
     <row r="236" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B236" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C236" s="49">
         <v>5.4496529999999996</v>
@@ -47047,10 +47010,10 @@
     </row>
     <row r="237" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B237" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C237" s="49">
         <v>0</v>
@@ -47154,10 +47117,10 @@
     </row>
     <row r="238" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B238" s="48" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C238" s="49">
         <v>0</v>
@@ -47261,10 +47224,10 @@
     </row>
     <row r="239" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B239" s="48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C239" s="49">
         <v>5.0930000000000003E-2</v>
@@ -47368,10 +47331,10 @@
     </row>
     <row r="240" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="14" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B240" s="48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C240" s="49">
         <v>5.4847E-2</v>
@@ -47475,10 +47438,10 @@
     </row>
     <row r="241" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B241" s="48" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C241" s="49">
         <v>5.9582000000000003E-2</v>
@@ -47582,10 +47545,10 @@
     </row>
     <row r="242" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B242" s="48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C242" s="49">
         <v>319.48291</v>
@@ -47689,10 +47652,10 @@
     </row>
     <row r="243" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B243" s="47" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C243" s="51">
         <v>772.67767300000003</v>
@@ -47796,15 +47759,15 @@
     </row>
     <row r="247" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B247" s="47" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B248" s="48" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C248" s="56">
         <v>1808.001221</v>
@@ -47908,10 +47871,10 @@
     </row>
     <row r="249" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B249" s="48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C249" s="49">
         <v>3.4668839999999999</v>
@@ -48015,15 +47978,15 @@
     </row>
     <row r="250" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B250" s="47" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="251" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B251" s="48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C251" s="49">
         <v>521.50610400000005</v>
@@ -48127,10 +48090,10 @@
     </row>
     <row r="252" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B252" s="48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C252" s="49">
         <v>0</v>
@@ -48234,10 +48197,10 @@
     </row>
     <row r="253" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B253" s="48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C253" s="49">
         <v>0</v>
@@ -48341,10 +48304,10 @@
     </row>
     <row r="254" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B254" s="48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C254" s="49">
         <v>0</v>
@@ -48448,15 +48411,15 @@
     </row>
     <row r="256" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B256" s="47" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="257" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B257" s="48" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C257" s="56">
         <v>416.68075599999997</v>
@@ -48560,10 +48523,10 @@
     </row>
     <row r="258" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B258" s="48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C258" s="49">
         <v>4.8133650000000001</v>
@@ -48667,15 +48630,15 @@
     </row>
     <row r="259" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B259" s="47" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="260" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B260" s="48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C260" s="49">
         <v>86.762908999999993</v>
@@ -48779,10 +48742,10 @@
     </row>
     <row r="261" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B261" s="48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C261" s="49">
         <v>2.235385</v>
@@ -48886,10 +48849,10 @@
     </row>
     <row r="262" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B262" s="48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C262" s="49">
         <v>0</v>
@@ -48993,10 +48956,10 @@
     </row>
     <row r="263" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B263" s="48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C263" s="49">
         <v>0.41039300000000001</v>
@@ -49100,15 +49063,15 @@
     </row>
     <row r="265" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B265" s="47" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="266" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B266" s="48" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="C266" s="56">
         <v>4889.7353519999997</v>
@@ -49212,10 +49175,10 @@
     </row>
     <row r="267" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B267" s="48" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="C267" s="56">
         <v>1823.1679690000001</v>
@@ -49319,10 +49282,10 @@
     </row>
     <row r="268" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B268" s="48" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="C268" s="56">
         <v>3066.5673830000001</v>
@@ -49426,15 +49389,15 @@
     </row>
     <row r="269" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B269" s="47" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="270" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B270" s="48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C270" s="49">
         <v>373.04852299999999</v>
@@ -49538,10 +49501,10 @@
     </row>
     <row r="271" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B271" s="48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C271" s="49">
         <v>540.36908000000005</v>
@@ -49645,10 +49608,10 @@
     </row>
     <row r="272" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B272" s="48" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C272" s="49">
         <v>0</v>
@@ -49752,10 +49715,10 @@
     </row>
     <row r="273" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B273" s="48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C273" s="49">
         <v>13.90934</v>
@@ -49860,7 +49823,7 @@
     <row r="274" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="275" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B275" s="57" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C275" s="57"/>
       <c r="D275" s="57"/>
@@ -49898,7 +49861,7 @@
     </row>
     <row r="276" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B276" s="53" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="277" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -49908,22 +49871,22 @@
     </row>
     <row r="278" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B278" s="53" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="279" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B279" s="53" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="280" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B280" s="53" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B281" s="53" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -49956,7 +49919,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -49974,10 +49937,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -50177,7 +50140,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -50195,10 +50158,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -50376,10 +50339,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50389,7 +50352,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -50399,32 +50362,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
@@ -50434,147 +50397,113 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="24">
-        <v>0.9</v>
+        <f>Data!D50</f>
+        <v>0.75216927859794647</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="16" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="16" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" s="16" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="16" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" s="16" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" s="16" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -50590,8 +50519,8 @@
   </sheetPr>
   <dimension ref="A1:AP91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50609,10 +50538,10 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
@@ -50621,10 +50550,10 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I2" s="28">
         <v>1</v>
@@ -50632,10 +50561,10 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I3" s="28">
         <v>-0.3</v>
@@ -50643,10 +50572,10 @@
     </row>
     <row r="4" spans="1:42" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="I4" s="29">
         <v>-17</v>
@@ -50654,7 +50583,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="28.5" x14ac:dyDescent="0.45">
@@ -50668,7 +50597,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.45">
@@ -50837,8 +50766,8 @@
         <v>2</v>
       </c>
       <c r="D8" s="31">
-        <f>SUM(SUM(INDEX('AEO 39'!23:25,0,MATCH($D$7,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!48:50,0,MATCH($D$7,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!65:65,MATCH($D$7,'AEO 39'!$1:$1,0))</f>
-        <v>3.3967233634410762E-3</v>
+        <f>INDEX('AEO 38'!75:75,0,MATCH(2025,'AEO 38'!1:1,0))/INDEX('AEO 38'!80:80,MATCH(2025,'AEO 38'!1:1,0))</f>
+        <v>3.9166926468788582E-2</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -50850,139 +50779,139 @@
       <c r="H8" s="32"/>
       <c r="I8" s="31">
         <f>D8</f>
-        <v>3.3967233634410762E-3</v>
+        <v>3.9166926468788582E-2</v>
       </c>
       <c r="J8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,J$7))</f>
-        <v>1.4346346389308134E-2</v>
+        <v>4.9723544325252521E-2</v>
       </c>
       <c r="K8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,K$7))</f>
-        <v>1.8120571758089371E-2</v>
+        <v>5.3362304749083656E-2</v>
       </c>
       <c r="L8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,L$7))</f>
-        <v>2.316963706749383E-2</v>
+        <v>5.8230148407061193E-2</v>
       </c>
       <c r="M8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,M$7))</f>
-        <v>2.9903374310827107E-2</v>
+        <v>6.4722197553938501E-2</v>
       </c>
       <c r="N8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,N$7))</f>
-        <v>3.8847087146409505E-2</v>
+        <v>7.3344901586776062E-2</v>
       </c>
       <c r="O8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,O$7))</f>
-        <v>5.0661503969554017E-2</v>
+        <v>8.4735273958891508E-2</v>
       </c>
       <c r="P8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,P$7))</f>
-        <v>6.6156176350644483E-2</v>
+        <v>9.9673809719607862E-2</v>
       </c>
       <c r="Q8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,Q$7))</f>
-        <v>8.6286905215982146E-2</v>
+        <v>0.11908200407492263</v>
       </c>
       <c r="R8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,R$7))</f>
-        <v>0.1121229728376217</v>
+        <v>0.14399076049065435</v>
       </c>
       <c r="S8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,S$7))</f>
-        <v>0.14476595943765241</v>
+        <v>0.17546212114079962</v>
       </c>
       <c r="T8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,T$7))</f>
-        <v>0.1852025981309964</v>
+        <v>0.21444740319819114</v>
       </c>
       <c r="U8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,U$7))</f>
-        <v>0.23408568258847698</v>
+        <v>0.26157597018573009</v>
       </c>
       <c r="V8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,V$7))</f>
-        <v>0.29146539616078926</v>
+        <v>0.31689620426733145</v>
       </c>
       <c r="W8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,W$7))</f>
-        <v>0.35653680963431478</v>
+        <v>0.37963206684425987</v>
       </c>
       <c r="X8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,X$7))</f>
-        <v>0.42750870550614906</v>
+        <v>0.44805663100484905</v>
       </c>
       <c r="Y8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,Y$7))</f>
-        <v>0.50169836168172055</v>
+        <v>0.5195834632343943</v>
       </c>
       <c r="Z8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,Z$7))</f>
-        <v>0.57588801785729204</v>
+        <v>0.59111029546393956</v>
       </c>
       <c r="AA8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AA$7))</f>
-        <v>0.64685991372912632</v>
+        <v>0.65953485962452862</v>
       </c>
       <c r="AB8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AB$7))</f>
-        <v>0.71193132720265184</v>
+        <v>0.72227072220145716</v>
       </c>
       <c r="AC8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AC$7))</f>
-        <v>0.76931104077496404</v>
+        <v>0.77759095628305852</v>
       </c>
       <c r="AD8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AD$7))</f>
-        <v>0.81819412523244461</v>
+        <v>0.82471952327059739</v>
       </c>
       <c r="AE8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AE$7))</f>
-        <v>0.85863076392578874</v>
+        <v>0.86370480532798899</v>
       </c>
       <c r="AF8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AF$7))</f>
-        <v>0.89127375052581936</v>
+        <v>0.89517616597813421</v>
       </c>
       <c r="AG8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AG$7))</f>
-        <v>0.91710981814745896</v>
+        <v>0.92008492239386597</v>
       </c>
       <c r="AH8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AH$7))</f>
-        <v>0.93724054701279669</v>
+        <v>0.93949311674918079</v>
       </c>
       <c r="AI8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AI$7))</f>
-        <v>0.95273521939388717</v>
+        <v>0.95443165250989714</v>
       </c>
       <c r="AJ8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AJ$7))</f>
-        <v>0.9645496362170316</v>
+        <v>0.96582202488201252</v>
       </c>
       <c r="AK8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AK$7))</f>
-        <v>0.97349334905261387</v>
+        <v>0.97444472891485001</v>
       </c>
       <c r="AL8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AL$7))</f>
-        <v>0.98022708629594735</v>
+        <v>0.98093677806172741</v>
       </c>
       <c r="AM8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AM$7))</f>
-        <v>0.98527615160535176</v>
+        <v>0.98580462171970495</v>
       </c>
       <c r="AN8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AN$7))</f>
-        <v>0.98905037697413301</v>
+        <v>0.98944338214353611</v>
       </c>
       <c r="AO8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AO$7))</f>
-        <v>0.99186515484298177</v>
+        <v>0.99215713167099218</v>
       </c>
       <c r="AP8" s="16">
         <f>IF($F8="s-curve",$D8+($E8-$D8)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D8:$E8,$D$7:$E$7,AP$7))</f>
-        <v>0.99396078197772009</v>
+        <v>0.99417754230785216</v>
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.45">
@@ -51601,7 +51530,7 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C13" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D13" s="31">
         <f>SUM(SUM(INDEX('AEO 39'!32:33,0,MATCH(D$7,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!57:58,0,MATCH(D$7,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$65:$65,MATCH(D$7,'AEO 39'!$1:$1,0))</f>
@@ -51757,7 +51686,7 @@
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D14" s="40">
         <f>SUM(SUM(INDEX('AEO 39'!35:35,0,MATCH(D$7,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!60:60,0,MATCH(D$7,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$65:$65,MATCH(D$7,'AEO 39'!$1:$1,0))</f>
@@ -51921,7 +51850,7 @@
       </c>
       <c r="D15" s="31">
         <f>D8</f>
-        <v>3.3967233634410762E-3</v>
+        <v>3.9166926468788582E-2</v>
       </c>
       <c r="E15" s="16">
         <f>E8</f>
@@ -51934,139 +51863,139 @@
       <c r="H15" s="32"/>
       <c r="I15" s="31">
         <f t="shared" si="3"/>
-        <v>3.3967233634410762E-3</v>
+        <v>3.9166926468788582E-2</v>
       </c>
       <c r="J15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,J$7))</f>
-        <v>1.4346346389308134E-2</v>
+        <v>4.9723544325252521E-2</v>
       </c>
       <c r="K15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,K$7))</f>
-        <v>1.8120571758089371E-2</v>
+        <v>5.3362304749083656E-2</v>
       </c>
       <c r="L15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,L$7))</f>
-        <v>2.316963706749383E-2</v>
+        <v>5.8230148407061193E-2</v>
       </c>
       <c r="M15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,M$7))</f>
-        <v>2.9903374310827107E-2</v>
+        <v>6.4722197553938501E-2</v>
       </c>
       <c r="N15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,N$7))</f>
-        <v>3.8847087146409505E-2</v>
+        <v>7.3344901586776062E-2</v>
       </c>
       <c r="O15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,O$7))</f>
-        <v>5.0661503969554017E-2</v>
+        <v>8.4735273958891508E-2</v>
       </c>
       <c r="P15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,P$7))</f>
-        <v>6.6156176350644483E-2</v>
+        <v>9.9673809719607862E-2</v>
       </c>
       <c r="Q15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,Q$7))</f>
-        <v>8.6286905215982146E-2</v>
+        <v>0.11908200407492263</v>
       </c>
       <c r="R15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,R$7))</f>
-        <v>0.1121229728376217</v>
+        <v>0.14399076049065435</v>
       </c>
       <c r="S15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,S$7))</f>
-        <v>0.14476595943765241</v>
+        <v>0.17546212114079962</v>
       </c>
       <c r="T15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,T$7))</f>
-        <v>0.1852025981309964</v>
+        <v>0.21444740319819114</v>
       </c>
       <c r="U15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,U$7))</f>
-        <v>0.23408568258847698</v>
+        <v>0.26157597018573009</v>
       </c>
       <c r="V15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,V$7))</f>
-        <v>0.29146539616078926</v>
+        <v>0.31689620426733145</v>
       </c>
       <c r="W15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,W$7))</f>
-        <v>0.35653680963431478</v>
+        <v>0.37963206684425987</v>
       </c>
       <c r="X15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,X$7))</f>
-        <v>0.42750870550614906</v>
+        <v>0.44805663100484905</v>
       </c>
       <c r="Y15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,Y$7))</f>
-        <v>0.50169836168172055</v>
+        <v>0.5195834632343943</v>
       </c>
       <c r="Z15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,Z$7))</f>
-        <v>0.57588801785729204</v>
+        <v>0.59111029546393956</v>
       </c>
       <c r="AA15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AA$7))</f>
-        <v>0.64685991372912632</v>
+        <v>0.65953485962452862</v>
       </c>
       <c r="AB15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AB$7))</f>
-        <v>0.71193132720265184</v>
+        <v>0.72227072220145716</v>
       </c>
       <c r="AC15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AC$7))</f>
-        <v>0.76931104077496404</v>
+        <v>0.77759095628305852</v>
       </c>
       <c r="AD15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AD$7))</f>
-        <v>0.81819412523244461</v>
+        <v>0.82471952327059739</v>
       </c>
       <c r="AE15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AE$7))</f>
-        <v>0.85863076392578874</v>
+        <v>0.86370480532798899</v>
       </c>
       <c r="AF15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AF$7))</f>
-        <v>0.89127375052581936</v>
+        <v>0.89517616597813421</v>
       </c>
       <c r="AG15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AG$7))</f>
-        <v>0.91710981814745896</v>
+        <v>0.92008492239386597</v>
       </c>
       <c r="AH15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AH$7))</f>
-        <v>0.93724054701279669</v>
+        <v>0.93949311674918079</v>
       </c>
       <c r="AI15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AI$7))</f>
-        <v>0.95273521939388717</v>
+        <v>0.95443165250989714</v>
       </c>
       <c r="AJ15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AJ$7))</f>
-        <v>0.9645496362170316</v>
+        <v>0.96582202488201252</v>
       </c>
       <c r="AK15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AK$7))</f>
-        <v>0.97349334905261387</v>
+        <v>0.97444472891485001</v>
       </c>
       <c r="AL15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AL$7))</f>
-        <v>0.98022708629594735</v>
+        <v>0.98093677806172741</v>
       </c>
       <c r="AM15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AM$7))</f>
-        <v>0.98527615160535176</v>
+        <v>0.98580462171970495</v>
       </c>
       <c r="AN15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AN$7))</f>
-        <v>0.98905037697413301</v>
+        <v>0.98944338214353611</v>
       </c>
       <c r="AO15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AO$7))</f>
-        <v>0.99186515484298177</v>
+        <v>0.99215713167099218</v>
       </c>
       <c r="AP15" s="16">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D15:$E15,$D$7:$E$7,AP$7))</f>
-        <v>0.99396078197772009</v>
+        <v>0.99417754230785216</v>
       </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.45">
@@ -52082,7 +52011,7 @@
         <v>1.2589794873102322E-3</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="31">
@@ -52683,7 +52612,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C20" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D20" s="31">
         <f>'SYVbT-freight'!G2/SUM('SYVbT-freight'!2:2)</f>
@@ -52839,7 +52768,7 @@
       <c r="A21" s="34"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D21" s="40">
         <f>'SYVbT-freight'!H2/SUM('SYVbT-freight'!2:2)</f>
@@ -53767,7 +53696,7 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C27" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D27" s="31">
         <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)</f>
@@ -53923,7 +53852,7 @@
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D28" s="40">
         <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)</f>
@@ -54851,7 +54780,7 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C34" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D34" s="31">
         <f>'SYVbT-freight'!G3/SUM('SYVbT-freight'!3:3)</f>
@@ -55007,7 +54936,7 @@
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D35" s="40">
         <f>'SYVbT-freight'!H3/SUM('SYVbT-freight'!3:3)</f>
@@ -55930,7 +55859,7 @@
     <row r="41" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A41" s="33"/>
       <c r="C41" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D41" s="16">
         <v>0</v>
@@ -56084,7 +56013,7 @@
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D42" s="34">
         <v>0</v>
@@ -57002,7 +56931,7 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C48" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D48" s="16">
         <v>0</v>
@@ -57156,7 +57085,7 @@
       <c r="A49" s="34"/>
       <c r="B49" s="34"/>
       <c r="C49" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D49" s="34">
         <v>0</v>
@@ -57322,11 +57251,11 @@
       </c>
       <c r="E50" s="16">
         <f>Assumptions!A28</f>
-        <v>0.9</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="F50" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H50" s="32"/>
       <c r="I50" s="31">
@@ -57335,135 +57264,135 @@
       </c>
       <c r="J50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,J$7))</f>
-        <v>0.75379348625303</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="K50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,K$7))</f>
-        <v>0.75435333436117979</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="L50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,L$7))</f>
-        <v>0.75510228530745249</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="M50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,M$7))</f>
-        <v>0.75610113134554036</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="N50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,N$7))</f>
-        <v>0.75742779316924924</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="O50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,O$7))</f>
-        <v>0.75918027964290846</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="P50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,P$7))</f>
-        <v>0.76147867525296065</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="Q50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Q$7))</f>
-        <v>0.7644647583215971</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="R50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,R$7))</f>
-        <v>0.76829714037796482</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="S50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,S$7))</f>
-        <v>0.77313922385383504</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="T50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,T$7))</f>
-        <v>0.77913737538438765</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="U50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,U$7))</f>
-        <v>0.78638842683998322</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="V50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,V$7))</f>
-        <v>0.79489982214651456</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="W50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,W$7))</f>
-        <v>0.80455216247285544</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="X50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,X$7))</f>
-        <v>0.81507974833572117</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="Y50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Y$7))</f>
-        <v>0.82608463929897324</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="Z50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,Z$7))</f>
-        <v>0.83708953026222532</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AA50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AA$7))</f>
-        <v>0.84761711612509105</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AB50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AB$7))</f>
-        <v>0.85726945645143193</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AC50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AC$7))</f>
-        <v>0.86578085175796327</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AD50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AD$7))</f>
-        <v>0.87303190321355884</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AE50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AE$7))</f>
-        <v>0.87903005474411144</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AF50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AF$7))</f>
-        <v>0.88387213821998167</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AG50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AG$7))</f>
-        <v>0.88770452027634938</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AH50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AH$7))</f>
-        <v>0.89069060334498584</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AI50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AI$7))</f>
-        <v>0.89298899895503803</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AJ50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AJ$7))</f>
-        <v>0.89474148542869725</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AK50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AK$7))</f>
-        <v>0.89606814725240613</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AL50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AL$7))</f>
-        <v>0.897066993290494</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AM50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AM$7))</f>
-        <v>0.89781594423676669</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AN50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AN$7))</f>
-        <v>0.89837579234491649</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AO50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AO$7))</f>
-        <v>0.89879332121793287</v>
+        <v>0.75216927859794647</v>
       </c>
       <c r="AP50" s="16">
         <f>IF($F50="s-curve",$D50+($E50-$D50)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D50:$E50,$D$7:$E$7,AP$7))</f>
-        <v>0.89910417517394592</v>
+        <v>0.75216927859794647</v>
       </c>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.45">
@@ -57780,11 +57709,11 @@
       </c>
       <c r="E53" s="16">
         <f>1-E50</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="F53" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="31">
@@ -57793,135 +57722,135 @@
       </c>
       <c r="J53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:J$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,J$7))</f>
-        <v>0.24306198845360072</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="K53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:K$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,K$7))</f>
-        <v>0.23829325550514646</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="L53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:L$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,L$7))</f>
-        <v>0.23352452255669398</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="M53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:M$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,M$7))</f>
-        <v>0.22875578960823972</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="N53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:N$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,N$7))</f>
-        <v>0.22398705665978724</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="O53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:O$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,O$7))</f>
-        <v>0.21921832371133299</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="P53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:P$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,P$7))</f>
-        <v>0.2144495907628805</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="Q53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Q$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Q$7))</f>
-        <v>0.20968085781442625</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="R53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:R$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,R$7))</f>
-        <v>0.20491212486597377</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="S53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:S$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,S$7))</f>
-        <v>0.20014339191751951</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="T53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:T$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,T$7))</f>
-        <v>0.19537465896906703</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="U53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:U$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,U$7))</f>
-        <v>0.19060592602061277</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="V53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:V$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,V$7))</f>
-        <v>0.18583719307216029</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="W53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:W$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,W$7))</f>
-        <v>0.18106846012370603</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="X53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:X$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,X$7))</f>
-        <v>0.17629972717525355</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="Y53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Y$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Y$7))</f>
-        <v>0.17153099422679929</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="Z53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:Z$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,Z$7))</f>
-        <v>0.16676226127834681</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AA53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AA$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AA$7))</f>
-        <v>0.16199352832989256</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AB53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AB$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AB$7))</f>
-        <v>0.15722479538144007</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AC53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AC$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AC$7))</f>
-        <v>0.15245606243298582</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AD53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AD$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AD$7))</f>
-        <v>0.14768732948453334</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AE53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AE$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AE$7))</f>
-        <v>0.14291859653607908</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AF53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AF$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AF$7))</f>
-        <v>0.1381498635876266</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AG53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AG$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AG$7))</f>
-        <v>0.13338113063917234</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AH53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AH$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AH$7))</f>
-        <v>0.12861239769071986</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AI53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AI$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AI$7))</f>
-        <v>0.1238436647422656</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AJ53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AJ$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AJ$7))</f>
-        <v>0.11907493179381312</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AK53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AK$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AK$7))</f>
-        <v>0.11430619884535886</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AL53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AL$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AL$7))</f>
-        <v>0.10953746589690638</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AM53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AM$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AM$7))</f>
-        <v>0.1047687329484539</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AN53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AN$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AN$7))</f>
-        <v>9.9999999999999645E-2</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AO53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AO$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AO$7))</f>
-        <v>9.5231267051547164E-2</v>
+        <v>0.24783072140205353</v>
       </c>
       <c r="AP53" s="16">
         <f>IF($F53="s-curve",$D53+($E53-$D53)*$I$2/(1+EXP($I$3*(COUNT($I$7:AP$7)+$I$4))),TREND($D53:$E53,$D$7:$E$7,AP$7))</f>
-        <v>9.0462534103092906E-2</v>
+        <v>0.24783072140205353</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.45">
@@ -58080,7 +58009,7 @@
     <row r="55" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A55" s="33"/>
       <c r="C55" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D55" s="16">
         <v>0</v>
@@ -58234,7 +58163,7 @@
       <c r="A56" s="34"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D56" s="34">
         <v>0</v>
@@ -59154,7 +59083,7 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C62" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D62" s="16">
         <v>0</v>
@@ -59308,7 +59237,7 @@
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D63" s="34">
         <v>0</v>
@@ -60228,7 +60157,7 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C69" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D69" s="16">
         <v>0</v>
@@ -60382,7 +60311,7 @@
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D70" s="34">
         <v>0</v>
@@ -61300,7 +61229,7 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C76" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D76" s="16">
         <v>0</v>
@@ -61454,7 +61383,7 @@
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D77" s="34">
         <v>0</v>
@@ -62376,7 +62305,7 @@
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C83" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D83" s="31">
         <f>'SYVbT-passenger'!G7/SUM('SYVbT-passenger'!7:7)</f>
@@ -62531,7 +62460,7 @@
       <c r="A84" s="34"/>
       <c r="B84" s="34"/>
       <c r="C84" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D84" s="40">
         <f>'SYVbT-passenger'!H7/SUM('SYVbT-passenger'!7:7)</f>
@@ -63450,7 +63379,7 @@
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.45">
       <c r="C90" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D90" s="16">
         <v>0</v>
@@ -63604,7 +63533,7 @@
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D91" s="34">
         <v>0</v>
@@ -63776,7 +63705,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I7</f>
@@ -63921,139 +63850,139 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I8</f>
-        <v>3.3967233634410762E-3</v>
+        <v>3.9166926468788582E-2</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J8</f>
-        <v>1.4346346389308134E-2</v>
+        <v>4.9723544325252521E-2</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K8</f>
-        <v>1.8120571758089371E-2</v>
+        <v>5.3362304749083656E-2</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L8</f>
-        <v>2.316963706749383E-2</v>
+        <v>5.8230148407061193E-2</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M8</f>
-        <v>2.9903374310827107E-2</v>
+        <v>6.4722197553938501E-2</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N8</f>
-        <v>3.8847087146409505E-2</v>
+        <v>7.3344901586776062E-2</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O8</f>
-        <v>5.0661503969554017E-2</v>
+        <v>8.4735273958891508E-2</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P8</f>
-        <v>6.6156176350644483E-2</v>
+        <v>9.9673809719607862E-2</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q8</f>
-        <v>8.6286905215982146E-2</v>
+        <v>0.11908200407492263</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R8</f>
-        <v>0.1121229728376217</v>
+        <v>0.14399076049065435</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S8</f>
-        <v>0.14476595943765241</v>
+        <v>0.17546212114079962</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T8</f>
-        <v>0.1852025981309964</v>
+        <v>0.21444740319819114</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U8</f>
-        <v>0.23408568258847698</v>
+        <v>0.26157597018573009</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V8</f>
-        <v>0.29146539616078926</v>
+        <v>0.31689620426733145</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W8</f>
-        <v>0.35653680963431478</v>
+        <v>0.37963206684425987</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X8</f>
-        <v>0.42750870550614906</v>
+        <v>0.44805663100484905</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y8</f>
-        <v>0.50169836168172055</v>
+        <v>0.5195834632343943</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z8</f>
-        <v>0.57588801785729204</v>
+        <v>0.59111029546393956</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA8</f>
-        <v>0.64685991372912632</v>
+        <v>0.65953485962452862</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB8</f>
-        <v>0.71193132720265184</v>
+        <v>0.72227072220145716</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC8</f>
-        <v>0.76931104077496404</v>
+        <v>0.77759095628305852</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD8</f>
-        <v>0.81819412523244461</v>
+        <v>0.82471952327059739</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE8</f>
-        <v>0.85863076392578874</v>
+        <v>0.86370480532798899</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF8</f>
-        <v>0.89127375052581936</v>
+        <v>0.89517616597813421</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG8</f>
-        <v>0.91710981814745896</v>
+        <v>0.92008492239386597</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH8</f>
-        <v>0.93724054701279669</v>
+        <v>0.93949311674918079</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI8</f>
-        <v>0.95273521939388717</v>
+        <v>0.95443165250989714</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ8</f>
-        <v>0.9645496362170316</v>
+        <v>0.96582202488201252</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK8</f>
-        <v>0.97349334905261387</v>
+        <v>0.97444472891485001</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL8</f>
-        <v>0.98022708629594735</v>
+        <v>0.98093677806172741</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM8</f>
-        <v>0.98527615160535176</v>
+        <v>0.98580462171970495</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN8</f>
-        <v>0.98905037697413301</v>
+        <v>0.98944338214353611</v>
       </c>
       <c r="AH2" s="16">
         <f>Data!AO8</f>
-        <v>0.99186515484298177</v>
+        <v>0.99215713167099218</v>
       </c>
       <c r="AI2" s="16">
         <f>Data!AP8</f>
-        <v>0.99396078197772009</v>
+        <v>0.99417754230785216</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -64622,7 +64551,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I13</f>
@@ -64763,7 +64692,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I14</f>

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="595">
   <si>
     <t>Source:</t>
   </si>
@@ -1283,9 +1283,6 @@
     <t>For passenger LDVs, predictions of battery electric penetration vary.</t>
   </si>
   <si>
-    <t>EIA, Greentech Media, and BNEF have all released projections.</t>
-  </si>
-  <si>
     <t>natural gas vehicle, and plug-in hybrid vehicle), we use the</t>
   </si>
   <si>
@@ -1305,9 +1302,6 @@
   </si>
   <si>
     <t>Last Year passenger motorbikes</t>
-  </si>
-  <si>
-    <t>maximum potential rather than a BAU projection, so we select</t>
   </si>
   <si>
     <t>For other unusual technologies (diesel vehicle,</t>
@@ -1664,12 +1658,6 @@
     <t>For passenger HDVs, we use the same percentages as passenger LDVs.</t>
   </si>
   <si>
-    <t>Their values may be higher still in the United States and higher for a</t>
-  </si>
-  <si>
-    <t>a value of 100%, given rapidly improving technologies.</t>
-  </si>
-  <si>
     <t>LPG vehicle</t>
   </si>
   <si>
@@ -1772,9 +1760,6 @@
     <t>https://www.eia.gov/outlooks/aeo/supplement/excel/suptab_49.xlsx</t>
   </si>
   <si>
-    <t>For passenger LDVs and freight HDVs, we use the sales shares by technology from AEO 50</t>
-  </si>
-  <si>
     <t xml:space="preserve">For passenger LDVs, we use the sales shares by technology from AEO 38 </t>
   </si>
   <si>
@@ -1836,6 +1821,18 @@
   </si>
   <si>
     <t>Figure 2</t>
+  </si>
+  <si>
+    <t>For freight HDVs, we use the sales shares by technology from AEO 50</t>
+  </si>
+  <si>
+    <t>Many organizations have released projections.</t>
+  </si>
+  <si>
+    <t>See an explanation on the Assumptions page for how the passenger LDV</t>
+  </si>
+  <si>
+    <t>values were calibrated against one such source.</t>
   </si>
 </sst>
 </file>
@@ -2204,9 +2201,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2214,6 +2208,9 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4"/>
@@ -2580,7 +2577,7 @@
   <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2600,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -2615,27 +2612,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -2645,22 +2642,22 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="16" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="61" t="s">
-        <v>593</v>
+      <c r="B14" s="60" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="16" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
@@ -2675,22 +2672,22 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
@@ -2700,7 +2697,7 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
@@ -2753,12 +2750,12 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="37" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="37" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -2776,7 +2773,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -2855,27 +2852,27 @@
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" s="16" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" s="16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" s="16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" s="16" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.45">
@@ -2915,87 +2912,82 @@
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" s="16" t="s">
-        <v>411</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" s="16" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" s="16" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B87" s="16" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" s="16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" s="16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.45">
@@ -3030,7 +3022,7 @@
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.45">
@@ -3082,9 +3074,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3092,9 +3086,9 @@
     <col min="2" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -3224,16 +3218,8 @@
         <f>Data!AN9</f>
         <v>2050</v>
       </c>
-      <c r="AH1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -3365,16 +3351,8 @@
         <f>Data!AN17</f>
         <v>0.99215713167099218</v>
       </c>
-      <c r="AH2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -3506,16 +3484,8 @@
         <f>Data!AN18</f>
         <v>1.2589794873102272E-3</v>
       </c>
-      <c r="AH3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -3647,16 +3617,8 @@
         <f>Data!AN19</f>
         <v>1</v>
       </c>
-      <c r="AH4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -3788,16 +3750,8 @@
         <f>Data!AN20</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -3929,18 +3883,10 @@
         <f>Data!AN21</f>
         <v>4.3170776608962451E-2</v>
       </c>
-      <c r="AH6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I22</f>
@@ -4070,18 +4016,10 @@
         <f>Data!AN22</f>
         <v>7.3598479368128938E-4</v>
       </c>
-      <c r="AH7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I23</f>
@@ -4210,14 +4148,6 @@
       <c r="AG8" s="16">
         <f>Data!AN23</f>
         <v>4.4341869757856235E-4</v>
-      </c>
-      <c r="AH8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -4230,9 +4160,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4240,9 +4172,9 @@
     <col min="2" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -4372,16 +4304,8 @@
         <f>Data!AN9</f>
         <v>2050</v>
       </c>
-      <c r="AH1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -4513,16 +4437,8 @@
         <f>Data!AN24</f>
         <v>0.99183988619362395</v>
       </c>
-      <c r="AH2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -4654,16 +4570,8 @@
         <f>Data!AN25</f>
         <v>9.7732189262966992E-2</v>
       </c>
-      <c r="AH3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -4795,16 +4703,8 @@
         <f>Data!AN26</f>
         <v>0.21353579069318318</v>
       </c>
-      <c r="AH4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -4936,16 +4836,8 @@
         <f>Data!AN27</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -5077,18 +4969,10 @@
         <f>Data!AN28</f>
         <v>2.4987354453671697E-2</v>
       </c>
-      <c r="AH6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I29</f>
@@ -5218,18 +5102,10 @@
         <f>Data!AN29</f>
         <v>6.1207029742042618E-2</v>
       </c>
-      <c r="AH7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I30</f>
@@ -5358,14 +5234,6 @@
       <c r="AG8" s="16">
         <f>Data!AN30</f>
         <v>6.1102427224143475E-2</v>
-      </c>
-      <c r="AH8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -5378,10 +5246,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5390,9 +5258,9 @@
     <col min="2" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -5522,16 +5390,8 @@
         <f>Data!AN9</f>
         <v>2050</v>
       </c>
-      <c r="AH1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -5663,16 +5523,8 @@
         <f>Data!AN31</f>
         <v>1.1560094379228425E-2</v>
       </c>
-      <c r="AH2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -5804,16 +5656,8 @@
         <f>Data!AN32</f>
         <v>9.6988663034430975E-2</v>
       </c>
-      <c r="AH3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -5945,16 +5789,8 @@
         <f>Data!AN33</f>
         <v>0.21353579069318318</v>
       </c>
-      <c r="AH4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -6086,16 +5922,8 @@
         <f>Data!AN34</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -6227,18 +6055,10 @@
         <f>Data!AN35</f>
         <v>2.4988471882476795E-2</v>
       </c>
-      <c r="AH6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I36</f>
@@ -6368,18 +6188,10 @@
         <f>Data!AN36</f>
         <v>5.7344829412610543E-3</v>
       </c>
-      <c r="AH7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I37</f>
@@ -6508,14 +6320,6 @@
       <c r="AG8" s="16">
         <f>Data!AN37</f>
         <v>5.724635790621815E-3</v>
-      </c>
-      <c r="AH8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -6528,9 +6332,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6538,9 +6344,9 @@
     <col min="2" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -6670,16 +6476,8 @@
         <f>Data!AN9</f>
         <v>2050</v>
       </c>
-      <c r="AH1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -6811,16 +6609,8 @@
         <f>Data!AN38</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -6952,16 +6742,8 @@
         <f>Data!AN39</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -7093,16 +6875,8 @@
         <f>Data!AN40</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -7234,16 +7008,8 @@
         <f>Data!AN41</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -7375,18 +7141,10 @@
         <f>Data!AN42</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I43</f>
@@ -7516,18 +7274,10 @@
         <f>Data!AN43</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I44</f>
@@ -7656,14 +7406,6 @@
       <c r="AG8" s="16">
         <f>Data!AN44</f>
         <v>0</v>
-      </c>
-      <c r="AH8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -7676,9 +7418,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7686,9 +7430,9 @@
     <col min="2" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -7818,16 +7562,8 @@
         <f>Data!AN9</f>
         <v>2050</v>
       </c>
-      <c r="AH1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -7959,16 +7695,8 @@
         <f>Data!AN45</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -8100,16 +7828,8 @@
         <f>Data!AN46</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -8241,16 +7961,8 @@
         <f>Data!AN47</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -8382,16 +8094,8 @@
         <f>Data!AN48</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -8523,18 +8227,10 @@
         <f>Data!AN49</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I50</f>
@@ -8664,18 +8360,10 @@
         <f>Data!AN50</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I51</f>
@@ -8804,14 +8492,6 @@
       <c r="AG8" s="16">
         <f>Data!AN51</f>
         <v>0</v>
-      </c>
-      <c r="AH8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -8824,10 +8504,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AI2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8836,9 +8516,9 @@
     <col min="2" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -8968,16 +8648,8 @@
         <f>Data!AN9</f>
         <v>2050</v>
       </c>
-      <c r="AH1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -9109,16 +8781,8 @@
         <f>Data!AN52</f>
         <v>0.75216927859794647</v>
       </c>
-      <c r="AH2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -9250,16 +8914,8 @@
         <f>Data!AN53</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -9391,16 +9047,8 @@
         <f>Data!AN54</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -9532,16 +9180,8 @@
         <f>Data!AN55</f>
         <v>0.24783072140205353</v>
       </c>
-      <c r="AH5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -9673,18 +9313,10 @@
         <f>Data!AN56</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I57</f>
@@ -9814,18 +9446,10 @@
         <f>Data!AN57</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I58</f>
@@ -9954,14 +9578,6 @@
       <c r="AG8" s="16">
         <f>Data!AN58</f>
         <v>0</v>
-      </c>
-      <c r="AH8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -9988,7 +9604,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -10786,7 +10402,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I64</f>
@@ -10919,7 +10535,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I65</f>
@@ -11062,7 +10678,7 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AI8"/>
     </sheetView>
   </sheetViews>
@@ -11074,7 +10690,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -11872,7 +11488,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I71</f>
@@ -12005,7 +11621,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I72</f>
@@ -12148,7 +11764,7 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
@@ -12160,7 +11776,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -12958,7 +12574,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I78</f>
@@ -13091,7 +12707,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I79</f>
@@ -13234,7 +12850,7 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
@@ -13246,7 +12862,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -14044,7 +13660,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I85</f>
@@ -14177,7 +13793,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I86</f>
@@ -14329,7 +13945,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="42" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C1" s="43">
         <v>2019</v>
@@ -14434,7 +14050,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
@@ -14446,7 +14062,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -14460,7 +14076,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -14473,7 +14089,7 @@
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
@@ -14484,15 +14100,15 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14596,7 +14212,7 @@
         <v>95</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -14706,7 +14322,7 @@
     <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14716,7 +14332,7 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>65</v>
@@ -14823,7 +14439,7 @@
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>63</v>
@@ -14930,7 +14546,7 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>88</v>
@@ -15043,7 +14659,7 @@
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>58</v>
@@ -15150,7 +14766,7 @@
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>56</v>
@@ -15257,7 +14873,7 @@
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>54</v>
@@ -15364,10 +14980,10 @@
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" s="48">
         <v>223.874359</v>
@@ -15471,7 +15087,7 @@
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B26" s="47" t="s">
         <v>52</v>
@@ -15578,7 +15194,7 @@
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>50</v>
@@ -15685,7 +15301,7 @@
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>48</v>
@@ -15792,7 +15408,7 @@
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B29" s="47" t="s">
         <v>46</v>
@@ -15899,7 +15515,7 @@
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B30" s="47" t="s">
         <v>44</v>
@@ -16006,7 +15622,7 @@
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B31" s="47" t="s">
         <v>42</v>
@@ -16113,7 +15729,7 @@
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B32" s="47" t="s">
         <v>40</v>
@@ -16220,7 +15836,7 @@
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B33" s="47" t="s">
         <v>38</v>
@@ -16327,7 +15943,7 @@
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B34" s="47" t="s">
         <v>35</v>
@@ -16434,7 +16050,7 @@
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>32</v>
@@ -16541,7 +16157,7 @@
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B36" s="47" t="s">
         <v>71</v>
@@ -16649,10 +16265,10 @@
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C38" s="48">
         <v>8.5290809999999997</v>
@@ -16756,10 +16372,10 @@
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C39" s="50">
         <v>7338.0126950000003</v>
@@ -16864,7 +16480,7 @@
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="46" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -16874,7 +16490,7 @@
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B43" s="47" t="s">
         <v>65</v>
@@ -16981,7 +16597,7 @@
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B44" s="47" t="s">
         <v>63</v>
@@ -17088,7 +16704,7 @@
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B45" s="47" t="s">
         <v>61</v>
@@ -17201,7 +16817,7 @@
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B48" s="47" t="s">
         <v>58</v>
@@ -17308,7 +16924,7 @@
     </row>
     <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B49" s="47" t="s">
         <v>56</v>
@@ -17415,7 +17031,7 @@
     </row>
     <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B50" s="47" t="s">
         <v>54</v>
@@ -17522,10 +17138,10 @@
     </row>
     <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C51" s="48">
         <v>5.4257739999999997</v>
@@ -17629,7 +17245,7 @@
     </row>
     <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B52" s="47" t="s">
         <v>52</v>
@@ -17736,7 +17352,7 @@
     </row>
     <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="14" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>50</v>
@@ -17843,7 +17459,7 @@
     </row>
     <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B54" s="47" t="s">
         <v>48</v>
@@ -17950,7 +17566,7 @@
     </row>
     <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B55" s="47" t="s">
         <v>46</v>
@@ -18057,7 +17673,7 @@
     </row>
     <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B56" s="47" t="s">
         <v>44</v>
@@ -18164,7 +17780,7 @@
     </row>
     <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B57" s="47" t="s">
         <v>42</v>
@@ -18271,7 +17887,7 @@
     </row>
     <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B58" s="47" t="s">
         <v>40</v>
@@ -18378,7 +17994,7 @@
     </row>
     <row r="59" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B59" s="47" t="s">
         <v>38</v>
@@ -18485,7 +18101,7 @@
     </row>
     <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B60" s="47" t="s">
         <v>35</v>
@@ -18592,7 +18208,7 @@
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B61" s="47" t="s">
         <v>32</v>
@@ -18699,7 +18315,7 @@
     </row>
     <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B62" s="47" t="s">
         <v>30</v>
@@ -18807,10 +18423,10 @@
     <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C64" s="48">
         <v>12.330686</v>
@@ -18914,10 +18530,10 @@
     </row>
     <row r="65" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C65" s="50">
         <v>8360.6298829999996</v>
@@ -19022,10 +18638,10 @@
     <row r="66" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C67" s="48">
         <v>10.553703000000001</v>
@@ -19129,10 +18745,10 @@
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C68" s="48">
         <v>106.40548699999999</v>
@@ -19236,10 +18852,10 @@
     </row>
     <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C69" s="48">
         <v>0</v>
@@ -19344,15 +18960,15 @@
     <row r="70" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="46" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C72" s="48">
         <v>13964.814453000001</v>
@@ -19456,10 +19072,10 @@
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C73" s="48">
         <v>77.040076999999997</v>
@@ -19563,10 +19179,10 @@
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C74" s="48">
         <v>857.57031199999994</v>
@@ -19670,10 +19286,10 @@
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C75" s="48">
         <v>289.600525</v>
@@ -19777,10 +19393,10 @@
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C76" s="48">
         <v>136.54045099999999</v>
@@ -19884,10 +19500,10 @@
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C77" s="48">
         <v>354.722015</v>
@@ -19991,10 +19607,10 @@
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C78" s="48">
         <v>16.390930000000001</v>
@@ -20098,10 +19714,10 @@
     </row>
     <row r="79" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C79" s="48">
         <v>1.9637789999999999</v>
@@ -20205,10 +19821,10 @@
     </row>
     <row r="80" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B80" s="46" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C80" s="50">
         <v>15698.642578000001</v>
@@ -20313,10 +19929,10 @@
     <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C82" s="48">
         <v>1685.349365</v>
@@ -20420,10 +20036,10 @@
     </row>
     <row r="83" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C83" s="48">
         <v>9.403886</v>
@@ -20528,10 +20144,10 @@
     <row r="84" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C85" s="50">
         <v>3419.1777339999999</v>
@@ -20635,46 +20251,46 @@
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="56" t="s">
-        <v>532</v>
-      </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="56"/>
-      <c r="S87" s="56"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
-      <c r="V87" s="56"/>
-      <c r="W87" s="56"/>
-      <c r="X87" s="56"/>
-      <c r="Y87" s="56"/>
-      <c r="Z87" s="56"/>
-      <c r="AA87" s="56"/>
-      <c r="AB87" s="56"/>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="56"/>
-      <c r="AE87" s="56"/>
-      <c r="AF87" s="56"/>
-      <c r="AG87" s="56"/>
-      <c r="AH87" s="56"/>
-      <c r="AI87" s="56"/>
+      <c r="B87" s="61" t="s">
+        <v>530</v>
+      </c>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="61"/>
+      <c r="U87" s="61"/>
+      <c r="V87" s="61"/>
+      <c r="W87" s="61"/>
+      <c r="X87" s="61"/>
+      <c r="Y87" s="61"/>
+      <c r="Z87" s="61"/>
+      <c r="AA87" s="61"/>
+      <c r="AB87" s="61"/>
+      <c r="AC87" s="61"/>
+      <c r="AD87" s="61"/>
+      <c r="AE87" s="61"/>
+      <c r="AF87" s="61"/>
+      <c r="AG87" s="61"/>
+      <c r="AH87" s="61"/>
+      <c r="AI87" s="61"/>
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="52" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20684,12 +20300,12 @@
     </row>
     <row r="90" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="52" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="52" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -20704,7 +20320,7 @@
     </row>
     <row r="94" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="52" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -20739,7 +20355,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -21537,7 +21153,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I92</f>
@@ -21670,7 +21286,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I93</f>
@@ -21825,7 +21441,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="42" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C1" s="43">
         <v>2019</v>
@@ -21930,7 +21546,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
@@ -21942,7 +21558,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -21956,7 +21572,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -21969,7 +21585,7 @@
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
@@ -21980,7 +21596,7 @@
         <v>97</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -22089,7 +21705,7 @@
         <v>95</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -22859,7 +22475,7 @@
         <v>75</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" s="53">
         <v>0.38929200000000003</v>
@@ -24907,7 +24523,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C50" s="53">
         <v>1.3566E-2</v>
@@ -26402,42 +26018,42 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
-      <c r="V67" s="56"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="56"/>
-      <c r="Z67" s="56"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="56"/>
-      <c r="AD67" s="56"/>
-      <c r="AE67" s="56"/>
-      <c r="AF67" s="56"/>
-      <c r="AG67" s="56"/>
-      <c r="AH67" s="56"/>
-      <c r="AI67" s="56"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="61"/>
+      <c r="V67" s="61"/>
+      <c r="W67" s="61"/>
+      <c r="X67" s="61"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
+      <c r="AA67" s="61"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="61"/>
+      <c r="AD67" s="61"/>
+      <c r="AE67" s="61"/>
+      <c r="AF67" s="61"/>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="61"/>
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="52" t="s">
@@ -26456,7 +26072,7 @@
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="52" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -26487,7 +26103,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="42" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C1" s="43">
         <v>2019</v>
@@ -26592,7 +26208,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
@@ -26604,7 +26220,7 @@
         <v>101</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
@@ -26618,7 +26234,7 @@
         <v>99</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -26631,7 +26247,7 @@
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
@@ -26642,7 +26258,7 @@
         <v>376</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -26751,7 +26367,7 @@
         <v>95</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -49173,7 +48789,7 @@
         <v>130</v>
       </c>
       <c r="B266" s="47" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C266" s="55">
         <v>4889.7353519999997</v>
@@ -49280,7 +48896,7 @@
         <v>129</v>
       </c>
       <c r="B267" s="47" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C267" s="55">
         <v>1823.1679690000001</v>
@@ -49387,7 +49003,7 @@
         <v>128</v>
       </c>
       <c r="B268" s="47" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C268" s="55">
         <v>3066.5673830000001</v>
@@ -49924,42 +49540,42 @@
     </row>
     <row r="274" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="275" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B275" s="56" t="s">
+      <c r="B275" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C275" s="56"/>
-      <c r="D275" s="56"/>
-      <c r="E275" s="56"/>
-      <c r="F275" s="56"/>
-      <c r="G275" s="56"/>
-      <c r="H275" s="56"/>
-      <c r="I275" s="56"/>
-      <c r="J275" s="56"/>
-      <c r="K275" s="56"/>
-      <c r="L275" s="56"/>
-      <c r="M275" s="56"/>
-      <c r="N275" s="56"/>
-      <c r="O275" s="56"/>
-      <c r="P275" s="56"/>
-      <c r="Q275" s="56"/>
-      <c r="R275" s="56"/>
-      <c r="S275" s="56"/>
-      <c r="T275" s="56"/>
-      <c r="U275" s="56"/>
-      <c r="V275" s="56"/>
-      <c r="W275" s="56"/>
-      <c r="X275" s="56"/>
-      <c r="Y275" s="56"/>
-      <c r="Z275" s="56"/>
-      <c r="AA275" s="56"/>
-      <c r="AB275" s="56"/>
-      <c r="AC275" s="56"/>
-      <c r="AD275" s="56"/>
-      <c r="AE275" s="56"/>
-      <c r="AF275" s="56"/>
-      <c r="AG275" s="56"/>
-      <c r="AH275" s="56"/>
-      <c r="AI275" s="56"/>
+      <c r="C275" s="61"/>
+      <c r="D275" s="61"/>
+      <c r="E275" s="61"/>
+      <c r="F275" s="61"/>
+      <c r="G275" s="61"/>
+      <c r="H275" s="61"/>
+      <c r="I275" s="61"/>
+      <c r="J275" s="61"/>
+      <c r="K275" s="61"/>
+      <c r="L275" s="61"/>
+      <c r="M275" s="61"/>
+      <c r="N275" s="61"/>
+      <c r="O275" s="61"/>
+      <c r="P275" s="61"/>
+      <c r="Q275" s="61"/>
+      <c r="R275" s="61"/>
+      <c r="S275" s="61"/>
+      <c r="T275" s="61"/>
+      <c r="U275" s="61"/>
+      <c r="V275" s="61"/>
+      <c r="W275" s="61"/>
+      <c r="X275" s="61"/>
+      <c r="Y275" s="61"/>
+      <c r="Z275" s="61"/>
+      <c r="AA275" s="61"/>
+      <c r="AB275" s="61"/>
+      <c r="AC275" s="61"/>
+      <c r="AD275" s="61"/>
+      <c r="AE275" s="61"/>
+      <c r="AF275" s="61"/>
+      <c r="AG275" s="61"/>
+      <c r="AH275" s="61"/>
+      <c r="AI275" s="61"/>
     </row>
     <row r="276" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B276" s="52" t="s">
@@ -49978,17 +49594,17 @@
     </row>
     <row r="279" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B279" s="52" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B280" s="52" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="281" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B281" s="52" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -50021,7 +49637,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -50039,10 +49655,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -50242,7 +49858,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -50260,10 +49876,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -50443,7 +50059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -50489,7 +50105,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
@@ -50499,12 +50115,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
@@ -50514,77 +50130,77 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
@@ -50627,105 +50243,105 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="F35" s="60">
+        <v>583</v>
+      </c>
+      <c r="F35" s="59">
         <v>1.9495540182498248E-2</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="59">
         <v>2.9251624606801543E-2</v>
       </c>
-      <c r="H35" s="60">
+      <c r="H35" s="59">
         <v>3.5341109715348547E-2</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="59">
         <v>4.1301270198976628E-2</v>
       </c>
-      <c r="J35" s="60">
+      <c r="J35" s="59">
         <v>5.029290293357936E-2</v>
       </c>
-      <c r="K35" s="60">
+      <c r="K35" s="59">
         <v>6.1776114803839904E-2</v>
       </c>
-      <c r="L35" s="60">
+      <c r="L35" s="59">
         <v>7.8272682344165734E-2</v>
       </c>
-      <c r="M35" s="60">
+      <c r="M35" s="59">
         <v>0.10033062833285737</v>
       </c>
-      <c r="N35" s="60">
+      <c r="N35" s="59">
         <v>0.12681790429050813</v>
       </c>
-      <c r="O35" s="60">
+      <c r="O35" s="59">
         <v>0.15878888681939413</v>
       </c>
-      <c r="P35" s="60">
+      <c r="P35" s="59">
         <v>0.194194294105343</v>
       </c>
-      <c r="Q35" s="60">
+      <c r="Q35" s="59">
         <v>0.22875437203838925</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="58" t="s">
-        <v>587</v>
-      </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59">
+    <row r="36" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="57" t="s">
+        <v>582</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58">
         <v>0.02</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="58">
         <v>0.03</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H36" s="58">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I36" s="59">
+      <c r="I36" s="58">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J36" s="59">
+      <c r="J36" s="58">
         <v>0.05</v>
       </c>
-      <c r="K36" s="59">
+      <c r="K36" s="58">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="L36" s="59">
+      <c r="L36" s="58">
         <v>0.08</v>
       </c>
-      <c r="M36" s="59">
+      <c r="M36" s="58">
         <v>0.105</v>
       </c>
-      <c r="N36" s="59">
+      <c r="N36" s="58">
         <v>0.125</v>
       </c>
-      <c r="O36" s="59">
+      <c r="O36" s="58">
         <v>0.15</v>
       </c>
-      <c r="P36" s="59">
+      <c r="P36" s="58">
         <v>0.18</v>
       </c>
-      <c r="Q36" s="59">
+      <c r="Q36" s="58">
         <v>0.22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
+    <row r="37" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
@@ -50736,42 +50352,42 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="16" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A42" s="16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A44" s="16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A45" s="16" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A46" s="16" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A47" s="16" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -50807,17 +50423,17 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="N1" s="24" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="O1" s="25"/>
       <c r="P1" s="26"/>
@@ -50826,16 +50442,16 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I2" s="27">
         <v>1</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O2" s="27">
         <v>1</v>
@@ -50843,16 +50459,16 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I3" s="27">
         <v>-0.3</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O3" s="27">
         <v>-0.4</v>
@@ -50860,16 +50476,16 @@
     </row>
     <row r="4" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I4" s="28">
         <v>-16</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O4" s="28">
         <v>-12</v>
@@ -50877,7 +50493,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="28.5" x14ac:dyDescent="0.45">
@@ -50891,21 +50507,21 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="57">
+      <c r="D7" s="56">
         <v>2019</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <v>2042</v>
       </c>
-      <c r="F7" s="57" t="s">
-        <v>581</v>
+      <c r="F7" s="56" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.45">
@@ -51655,7 +51271,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C14" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D14" s="30">
         <f>SUM(SUM(INDEX('AEO 39'!32:33,0,MATCH(D$8,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!57:58,0,MATCH(D$8,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$65:$65,MATCH(D$8,'AEO 39'!$1:$1,0))</f>
@@ -51803,7 +51419,7 @@
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D15" s="39">
         <f>SUM(SUM(INDEX('AEO 39'!35:35,0,MATCH(D$8,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!60:60,0,MATCH(D$8,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$65:$65,MATCH(D$8,'AEO 39'!$1:$1,0))</f>
@@ -52112,7 +51728,7 @@
         <v>1.2589794873102322E-3</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="30">
@@ -52681,7 +52297,7 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C21" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D21" s="30">
         <f>'SYVbT-freight'!G2/SUM('SYVbT-freight'!2:2)</f>
@@ -52829,7 +52445,7 @@
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D22" s="39">
         <f>'SYVbT-freight'!H2/SUM('SYVbT-freight'!2:2)</f>
@@ -53709,7 +53325,7 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C28" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D28" s="30">
         <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)</f>
@@ -53857,7 +53473,7 @@
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D29" s="39">
         <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)</f>
@@ -54737,7 +54353,7 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C35" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D35" s="30">
         <f>'SYVbT-freight'!G3/SUM('SYVbT-freight'!3:3)</f>
@@ -54885,7 +54501,7 @@
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D36" s="39">
         <f>'SYVbT-freight'!H3/SUM('SYVbT-freight'!3:3)</f>
@@ -55760,7 +55376,7 @@
     <row r="42" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A42" s="32"/>
       <c r="C42" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D42" s="16">
         <v>0</v>
@@ -55906,7 +55522,7 @@
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D43" s="33">
         <v>0</v>
@@ -56776,7 +56392,7 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C49" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D49" s="16">
         <v>0</v>
@@ -56922,7 +56538,7 @@
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D50" s="33">
         <v>0</v>
@@ -57798,7 +57414,7 @@
     <row r="56" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A56" s="32"/>
       <c r="C56" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D56" s="16">
         <v>0</v>
@@ -57944,7 +57560,7 @@
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D57" s="33">
         <v>0</v>
@@ -58816,7 +58432,7 @@
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C63" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D63" s="16">
         <v>0</v>
@@ -58962,7 +58578,7 @@
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D64" s="33">
         <v>0</v>
@@ -59834,7 +59450,7 @@
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C70" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D70" s="16">
         <v>0</v>
@@ -59980,7 +59596,7 @@
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D71" s="33">
         <v>0</v>
@@ -60850,7 +60466,7 @@
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C77" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D77" s="16">
         <v>0</v>
@@ -60996,7 +60612,7 @@
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D78" s="33">
         <v>0</v>
@@ -61870,7 +61486,7 @@
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C84" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D84" s="30">
         <f>'SYVbT-passenger'!G7/SUM('SYVbT-passenger'!7:7)</f>
@@ -62017,7 +61633,7 @@
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D85" s="39">
         <f>'SYVbT-passenger'!H7/SUM('SYVbT-passenger'!7:7)</f>
@@ -62888,7 +62504,7 @@
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C91" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D91" s="16">
         <v>0</v>
@@ -63034,7 +62650,7 @@
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D92" s="33">
         <v>0</v>
@@ -63318,9 +62934,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -63328,9 +62946,9 @@
     <col min="2" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B1" s="16">
         <f>Data!I9</f>
@@ -63460,16 +63078,8 @@
         <f>Data!AN9</f>
         <v>2050</v>
       </c>
-      <c r="AH1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI1" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -63601,16 +63211,8 @@
         <f>Data!AN10</f>
         <v>1</v>
       </c>
-      <c r="AH2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI2" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -63742,16 +63344,8 @@
         <f>Data!AN11</f>
         <v>1.2524692340498257E-3</v>
       </c>
-      <c r="AH3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI3" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -63883,16 +63477,8 @@
         <f>Data!AN12</f>
         <v>1</v>
       </c>
-      <c r="AH4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI4" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -64024,16 +63610,8 @@
         <f>Data!AN13</f>
         <v>4.0352088523207819E-2</v>
       </c>
-      <c r="AH5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI5" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -64165,18 +63743,10 @@
         <f>Data!AN14</f>
         <v>4.3170776608962451E-2</v>
       </c>
-      <c r="AH6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI6" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B7" s="16">
         <f>Data!I15</f>
@@ -64306,18 +63876,10 @@
         <f>Data!AN15</f>
         <v>7.3598479368128938E-4</v>
       </c>
-      <c r="AH7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI7" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B8" s="16">
         <f>Data!I16</f>
@@ -64446,14 +64008,6 @@
       <c r="AG8" s="16">
         <f>Data!AN16</f>
         <v>4.4362345344367289E-4</v>
-      </c>
-      <c r="AH8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI8" s="16" t="e">
-        <f>Data!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="338" windowWidth="15398" windowHeight="9195"/>
+    <workbookView xWindow="2520" yWindow="338" windowWidth="15398" windowHeight="9195" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1839,12 +1839,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -2102,7 +2103,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2208,6 +2209,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2">
       <alignment wrapText="1"/>
     </xf>
@@ -2236,6 +2238,903 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$10:$AN$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0" formatCode="0.0000">
+                  <c:v>3.0819144090348839E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0148104092397455E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4653792463561118E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1277042374426013E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0944668273484187E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4911802772556088E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4793989967857678E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12250774967825262</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16002738639012218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20886544924044625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26928483805044562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33950091317215791</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41540957204517448</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49131823091819105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56153430603990329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62195369484990271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6707917577002267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70831139441209623</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73602515412249125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7559073413177928</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76987447581686475</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77954210171592286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78616535162678769</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79067103999795141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.7937215065339891</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.79578004391674451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79716615320077544</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79809810560403771</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.79872408196536759</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79914425858201432</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.79942616890305629</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.79961525488432961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7845-4F26-8099-2F927049CEFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="343204120"/>
+        <c:axId val="343203464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="343204120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343203464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343203464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343204120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2282,6 +3181,41 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>597693</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>226217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>602456</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2576,7 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -3225,131 +4159,131 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I17</f>
-        <v>3.9166926468788582E-2</v>
+        <v>3.0819144090348839E-2</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J17</f>
-        <v>5.3362304749083656E-2</v>
+        <v>4.2183046433416922E-2</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K17</f>
-        <v>5.8230148407061193E-2</v>
+        <v>4.6079927436395739E-2</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L17</f>
-        <v>6.4722197553938501E-2</v>
+        <v>5.1277042374426027E-2</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M17</f>
-        <v>7.3344901586776062E-2</v>
+        <v>5.8179821900799344E-2</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N17</f>
-        <v>8.4735273958891508E-2</v>
+        <v>6.7298217813332228E-2</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O17</f>
-        <v>9.9673809719607862E-2</v>
+        <v>7.9257044001772636E-2</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P17</f>
-        <v>0.11908200407492263</v>
+        <v>9.4793989967857706E-2</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q17</f>
-        <v>0.14399076049065435</v>
+        <v>0.11473433039461256</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R17</f>
-        <v>0.17546212114079962</v>
+        <v>0.13992826760220153</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S17</f>
-        <v>0.21444740319819114</v>
+        <v>0.17113736463148846</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T17</f>
-        <v>0.26157597018573009</v>
+        <v>0.20886544924044628</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U17</f>
-        <v>0.31689620426733145</v>
+        <v>0.25315125306235869</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V17</f>
-        <v>0.37963206684425987</v>
+        <v>0.30337352975377885</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W17</f>
-        <v>0.44805663100484905</v>
+        <v>0.35814981324791401</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X17</f>
-        <v>0.5195834632343943</v>
+        <v>0.41540957204517448</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y17</f>
-        <v>0.59111029546393956</v>
+        <v>0.47266933084243495</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z17</f>
-        <v>0.65953485962452862</v>
+        <v>0.52744561433657</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA17</f>
-        <v>0.72227072220145716</v>
+        <v>0.5776678910279901</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB17</f>
-        <v>0.77759095628305852</v>
+        <v>0.62195369484990259</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC17</f>
-        <v>0.82471952327059739</v>
+        <v>0.65968177945886042</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD17</f>
-        <v>0.86370480532798899</v>
+        <v>0.6908908764881474</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE17</f>
-        <v>0.89517616597813421</v>
+        <v>0.71608481369573629</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF17</f>
-        <v>0.92008492239386597</v>
+        <v>0.73602515412249125</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG17</f>
-        <v>0.93949311674918079</v>
+        <v>0.75156210008857627</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH17</f>
-        <v>0.95443165250989714</v>
+        <v>0.76352092627701673</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI17</f>
-        <v>0.96582202488201252</v>
+        <v>0.77263932218954956</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ17</f>
-        <v>0.97444472891485001</v>
+        <v>0.77954210171592286</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK17</f>
-        <v>0.98093677806172741</v>
+        <v>0.78473921665395319</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL17</f>
-        <v>0.98580462171970495</v>
+        <v>0.78863609765693199</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM17</f>
-        <v>0.98944338214353611</v>
+        <v>0.79154905406357012</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN17</f>
-        <v>0.99215713167099218</v>
+        <v>0.7937215065339891</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
@@ -4315,127 +5249,127 @@
       </c>
       <c r="C2" s="16">
         <f>Data!J24</f>
-        <v>1.5070634542928764E-2</v>
+        <v>1.2115828204274155E-2</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K24</f>
-        <v>2.01353833789924E-2</v>
+        <v>1.6167322232176901E-2</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L24</f>
-        <v>2.6890037116983612E-2</v>
+        <v>2.1570638401610439E-2</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M24</f>
-        <v>3.5861531125930435E-2</v>
+        <v>2.8747293271403202E-2</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N24</f>
-        <v>4.7712646171390136E-2</v>
+        <v>3.8227471535876779E-2</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O24</f>
-        <v>6.3255448472074108E-2</v>
+        <v>5.0660777260674819E-2</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P24</f>
-        <v>8.3448707885836276E-2</v>
+        <v>6.6814168587051803E-2</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q24</f>
-        <v>0.10936502811473713</v>
+        <v>8.7545663875614535E-2</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R24</f>
-        <v>0.14210941113553172</v>
+        <v>0.11373919815543415</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S24</f>
-        <v>0.18267165507699426</v>
+        <v>0.146186550315723</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T24</f>
-        <v>0.23170658133316255</v>
+        <v>0.18541153803296609</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U24</f>
-        <v>0.28926452913544826</v>
+        <v>0.23145442966044902</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V24</f>
-        <v>0.3545380689799798</v>
+        <v>0.2836693302251389</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W24</f>
-        <v>0.42573041944147549</v>
+        <v>0.34061892280380729</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X24</f>
-        <v>0.5001505252902364</v>
+        <v>0.40015052529023648</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y24</f>
-        <v>0.57457063113899742</v>
+        <v>0.45968212777666567</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z24</f>
-        <v>0.64576298160049306</v>
+        <v>0.516631720355334</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA24</f>
-        <v>0.71103652144502461</v>
+        <v>0.56884662092002392</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB24</f>
-        <v>0.76859446924731034</v>
+        <v>0.61488951254750679</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC24</f>
-        <v>0.81762939550347857</v>
+        <v>0.65411450026474993</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD24</f>
-        <v>0.85819163944494126</v>
+        <v>0.68656185242503887</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE24</f>
-        <v>0.89093602246573578</v>
+        <v>0.71275538670485838</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF24</f>
-        <v>0.91685234269463667</v>
+        <v>0.73348688199342116</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG24</f>
-        <v>0.93704560210839882</v>
+        <v>0.74964027331979821</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH24</f>
-        <v>0.95258840440908288</v>
+        <v>0.76207357904459627</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI24</f>
-        <v>0.96443951945454254</v>
+        <v>0.77155375730906972</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ24</f>
-        <v>0.97341101346348924</v>
+        <v>0.77873041217886241</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK24</f>
-        <v>0.98016566720148057</v>
+        <v>0.78413372834829609</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL24</f>
-        <v>0.98523041603754413</v>
+        <v>0.78818522237619881</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM24</f>
-        <v>0.98901636499486345</v>
+        <v>0.79121375352098211</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN24</f>
-        <v>0.99183988619362395</v>
+        <v>0.79347240042425593</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
@@ -13933,8 +14867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19926,7 +20860,40 @@
         <v>2.287E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C81">
+        <f>C75/C80</f>
+        <v>1.8447488281938765E-2</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:J81" si="0">D75/D80</f>
+        <v>2.3367988763240231E-2</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>3.0819144090348839E-2</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>3.169118913337516E-2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="0"/>
+        <v>3.2913957955998024E-2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="0"/>
+        <v>3.5857635736925242E-2</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="0"/>
+        <v>3.9166926468788582E-2</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="0"/>
+        <v>4.0260003508194267E-2</v>
+      </c>
+    </row>
     <row r="82" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="14" t="s">
         <v>524</v>
@@ -20251,42 +21218,42 @@
     </row>
     <row r="86" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="87" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="C87" s="61"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="61"/>
-      <c r="P87" s="61"/>
-      <c r="Q87" s="61"/>
-      <c r="R87" s="61"/>
-      <c r="S87" s="61"/>
-      <c r="T87" s="61"/>
-      <c r="U87" s="61"/>
-      <c r="V87" s="61"/>
-      <c r="W87" s="61"/>
-      <c r="X87" s="61"/>
-      <c r="Y87" s="61"/>
-      <c r="Z87" s="61"/>
-      <c r="AA87" s="61"/>
-      <c r="AB87" s="61"/>
-      <c r="AC87" s="61"/>
-      <c r="AD87" s="61"/>
-      <c r="AE87" s="61"/>
-      <c r="AF87" s="61"/>
-      <c r="AG87" s="61"/>
-      <c r="AH87" s="61"/>
-      <c r="AI87" s="61"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="62"/>
+      <c r="S87" s="62"/>
+      <c r="T87" s="62"/>
+      <c r="U87" s="62"/>
+      <c r="V87" s="62"/>
+      <c r="W87" s="62"/>
+      <c r="X87" s="62"/>
+      <c r="Y87" s="62"/>
+      <c r="Z87" s="62"/>
+      <c r="AA87" s="62"/>
+      <c r="AB87" s="62"/>
+      <c r="AC87" s="62"/>
+      <c r="AD87" s="62"/>
+      <c r="AE87" s="62"/>
+      <c r="AF87" s="62"/>
+      <c r="AG87" s="62"/>
+      <c r="AH87" s="62"/>
+      <c r="AI87" s="62"/>
     </row>
     <row r="88" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="52" t="s">
@@ -26018,42 +26985,42 @@
     </row>
     <row r="66" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="67" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="61"/>
-      <c r="W67" s="61"/>
-      <c r="X67" s="61"/>
-      <c r="Y67" s="61"/>
-      <c r="Z67" s="61"/>
-      <c r="AA67" s="61"/>
-      <c r="AB67" s="61"/>
-      <c r="AC67" s="61"/>
-      <c r="AD67" s="61"/>
-      <c r="AE67" s="61"/>
-      <c r="AF67" s="61"/>
-      <c r="AG67" s="61"/>
-      <c r="AH67" s="61"/>
-      <c r="AI67" s="61"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="62"/>
+      <c r="V67" s="62"/>
+      <c r="W67" s="62"/>
+      <c r="X67" s="62"/>
+      <c r="Y67" s="62"/>
+      <c r="Z67" s="62"/>
+      <c r="AA67" s="62"/>
+      <c r="AB67" s="62"/>
+      <c r="AC67" s="62"/>
+      <c r="AD67" s="62"/>
+      <c r="AE67" s="62"/>
+      <c r="AF67" s="62"/>
+      <c r="AG67" s="62"/>
+      <c r="AH67" s="62"/>
+      <c r="AI67" s="62"/>
     </row>
     <row r="68" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="52" t="s">
@@ -49540,42 +50507,42 @@
     </row>
     <row r="274" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="275" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B275" s="61" t="s">
+      <c r="B275" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C275" s="61"/>
-      <c r="D275" s="61"/>
-      <c r="E275" s="61"/>
-      <c r="F275" s="61"/>
-      <c r="G275" s="61"/>
-      <c r="H275" s="61"/>
-      <c r="I275" s="61"/>
-      <c r="J275" s="61"/>
-      <c r="K275" s="61"/>
-      <c r="L275" s="61"/>
-      <c r="M275" s="61"/>
-      <c r="N275" s="61"/>
-      <c r="O275" s="61"/>
-      <c r="P275" s="61"/>
-      <c r="Q275" s="61"/>
-      <c r="R275" s="61"/>
-      <c r="S275" s="61"/>
-      <c r="T275" s="61"/>
-      <c r="U275" s="61"/>
-      <c r="V275" s="61"/>
-      <c r="W275" s="61"/>
-      <c r="X275" s="61"/>
-      <c r="Y275" s="61"/>
-      <c r="Z275" s="61"/>
-      <c r="AA275" s="61"/>
-      <c r="AB275" s="61"/>
-      <c r="AC275" s="61"/>
-      <c r="AD275" s="61"/>
-      <c r="AE275" s="61"/>
-      <c r="AF275" s="61"/>
-      <c r="AG275" s="61"/>
-      <c r="AH275" s="61"/>
-      <c r="AI275" s="61"/>
+      <c r="C275" s="62"/>
+      <c r="D275" s="62"/>
+      <c r="E275" s="62"/>
+      <c r="F275" s="62"/>
+      <c r="G275" s="62"/>
+      <c r="H275" s="62"/>
+      <c r="I275" s="62"/>
+      <c r="J275" s="62"/>
+      <c r="K275" s="62"/>
+      <c r="L275" s="62"/>
+      <c r="M275" s="62"/>
+      <c r="N275" s="62"/>
+      <c r="O275" s="62"/>
+      <c r="P275" s="62"/>
+      <c r="Q275" s="62"/>
+      <c r="R275" s="62"/>
+      <c r="S275" s="62"/>
+      <c r="T275" s="62"/>
+      <c r="U275" s="62"/>
+      <c r="V275" s="62"/>
+      <c r="W275" s="62"/>
+      <c r="X275" s="62"/>
+      <c r="Y275" s="62"/>
+      <c r="Z275" s="62"/>
+      <c r="AA275" s="62"/>
+      <c r="AB275" s="62"/>
+      <c r="AC275" s="62"/>
+      <c r="AD275" s="62"/>
+      <c r="AE275" s="62"/>
+      <c r="AF275" s="62"/>
+      <c r="AG275" s="62"/>
+      <c r="AH275" s="62"/>
+      <c r="AI275" s="62"/>
     </row>
     <row r="276" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B276" s="52" t="s">
@@ -50404,8 +51371,8 @@
   </sheetPr>
   <dimension ref="A1:AN93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -50488,7 +51455,7 @@
         <v>437</v>
       </c>
       <c r="O4" s="28">
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.45">
@@ -50518,7 +51485,7 @@
         <v>2019</v>
       </c>
       <c r="E7" s="56">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="F7" s="56" t="s">
         <v>576</v>
@@ -50553,11 +51520,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="30">
-        <f>INDEX('AEO 38'!75:75,0,MATCH(2025,'AEO 38'!1:1,0))/INDEX('AEO 38'!80:80,MATCH(2025,'AEO 38'!1:1,0))</f>
-        <v>3.9166926468788582E-2</v>
+        <f>INDEX('AEO 38'!75:75,0,MATCH(2021,'AEO 38'!1:1,0))/INDEX('AEO 38'!80:80,MATCH(2021,'AEO 38'!1:1,0))</f>
+        <v>3.0819144090348839E-2</v>
       </c>
       <c r="E9" s="16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>IF(D9=E9,"n/a",IF(OR(C9="battery electric vehicle",C9="natural gas vehicle",C9="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -50712,125 +51679,131 @@
       <c r="H10" s="31"/>
       <c r="I10" s="30">
         <f t="shared" si="0"/>
-        <v>3.9166926468788582E-2</v>
+        <v>3.0819144090348839E-2</v>
       </c>
       <c r="J10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,J$9))</f>
-        <v>5.6448671867842706E-2</v>
+        <v>4.0148104092397455E-2</v>
       </c>
       <c r="K10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,K$9))</f>
-        <v>6.4722197553938488E-2</v>
+        <v>4.4653792463561118E-2</v>
       </c>
       <c r="L10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,L$9))</f>
-        <v>7.6798648280675105E-2</v>
+        <v>5.1277042374426013E-2</v>
       </c>
       <c r="M10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,M$9))</f>
-        <v>9.4245890585342412E-2</v>
+        <v>6.0944668273484187E-2</v>
       </c>
       <c r="N10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,N$9))</f>
-        <v>0.1190820040749226</v>
+        <v>7.4911802772556088E-2</v>
       </c>
       <c r="O10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,O$9))</f>
-        <v>0.15370103640920113</v>
+        <v>9.4793989967857678E-2</v>
       </c>
       <c r="P10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,P$9))</f>
-        <v>0.20056921777729614</v>
+        <v>0.12250774967825262</v>
       </c>
       <c r="Q10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Q$9))</f>
-        <v>0.26157597018572998</v>
+        <v>0.16002738639012218</v>
       </c>
       <c r="R10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,R$9))</f>
-        <v>0.3370496986400533</v>
+        <v>0.20886544924044625</v>
       </c>
       <c r="S10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,S$9))</f>
-        <v>0.42476109544894347</v>
+        <v>0.26928483805044562</v>
       </c>
       <c r="T10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,T$9))</f>
-        <v>0.5195834632343943</v>
+        <v>0.33950091317215791</v>
       </c>
       <c r="U10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,U$9))</f>
-        <v>0.61440583101984514</v>
+        <v>0.41540957204517448</v>
       </c>
       <c r="V10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,V$9))</f>
-        <v>0.70211722782873531</v>
+        <v>0.49131823091819105</v>
       </c>
       <c r="W10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,W$9))</f>
-        <v>0.77759095628305863</v>
+        <v>0.56153430603990329</v>
       </c>
       <c r="X10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,X$9))</f>
-        <v>0.83859770869149242</v>
+        <v>0.62195369484990271</v>
       </c>
       <c r="Y10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Y$9))</f>
-        <v>0.88546589005958742</v>
+        <v>0.6707917577002267</v>
       </c>
       <c r="Z10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,Z$9))</f>
-        <v>0.92008492239386597</v>
+        <v>0.70831139441209623</v>
       </c>
       <c r="AA10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AA$9))</f>
-        <v>0.94492103588344623</v>
+        <v>0.73602515412249125</v>
       </c>
       <c r="AB10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AB$9))</f>
-        <v>0.96236827818811355</v>
+        <v>0.7559073413177928</v>
       </c>
       <c r="AC10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AC$9))</f>
-        <v>0.97444472891485001</v>
+        <v>0.76987447581686475</v>
       </c>
       <c r="AD10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AD$9))</f>
-        <v>0.98271825460094586</v>
+        <v>0.77954210171592286</v>
       </c>
       <c r="AE10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AE$9))</f>
-        <v>0.98834659853693629</v>
+        <v>0.78616535162678769</v>
       </c>
       <c r="AF10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AF$9))</f>
-        <v>0.99215713167099218</v>
+        <v>0.79067103999795141</v>
       </c>
       <c r="AG10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AG$9))</f>
-        <v>0.99472858256613006</v>
+        <v>0.7937215065339891</v>
       </c>
       <c r="AH10" s="16">
         <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AH$9))</f>
-        <v>0.99646006045379865</v>
+        <v>0.79578004391674451</v>
       </c>
       <c r="AI10" s="16">
-        <v>1</v>
+        <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AI$9))</f>
+        <v>0.79716615320077544</v>
       </c>
       <c r="AJ10" s="16">
-        <v>1</v>
+        <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AJ$9))</f>
+        <v>0.79809810560403771</v>
       </c>
       <c r="AK10" s="16">
-        <v>1</v>
+        <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AK$9))</f>
+        <v>0.79872408196536759</v>
       </c>
       <c r="AL10" s="16">
-        <v>1</v>
+        <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AL$9))</f>
+        <v>0.79914425858201432</v>
       </c>
       <c r="AM10" s="16">
-        <v>1</v>
+        <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AM$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AM$9))</f>
+        <v>0.79942616890305629</v>
       </c>
       <c r="AN10" s="16">
-        <v>1</v>
+        <f>IF($F9="s-curve",$D9+($E9-$D9)*$O$2/(1+EXP($O$3*(COUNT($I$9:AN$9)+$O$4))),TREND($D9:$E9,$D$7:$E$7,AN$9))</f>
+        <v>0.79961525488432961</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.45">
@@ -51575,11 +52548,11 @@
       </c>
       <c r="D16" s="30">
         <f>D9</f>
-        <v>3.9166926468788582E-2</v>
+        <v>3.0819144090348839E-2</v>
       </c>
       <c r="E16" s="16">
         <f>E9</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>IF(D16=E16,"n/a",IF(OR(C16="battery electric vehicle",C16="natural gas vehicle",C16="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -51733,131 +52706,131 @@
       <c r="H17" s="31"/>
       <c r="I17" s="30">
         <f t="shared" si="0"/>
-        <v>3.9166926468788582E-2</v>
+        <v>3.0819144090348839E-2</v>
       </c>
       <c r="J17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,J$9))</f>
-        <v>5.3362304749083656E-2</v>
+        <v>4.2183046433416922E-2</v>
       </c>
       <c r="K17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,K$9))</f>
-        <v>5.8230148407061193E-2</v>
+        <v>4.6079927436395739E-2</v>
       </c>
       <c r="L17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,L$9))</f>
-        <v>6.4722197553938501E-2</v>
+        <v>5.1277042374426027E-2</v>
       </c>
       <c r="M17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,M$9))</f>
-        <v>7.3344901586776062E-2</v>
+        <v>5.8179821900799344E-2</v>
       </c>
       <c r="N17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,N$9))</f>
-        <v>8.4735273958891508E-2</v>
+        <v>6.7298217813332228E-2</v>
       </c>
       <c r="O17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,O$9))</f>
-        <v>9.9673809719607862E-2</v>
+        <v>7.9257044001772636E-2</v>
       </c>
       <c r="P17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,P$9))</f>
-        <v>0.11908200407492263</v>
+        <v>9.4793989967857706E-2</v>
       </c>
       <c r="Q17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,Q$9))</f>
-        <v>0.14399076049065435</v>
+        <v>0.11473433039461256</v>
       </c>
       <c r="R17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,R$9))</f>
-        <v>0.17546212114079962</v>
+        <v>0.13992826760220153</v>
       </c>
       <c r="S17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,S$9))</f>
-        <v>0.21444740319819114</v>
+        <v>0.17113736463148846</v>
       </c>
       <c r="T17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,T$9))</f>
-        <v>0.26157597018573009</v>
+        <v>0.20886544924044628</v>
       </c>
       <c r="U17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,U$9))</f>
-        <v>0.31689620426733145</v>
+        <v>0.25315125306235869</v>
       </c>
       <c r="V17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,V$9))</f>
-        <v>0.37963206684425987</v>
+        <v>0.30337352975377885</v>
       </c>
       <c r="W17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,W$9))</f>
-        <v>0.44805663100484905</v>
+        <v>0.35814981324791401</v>
       </c>
       <c r="X17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,X$9))</f>
-        <v>0.5195834632343943</v>
+        <v>0.41540957204517448</v>
       </c>
       <c r="Y17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,Y$9))</f>
-        <v>0.59111029546393956</v>
+        <v>0.47266933084243495</v>
       </c>
       <c r="Z17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,Z$9))</f>
-        <v>0.65953485962452862</v>
+        <v>0.52744561433657</v>
       </c>
       <c r="AA17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AA$9))</f>
-        <v>0.72227072220145716</v>
+        <v>0.5776678910279901</v>
       </c>
       <c r="AB17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AB$9))</f>
-        <v>0.77759095628305852</v>
+        <v>0.62195369484990259</v>
       </c>
       <c r="AC17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AC$9))</f>
-        <v>0.82471952327059739</v>
+        <v>0.65968177945886042</v>
       </c>
       <c r="AD17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AD$9))</f>
-        <v>0.86370480532798899</v>
+        <v>0.6908908764881474</v>
       </c>
       <c r="AE17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AE$9))</f>
-        <v>0.89517616597813421</v>
+        <v>0.71608481369573629</v>
       </c>
       <c r="AF17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AF$9))</f>
-        <v>0.92008492239386597</v>
+        <v>0.73602515412249125</v>
       </c>
       <c r="AG17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AG$9))</f>
-        <v>0.93949311674918079</v>
+        <v>0.75156210008857627</v>
       </c>
       <c r="AH17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AH$9))</f>
-        <v>0.95443165250989714</v>
+        <v>0.76352092627701673</v>
       </c>
       <c r="AI17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AI$9))</f>
-        <v>0.96582202488201252</v>
+        <v>0.77263932218954956</v>
       </c>
       <c r="AJ17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AJ$9))</f>
-        <v>0.97444472891485001</v>
+        <v>0.77954210171592286</v>
       </c>
       <c r="AK17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AK$9))</f>
-        <v>0.98093677806172741</v>
+        <v>0.78473921665395319</v>
       </c>
       <c r="AL17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AL$9))</f>
-        <v>0.98580462171970495</v>
+        <v>0.78863609765693199</v>
       </c>
       <c r="AM17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AM$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AM$9))</f>
-        <v>0.98944338214353611</v>
+        <v>0.79154905406357012</v>
       </c>
       <c r="AN17" s="16">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($I$9:AN$9)+$I$4))),TREND($D16:$E16,$D$8:$E$8,AN$9))</f>
-        <v>0.99215713167099218</v>
+        <v>0.7937215065339891</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
@@ -52603,9 +53576,8 @@
         <f>'SYVbT-passenger'!B3/SUM('SYVbT-passenger'!3:3)</f>
         <v>3.010505804728952E-4</v>
       </c>
-      <c r="E23" s="22">
-        <f>E9</f>
-        <v>1</v>
+      <c r="E23" s="61">
+        <v>0.8</v>
       </c>
       <c r="F23" s="9" t="str">
         <f>IF(D23=E23,"n/a",IF(OR(C23="battery electric vehicle",C23="natural gas vehicle",C23="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -52764,127 +53736,127 @@
       </c>
       <c r="J24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,J$9))</f>
-        <v>1.5070634542928764E-2</v>
+        <v>1.2115828204274155E-2</v>
       </c>
       <c r="K24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,K$9))</f>
-        <v>2.01353833789924E-2</v>
+        <v>1.6167322232176901E-2</v>
       </c>
       <c r="L24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,L$9))</f>
-        <v>2.6890037116983612E-2</v>
+        <v>2.1570638401610439E-2</v>
       </c>
       <c r="M24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,M$9))</f>
-        <v>3.5861531125930435E-2</v>
+        <v>2.8747293271403202E-2</v>
       </c>
       <c r="N24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,N$9))</f>
-        <v>4.7712646171390136E-2</v>
+        <v>3.8227471535876779E-2</v>
       </c>
       <c r="O24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,O$9))</f>
-        <v>6.3255448472074108E-2</v>
+        <v>5.0660777260674819E-2</v>
       </c>
       <c r="P24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,P$9))</f>
-        <v>8.3448707885836276E-2</v>
+        <v>6.6814168587051803E-2</v>
       </c>
       <c r="Q24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,Q$9))</f>
-        <v>0.10936502811473713</v>
+        <v>8.7545663875614535E-2</v>
       </c>
       <c r="R24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,R$9))</f>
-        <v>0.14210941113553172</v>
+        <v>0.11373919815543415</v>
       </c>
       <c r="S24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,S$9))</f>
-        <v>0.18267165507699426</v>
+        <v>0.146186550315723</v>
       </c>
       <c r="T24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,T$9))</f>
-        <v>0.23170658133316255</v>
+        <v>0.18541153803296609</v>
       </c>
       <c r="U24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,U$9))</f>
-        <v>0.28926452913544826</v>
+        <v>0.23145442966044902</v>
       </c>
       <c r="V24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,V$9))</f>
-        <v>0.3545380689799798</v>
+        <v>0.2836693302251389</v>
       </c>
       <c r="W24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,W$9))</f>
-        <v>0.42573041944147549</v>
+        <v>0.34061892280380729</v>
       </c>
       <c r="X24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,X$9))</f>
-        <v>0.5001505252902364</v>
+        <v>0.40015052529023648</v>
       </c>
       <c r="Y24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,Y$9))</f>
-        <v>0.57457063113899742</v>
+        <v>0.45968212777666567</v>
       </c>
       <c r="Z24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,Z$9))</f>
-        <v>0.64576298160049306</v>
+        <v>0.516631720355334</v>
       </c>
       <c r="AA24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AA$9))</f>
-        <v>0.71103652144502461</v>
+        <v>0.56884662092002392</v>
       </c>
       <c r="AB24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AB$9))</f>
-        <v>0.76859446924731034</v>
+        <v>0.61488951254750679</v>
       </c>
       <c r="AC24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AC$9))</f>
-        <v>0.81762939550347857</v>
+        <v>0.65411450026474993</v>
       </c>
       <c r="AD24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AD$9))</f>
-        <v>0.85819163944494126</v>
+        <v>0.68656185242503887</v>
       </c>
       <c r="AE24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AE$9))</f>
-        <v>0.89093602246573578</v>
+        <v>0.71275538670485838</v>
       </c>
       <c r="AF24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AF$9))</f>
-        <v>0.91685234269463667</v>
+        <v>0.73348688199342116</v>
       </c>
       <c r="AG24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AG$9))</f>
-        <v>0.93704560210839882</v>
+        <v>0.74964027331979821</v>
       </c>
       <c r="AH24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AH$9))</f>
-        <v>0.95258840440908288</v>
+        <v>0.76207357904459627</v>
       </c>
       <c r="AI24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AI$9))</f>
-        <v>0.96443951945454254</v>
+        <v>0.77155375730906972</v>
       </c>
       <c r="AJ24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AJ$9))</f>
-        <v>0.97341101346348924</v>
+        <v>0.77873041217886241</v>
       </c>
       <c r="AK24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AK$9))</f>
-        <v>0.98016566720148057</v>
+        <v>0.78413372834829609</v>
       </c>
       <c r="AL24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AL$9))</f>
-        <v>0.98523041603754413</v>
+        <v>0.78818522237619881</v>
       </c>
       <c r="AM24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AM$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AM$9))</f>
-        <v>0.98901636499486345</v>
+        <v>0.79121375352098211</v>
       </c>
       <c r="AN24" s="16">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($I$9:AN$9)+$I$4))),TREND($D23:$E23,$D$8:$E$8,AN$9))</f>
-        <v>0.99183988619362395</v>
+        <v>0.79347240042425593</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
@@ -62926,6 +63898,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -62936,7 +63909,7 @@
   </sheetPr>
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AI8"/>
     </sheetView>
   </sheetViews>
@@ -63085,131 +64058,131 @@
       </c>
       <c r="B2" s="16">
         <f>Data!I10</f>
-        <v>3.9166926468788582E-2</v>
+        <v>3.0819144090348839E-2</v>
       </c>
       <c r="C2" s="16">
         <f>Data!J10</f>
-        <v>5.6448671867842706E-2</v>
+        <v>4.0148104092397455E-2</v>
       </c>
       <c r="D2" s="16">
         <f>Data!K10</f>
-        <v>6.4722197553938488E-2</v>
+        <v>4.4653792463561118E-2</v>
       </c>
       <c r="E2" s="16">
         <f>Data!L10</f>
-        <v>7.6798648280675105E-2</v>
+        <v>5.1277042374426013E-2</v>
       </c>
       <c r="F2" s="16">
         <f>Data!M10</f>
-        <v>9.4245890585342412E-2</v>
+        <v>6.0944668273484187E-2</v>
       </c>
       <c r="G2" s="16">
         <f>Data!N10</f>
-        <v>0.1190820040749226</v>
+        <v>7.4911802772556088E-2</v>
       </c>
       <c r="H2" s="16">
         <f>Data!O10</f>
-        <v>0.15370103640920113</v>
+        <v>9.4793989967857678E-2</v>
       </c>
       <c r="I2" s="16">
         <f>Data!P10</f>
-        <v>0.20056921777729614</v>
+        <v>0.12250774967825262</v>
       </c>
       <c r="J2" s="16">
         <f>Data!Q10</f>
-        <v>0.26157597018572998</v>
+        <v>0.16002738639012218</v>
       </c>
       <c r="K2" s="16">
         <f>Data!R10</f>
-        <v>0.3370496986400533</v>
+        <v>0.20886544924044625</v>
       </c>
       <c r="L2" s="16">
         <f>Data!S10</f>
-        <v>0.42476109544894347</v>
+        <v>0.26928483805044562</v>
       </c>
       <c r="M2" s="16">
         <f>Data!T10</f>
-        <v>0.5195834632343943</v>
+        <v>0.33950091317215791</v>
       </c>
       <c r="N2" s="16">
         <f>Data!U10</f>
-        <v>0.61440583101984514</v>
+        <v>0.41540957204517448</v>
       </c>
       <c r="O2" s="16">
         <f>Data!V10</f>
-        <v>0.70211722782873531</v>
+        <v>0.49131823091819105</v>
       </c>
       <c r="P2" s="16">
         <f>Data!W10</f>
-        <v>0.77759095628305863</v>
+        <v>0.56153430603990329</v>
       </c>
       <c r="Q2" s="16">
         <f>Data!X10</f>
-        <v>0.83859770869149242</v>
+        <v>0.62195369484990271</v>
       </c>
       <c r="R2" s="16">
         <f>Data!Y10</f>
-        <v>0.88546589005958742</v>
+        <v>0.6707917577002267</v>
       </c>
       <c r="S2" s="16">
         <f>Data!Z10</f>
-        <v>0.92008492239386597</v>
+        <v>0.70831139441209623</v>
       </c>
       <c r="T2" s="16">
         <f>Data!AA10</f>
-        <v>0.94492103588344623</v>
+        <v>0.73602515412249125</v>
       </c>
       <c r="U2" s="16">
         <f>Data!AB10</f>
-        <v>0.96236827818811355</v>
+        <v>0.7559073413177928</v>
       </c>
       <c r="V2" s="16">
         <f>Data!AC10</f>
-        <v>0.97444472891485001</v>
+        <v>0.76987447581686475</v>
       </c>
       <c r="W2" s="16">
         <f>Data!AD10</f>
-        <v>0.98271825460094586</v>
+        <v>0.77954210171592286</v>
       </c>
       <c r="X2" s="16">
         <f>Data!AE10</f>
-        <v>0.98834659853693629</v>
+        <v>0.78616535162678769</v>
       </c>
       <c r="Y2" s="16">
         <f>Data!AF10</f>
-        <v>0.99215713167099218</v>
+        <v>0.79067103999795141</v>
       </c>
       <c r="Z2" s="16">
         <f>Data!AG10</f>
-        <v>0.99472858256613006</v>
+        <v>0.7937215065339891</v>
       </c>
       <c r="AA2" s="16">
         <f>Data!AH10</f>
-        <v>0.99646006045379865</v>
+        <v>0.79578004391674451</v>
       </c>
       <c r="AB2" s="16">
         <f>Data!AI10</f>
-        <v>1</v>
+        <v>0.79716615320077544</v>
       </c>
       <c r="AC2" s="16">
         <f>Data!AJ10</f>
-        <v>1</v>
+        <v>0.79809810560403771</v>
       </c>
       <c r="AD2" s="16">
         <f>Data!AK10</f>
-        <v>1</v>
+        <v>0.79872408196536759</v>
       </c>
       <c r="AE2" s="16">
         <f>Data!AL10</f>
-        <v>1</v>
+        <v>0.79914425858201432</v>
       </c>
       <c r="AF2" s="16">
         <f>Data!AM10</f>
-        <v>1</v>
+        <v>0.79942616890305629</v>
       </c>
       <c r="AG2" s="16">
         <f>Data!AN10</f>
-        <v>1</v>
+        <v>0.79961525488432961</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -33,7 +33,7 @@
     <sheet name="MPNVbT-motorbikes-psgr" sheetId="17" r:id="rId19"/>
     <sheet name="MPNVbT-motorbikes-frgt" sheetId="18" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4558,131 +4558,131 @@
       </c>
       <c r="B5" s="16">
         <f>Data!I20</f>
-        <v>0.34388074989867007</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16">
         <f>Data!J20</f>
-        <v>0.36504588699871476</v>
+        <v>0</v>
       </c>
       <c r="D5" s="16">
         <f>Data!K20</f>
-        <v>0.38621102409875618</v>
+        <v>0</v>
       </c>
       <c r="E5" s="16">
         <f>Data!L20</f>
-        <v>0.40737616119880471</v>
+        <v>0</v>
       </c>
       <c r="F5" s="16">
         <f>Data!M20</f>
-        <v>0.42854129829884613</v>
+        <v>0</v>
       </c>
       <c r="G5" s="16">
         <f>Data!N20</f>
-        <v>0.44970643539888755</v>
+        <v>0</v>
       </c>
       <c r="H5" s="16">
         <f>Data!O20</f>
-        <v>0.47087157249892897</v>
+        <v>0</v>
       </c>
       <c r="I5" s="16">
         <f>Data!P20</f>
-        <v>0.49203670959897039</v>
+        <v>0</v>
       </c>
       <c r="J5" s="16">
         <f>Data!Q20</f>
-        <v>0.51320184669901892</v>
+        <v>0</v>
       </c>
       <c r="K5" s="16">
         <f>Data!R20</f>
-        <v>0.53436698379906034</v>
+        <v>0</v>
       </c>
       <c r="L5" s="16">
         <f>Data!S20</f>
-        <v>0.55553212089910176</v>
+        <v>0</v>
       </c>
       <c r="M5" s="16">
         <f>Data!T20</f>
-        <v>0.57669725799914318</v>
+        <v>0</v>
       </c>
       <c r="N5" s="16">
         <f>Data!U20</f>
-        <v>0.5978623950991846</v>
+        <v>0</v>
       </c>
       <c r="O5" s="16">
         <f>Data!V20</f>
-        <v>0.61902753219923312</v>
+        <v>0</v>
       </c>
       <c r="P5" s="16">
         <f>Data!W20</f>
-        <v>0.64019266929927454</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="16">
         <f>Data!X20</f>
-        <v>0.66135780639931596</v>
+        <v>0</v>
       </c>
       <c r="R5" s="16">
         <f>Data!Y20</f>
-        <v>0.68252294349935738</v>
+        <v>0</v>
       </c>
       <c r="S5" s="16">
         <f>Data!Z20</f>
-        <v>0.70368808059940591</v>
+        <v>0</v>
       </c>
       <c r="T5" s="16">
         <f>Data!AA20</f>
-        <v>0.72485321769944733</v>
+        <v>0</v>
       </c>
       <c r="U5" s="16">
         <f>Data!AB20</f>
-        <v>0.74601835479948875</v>
+        <v>0</v>
       </c>
       <c r="V5" s="16">
         <f>Data!AC20</f>
-        <v>0.76718349189953017</v>
+        <v>0</v>
       </c>
       <c r="W5" s="16">
         <f>Data!AD20</f>
-        <v>0.78834862899957159</v>
+        <v>0</v>
       </c>
       <c r="X5" s="16">
         <f>Data!AE20</f>
-        <v>0.80951376609962011</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="16">
         <f>Data!AF20</f>
-        <v>0.83067890319966153</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="16">
         <f>Data!AG20</f>
-        <v>0.85184404029970295</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="16">
         <f>Data!AH20</f>
-        <v>0.87300917739974437</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="16">
         <f>Data!AI20</f>
-        <v>0.89417431449978579</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="16">
         <f>Data!AJ20</f>
-        <v>0.91533945159983432</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="16">
         <f>Data!AK20</f>
-        <v>0.93650458869987574</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="16">
         <f>Data!AL20</f>
-        <v>0.95766972579991716</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="16">
         <f>Data!AM20</f>
-        <v>0.97883486289995858</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="16">
         <f>Data!AN20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.45">
@@ -5515,127 +5515,127 @@
       </c>
       <c r="C4" s="16">
         <f>Data!J26</f>
-        <v>0.10272014714675315</v>
+        <v>9.5831895834069591E-2</v>
       </c>
       <c r="D4" s="16">
         <f>Data!K26</f>
-        <v>0.10641400193163442</v>
+        <v>9.2637499306267301E-2</v>
       </c>
       <c r="E4" s="16">
         <f>Data!L26</f>
-        <v>0.1101078567165148</v>
+        <v>8.9443102778465011E-2</v>
       </c>
       <c r="F4" s="16">
         <f>Data!M26</f>
-        <v>0.11380171150139606</v>
+        <v>8.6248706250662721E-2</v>
       </c>
       <c r="G4" s="16">
         <f>Data!N26</f>
-        <v>0.11749556628627733</v>
+        <v>8.3054309722860431E-2</v>
       </c>
       <c r="H4" s="16">
         <f>Data!O26</f>
-        <v>0.1211894210711586</v>
+        <v>7.9859913195058141E-2</v>
       </c>
       <c r="I4" s="16">
         <f>Data!P26</f>
-        <v>0.12488327585603898</v>
+        <v>7.6665516667255851E-2</v>
       </c>
       <c r="J4" s="16">
         <f>Data!Q26</f>
-        <v>0.12857713064092025</v>
+        <v>7.3471120139453561E-2</v>
       </c>
       <c r="K4" s="16">
         <f>Data!R26</f>
-        <v>0.13227098542580151</v>
+        <v>7.0276723611651271E-2</v>
       </c>
       <c r="L4" s="16">
         <f>Data!S26</f>
-        <v>0.13596484021068189</v>
+        <v>6.708232708384898E-2</v>
       </c>
       <c r="M4" s="16">
         <f>Data!T26</f>
-        <v>0.13965869499556316</v>
+        <v>6.388793055604669E-2</v>
       </c>
       <c r="N4" s="16">
         <f>Data!U26</f>
-        <v>0.14335254978044443</v>
+        <v>6.06935340282444E-2</v>
       </c>
       <c r="O4" s="16">
         <f>Data!V26</f>
-        <v>0.14704640456532569</v>
+        <v>5.749913750044211E-2</v>
       </c>
       <c r="P4" s="16">
         <f>Data!W26</f>
-        <v>0.15074025935020607</v>
+        <v>5.430474097263982E-2</v>
       </c>
       <c r="Q4" s="16">
         <f>Data!X26</f>
-        <v>0.15443411413508734</v>
+        <v>5.111034444483753E-2</v>
       </c>
       <c r="R4" s="16">
         <f>Data!Y26</f>
-        <v>0.15812796891996861</v>
+        <v>4.7915947917034352E-2</v>
       </c>
       <c r="S4" s="16">
         <f>Data!Z26</f>
-        <v>0.16182182370484899</v>
+        <v>4.4721551389232062E-2</v>
       </c>
       <c r="T4" s="16">
         <f>Data!AA26</f>
-        <v>0.16551567848973026</v>
+        <v>4.1527154861429771E-2</v>
       </c>
       <c r="U4" s="16">
         <f>Data!AB26</f>
-        <v>0.16920953327461152</v>
+        <v>3.8332758333627481E-2</v>
       </c>
       <c r="V4" s="16">
         <f>Data!AC26</f>
-        <v>0.17290338805949279</v>
+        <v>3.5138361805825191E-2</v>
       </c>
       <c r="W4" s="16">
         <f>Data!AD26</f>
-        <v>0.17659724284437317</v>
+        <v>3.1943965278022901E-2</v>
       </c>
       <c r="X4" s="16">
         <f>Data!AE26</f>
-        <v>0.18029109762925444</v>
+        <v>2.8749568750220611E-2</v>
       </c>
       <c r="Y4" s="16">
         <f>Data!AF26</f>
-        <v>0.18398495241413571</v>
+        <v>2.5555172222418321E-2</v>
       </c>
       <c r="Z4" s="16">
         <f>Data!AG26</f>
-        <v>0.18767880719901608</v>
+        <v>2.2360775694616031E-2</v>
       </c>
       <c r="AA4" s="16">
         <f>Data!AH26</f>
-        <v>0.19137266198389735</v>
+        <v>1.9166379166813741E-2</v>
       </c>
       <c r="AB4" s="16">
         <f>Data!AI26</f>
-        <v>0.19506651676877862</v>
+        <v>1.5971982639011451E-2</v>
       </c>
       <c r="AC4" s="16">
         <f>Data!AJ26</f>
-        <v>0.19876037155365989</v>
+        <v>1.277758611120916E-2</v>
       </c>
       <c r="AD4" s="16">
         <f>Data!AK26</f>
-        <v>0.20245422633854027</v>
+        <v>9.5831895834068703E-3</v>
       </c>
       <c r="AE4" s="16">
         <f>Data!AL26</f>
-        <v>0.20614808112342153</v>
+        <v>6.3887930556045802E-3</v>
       </c>
       <c r="AF4" s="16">
         <f>Data!AM26</f>
-        <v>0.2098419359083028</v>
+        <v>3.1943965278022901E-3</v>
       </c>
       <c r="AG4" s="16">
         <f>Data!AN26</f>
-        <v>0.21353579069318318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
@@ -6597,131 +6597,131 @@
       </c>
       <c r="B4" s="16">
         <f>Data!I33</f>
-        <v>0.16274512438254443</v>
+        <v>0</v>
       </c>
       <c r="C4" s="16">
         <f>Data!J33</f>
-        <v>0.16438353297320996</v>
+        <v>0</v>
       </c>
       <c r="D4" s="16">
         <f>Data!K33</f>
-        <v>0.16602194156387551</v>
+        <v>0</v>
       </c>
       <c r="E4" s="16">
         <f>Data!L33</f>
-        <v>0.1676603501545415</v>
+        <v>0</v>
       </c>
       <c r="F4" s="16">
         <f>Data!M33</f>
-        <v>0.16929875874520706</v>
+        <v>0</v>
       </c>
       <c r="G4" s="16">
         <f>Data!N33</f>
-        <v>0.17093716733587305</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16">
         <f>Data!O33</f>
-        <v>0.1725755759265386</v>
+        <v>0</v>
       </c>
       <c r="I4" s="16">
         <f>Data!P33</f>
-        <v>0.1742139845172046</v>
+        <v>0</v>
       </c>
       <c r="J4" s="16">
         <f>Data!Q33</f>
-        <v>0.17585239310787015</v>
+        <v>0</v>
       </c>
       <c r="K4" s="16">
         <f>Data!R33</f>
-        <v>0.17749080169853615</v>
+        <v>0</v>
       </c>
       <c r="L4" s="16">
         <f>Data!S33</f>
-        <v>0.1791292102892017</v>
+        <v>0</v>
       </c>
       <c r="M4" s="16">
         <f>Data!T33</f>
-        <v>0.1807676188798677</v>
+        <v>0</v>
       </c>
       <c r="N4" s="16">
         <f>Data!U33</f>
-        <v>0.18240602747053325</v>
+        <v>0</v>
       </c>
       <c r="O4" s="16">
         <f>Data!V33</f>
-        <v>0.18404443606119925</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16">
         <f>Data!W33</f>
-        <v>0.1856828446518648</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16">
         <f>Data!X33</f>
-        <v>0.18732125324253079</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16">
         <f>Data!Y33</f>
-        <v>0.18895966183319635</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16">
         <f>Data!Z33</f>
-        <v>0.19059807042386234</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16">
         <f>Data!AA33</f>
-        <v>0.19223647901452789</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16">
         <f>Data!AB33</f>
-        <v>0.19387488760519389</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16">
         <f>Data!AC33</f>
-        <v>0.19551329619585944</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16">
         <f>Data!AD33</f>
-        <v>0.19715170478652544</v>
+        <v>0</v>
       </c>
       <c r="X4" s="16">
         <f>Data!AE33</f>
-        <v>0.19879011337719099</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="16">
         <f>Data!AF33</f>
-        <v>0.20042852196785699</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="16">
         <f>Data!AG33</f>
-        <v>0.20206693055852254</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="16">
         <f>Data!AH33</f>
-        <v>0.20370533914918854</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="16">
         <f>Data!AI33</f>
-        <v>0.20534374773985409</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="16">
         <f>Data!AJ33</f>
-        <v>0.20698215633052008</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="16">
         <f>Data!AK33</f>
-        <v>0.20862056492118564</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="16">
         <f>Data!AL33</f>
-        <v>0.21025897351185163</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="16">
         <f>Data!AM33</f>
-        <v>0.21189738210251763</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="16">
         <f>Data!AN33</f>
-        <v>0.21353579069318318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
@@ -51372,7 +51372,7 @@
   <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -52982,15 +52982,14 @@
         <v>5</v>
       </c>
       <c r="D19" s="30">
-        <f>'SYVbT-freight'!E2/SUM('SYVbT-freight'!2:2)</f>
-        <v>0.34388074989867007</v>
+        <v>0</v>
       </c>
       <c r="E19" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>IF(D19=E19,"n/a",IF(OR(C19="battery electric vehicle",C19="natural gas vehicle",C19="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="30">
@@ -53141,131 +53140,131 @@
       <c r="H20" s="31"/>
       <c r="I20" s="30">
         <f t="shared" si="0"/>
-        <v>0.34388074989867007</v>
+        <v>0</v>
       </c>
       <c r="J20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,J$9))</f>
-        <v>0.36504588699871476</v>
+        <v>0</v>
       </c>
       <c r="K20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,K$9))</f>
-        <v>0.38621102409875618</v>
+        <v>0</v>
       </c>
       <c r="L20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,L$9))</f>
-        <v>0.40737616119880471</v>
+        <v>0</v>
       </c>
       <c r="M20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,M$9))</f>
-        <v>0.42854129829884613</v>
+        <v>0</v>
       </c>
       <c r="N20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,N$9))</f>
-        <v>0.44970643539888755</v>
+        <v>0</v>
       </c>
       <c r="O20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,O$9))</f>
-        <v>0.47087157249892897</v>
+        <v>0</v>
       </c>
       <c r="P20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,P$9))</f>
-        <v>0.49203670959897039</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,Q$9))</f>
-        <v>0.51320184669901892</v>
+        <v>0</v>
       </c>
       <c r="R20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,R$9))</f>
-        <v>0.53436698379906034</v>
+        <v>0</v>
       </c>
       <c r="S20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,S$9))</f>
-        <v>0.55553212089910176</v>
+        <v>0</v>
       </c>
       <c r="T20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,T$9))</f>
-        <v>0.57669725799914318</v>
+        <v>0</v>
       </c>
       <c r="U20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,U$9))</f>
-        <v>0.5978623950991846</v>
+        <v>0</v>
       </c>
       <c r="V20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,V$9))</f>
-        <v>0.61902753219923312</v>
+        <v>0</v>
       </c>
       <c r="W20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,W$9))</f>
-        <v>0.64019266929927454</v>
+        <v>0</v>
       </c>
       <c r="X20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,X$9))</f>
-        <v>0.66135780639931596</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,Y$9))</f>
-        <v>0.68252294349935738</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,Z$9))</f>
-        <v>0.70368808059940591</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AA$9))</f>
-        <v>0.72485321769944733</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AB$9))</f>
-        <v>0.74601835479948875</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AC$9))</f>
-        <v>0.76718349189953017</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AD$9))</f>
-        <v>0.78834862899957159</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AE$9))</f>
-        <v>0.80951376609962011</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AF$9))</f>
-        <v>0.83067890319966153</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AG$9))</f>
-        <v>0.85184404029970295</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AH$9))</f>
-        <v>0.87300917739974437</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AI$9))</f>
-        <v>0.89417431449978579</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AJ$9))</f>
-        <v>0.91533945159983432</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AK$9))</f>
-        <v>0.93650458869987574</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AL$9))</f>
-        <v>0.95766972579991716</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AM$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AM$9))</f>
-        <v>0.97883486289995858</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="16">
         <f>IF($F19="s-curve",$D19+($E19-$D19)*$I$2/(1+EXP($I$3*(COUNT($I$9:AN$9)+$I$4))),TREND($D19:$E19,$D$8:$E$8,AN$9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
@@ -53869,7 +53868,7 @@
       </c>
       <c r="E25" s="30">
         <f>E32</f>
-        <v>0.21353579069318354</v>
+        <v>0</v>
       </c>
       <c r="F25" s="9" t="str">
         <f>IF(D25=E25,"n/a",IF(OR(C25="battery electric vehicle",C25="natural gas vehicle",C25="plugin hybrid vehicle"),"s-curve","linear"))</f>
@@ -54026,127 +54025,127 @@
       </c>
       <c r="J26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,J$9))</f>
-        <v>0.10272014714675315</v>
+        <v>9.5831895834069591E-2</v>
       </c>
       <c r="K26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,K$9))</f>
-        <v>0.10641400193163442</v>
+        <v>9.2637499306267301E-2</v>
       </c>
       <c r="L26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,L$9))</f>
-        <v>0.1101078567165148</v>
+        <v>8.9443102778465011E-2</v>
       </c>
       <c r="M26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,M$9))</f>
-        <v>0.11380171150139606</v>
+        <v>8.6248706250662721E-2</v>
       </c>
       <c r="N26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,N$9))</f>
-        <v>0.11749556628627733</v>
+        <v>8.3054309722860431E-2</v>
       </c>
       <c r="O26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,O$9))</f>
-        <v>0.1211894210711586</v>
+        <v>7.9859913195058141E-2</v>
       </c>
       <c r="P26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,P$9))</f>
-        <v>0.12488327585603898</v>
+        <v>7.6665516667255851E-2</v>
       </c>
       <c r="Q26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,Q$9))</f>
-        <v>0.12857713064092025</v>
+        <v>7.3471120139453561E-2</v>
       </c>
       <c r="R26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,R$9))</f>
-        <v>0.13227098542580151</v>
+        <v>7.0276723611651271E-2</v>
       </c>
       <c r="S26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,S$9))</f>
-        <v>0.13596484021068189</v>
+        <v>6.708232708384898E-2</v>
       </c>
       <c r="T26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,T$9))</f>
-        <v>0.13965869499556316</v>
+        <v>6.388793055604669E-2</v>
       </c>
       <c r="U26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,U$9))</f>
-        <v>0.14335254978044443</v>
+        <v>6.06935340282444E-2</v>
       </c>
       <c r="V26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,V$9))</f>
-        <v>0.14704640456532569</v>
+        <v>5.749913750044211E-2</v>
       </c>
       <c r="W26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,W$9))</f>
-        <v>0.15074025935020607</v>
+        <v>5.430474097263982E-2</v>
       </c>
       <c r="X26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,X$9))</f>
-        <v>0.15443411413508734</v>
+        <v>5.111034444483753E-2</v>
       </c>
       <c r="Y26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,Y$9))</f>
-        <v>0.15812796891996861</v>
+        <v>4.7915947917034352E-2</v>
       </c>
       <c r="Z26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,Z$9))</f>
-        <v>0.16182182370484899</v>
+        <v>4.4721551389232062E-2</v>
       </c>
       <c r="AA26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AA$9))</f>
-        <v>0.16551567848973026</v>
+        <v>4.1527154861429771E-2</v>
       </c>
       <c r="AB26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AB$9))</f>
-        <v>0.16920953327461152</v>
+        <v>3.8332758333627481E-2</v>
       </c>
       <c r="AC26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AC$9))</f>
-        <v>0.17290338805949279</v>
+        <v>3.5138361805825191E-2</v>
       </c>
       <c r="AD26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AD$9))</f>
-        <v>0.17659724284437317</v>
+        <v>3.1943965278022901E-2</v>
       </c>
       <c r="AE26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AE$9))</f>
-        <v>0.18029109762925444</v>
+        <v>2.8749568750220611E-2</v>
       </c>
       <c r="AF26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AF$9))</f>
-        <v>0.18398495241413571</v>
+        <v>2.5555172222418321E-2</v>
       </c>
       <c r="AG26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AG$9))</f>
-        <v>0.18767880719901608</v>
+        <v>2.2360775694616031E-2</v>
       </c>
       <c r="AH26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AH$9))</f>
-        <v>0.19137266198389735</v>
+        <v>1.9166379166813741E-2</v>
       </c>
       <c r="AI26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AI$9))</f>
-        <v>0.19506651676877862</v>
+        <v>1.5971982639011451E-2</v>
       </c>
       <c r="AJ26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AJ$9))</f>
-        <v>0.19876037155365989</v>
+        <v>1.277758611120916E-2</v>
       </c>
       <c r="AK26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AK$9))</f>
-        <v>0.20245422633854027</v>
+        <v>9.5831895834068703E-3</v>
       </c>
       <c r="AL26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AL$9))</f>
-        <v>0.20614808112342153</v>
+        <v>6.3887930556045802E-3</v>
       </c>
       <c r="AM26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AM$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AM$9))</f>
-        <v>0.2098419359083028</v>
+        <v>3.1943965278022901E-3</v>
       </c>
       <c r="AN26" s="16">
         <f>IF($F25="s-curve",$D25+($E25-$D25)*$I$2/(1+EXP($I$3*(COUNT($I$9:AN$9)+$I$4))),TREND($D25:$E25,$D$8:$E$8,AN$9))</f>
-        <v>0.21353579069318318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
@@ -54892,16 +54891,14 @@
         <v>4</v>
       </c>
       <c r="D32" s="30">
-        <f>SUM(INDEX('AEO 49'!$212:$212,MATCH(D$8,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$223:$223,MATCH(D$8,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$234:$234,MATCH(D$8,'AEO 49'!$1:$1,0)))/INDEX('AEO 49'!$243:$243,MATCH(D$8,'AEO 49'!$1:$1,0))</f>
-        <v>0.16274512438254443</v>
+        <v>0</v>
       </c>
       <c r="E32" s="30">
-        <f>SUM(INDEX('AEO 49'!$212:$212,MATCH(E$8,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$223:$223,MATCH(E$8,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$234:$234,MATCH(E$8,'AEO 49'!$1:$1,0)))/INDEX('AEO 49'!$243:$243,MATCH(E$8,'AEO 49'!$1:$1,0))</f>
-        <v>0.21353579069318354</v>
+        <v>0</v>
       </c>
       <c r="F32" s="9" t="str">
         <f>IF(D32=E32,"n/a",IF(OR(C32="battery electric vehicle",C32="natural gas vehicle",C32="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="30">
@@ -55050,131 +55047,131 @@
       <c r="H33" s="31"/>
       <c r="I33" s="30">
         <f t="shared" si="0"/>
-        <v>0.16274512438254443</v>
+        <v>0</v>
       </c>
       <c r="J33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:J$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,J$9))</f>
-        <v>0.16438353297320996</v>
+        <v>0</v>
       </c>
       <c r="K33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:K$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,K$9))</f>
-        <v>0.16602194156387551</v>
+        <v>0</v>
       </c>
       <c r="L33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:L$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,L$9))</f>
-        <v>0.1676603501545415</v>
+        <v>0</v>
       </c>
       <c r="M33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:M$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,M$9))</f>
-        <v>0.16929875874520706</v>
+        <v>0</v>
       </c>
       <c r="N33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:N$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,N$9))</f>
-        <v>0.17093716733587305</v>
+        <v>0</v>
       </c>
       <c r="O33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:O$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,O$9))</f>
-        <v>0.1725755759265386</v>
+        <v>0</v>
       </c>
       <c r="P33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:P$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,P$9))</f>
-        <v>0.1742139845172046</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Q$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,Q$9))</f>
-        <v>0.17585239310787015</v>
+        <v>0</v>
       </c>
       <c r="R33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:R$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,R$9))</f>
-        <v>0.17749080169853615</v>
+        <v>0</v>
       </c>
       <c r="S33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:S$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,S$9))</f>
-        <v>0.1791292102892017</v>
+        <v>0</v>
       </c>
       <c r="T33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:T$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,T$9))</f>
-        <v>0.1807676188798677</v>
+        <v>0</v>
       </c>
       <c r="U33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:U$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,U$9))</f>
-        <v>0.18240602747053325</v>
+        <v>0</v>
       </c>
       <c r="V33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:V$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,V$9))</f>
-        <v>0.18404443606119925</v>
+        <v>0</v>
       </c>
       <c r="W33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:W$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,W$9))</f>
-        <v>0.1856828446518648</v>
+        <v>0</v>
       </c>
       <c r="X33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:X$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,X$9))</f>
-        <v>0.18732125324253079</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Y$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,Y$9))</f>
-        <v>0.18895966183319635</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:Z$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,Z$9))</f>
-        <v>0.19059807042386234</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AA$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AA$9))</f>
-        <v>0.19223647901452789</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AB$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AB$9))</f>
-        <v>0.19387488760519389</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AC$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AC$9))</f>
-        <v>0.19551329619585944</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AD$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AD$9))</f>
-        <v>0.19715170478652544</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AE$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AE$9))</f>
-        <v>0.19879011337719099</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AF$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AF$9))</f>
-        <v>0.20042852196785699</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AG$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AG$9))</f>
-        <v>0.20206693055852254</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AH$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AH$9))</f>
-        <v>0.20370533914918854</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AI$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AI$9))</f>
-        <v>0.20534374773985409</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AJ$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AJ$9))</f>
-        <v>0.20698215633052008</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AK$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AK$9))</f>
-        <v>0.20862056492118564</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AL$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AL$9))</f>
-        <v>0.21025897351185163</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AM$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AM$9))</f>
-        <v>0.21189738210251763</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="16">
         <f>IF($F32="s-curve",$D32+($E32-$D32)*$I$2/(1+EXP($I$3*(COUNT($I$9:AN$9)+$I$4))),TREND($D32:$E32,$D$8:$E$8,AN$9))</f>
-        <v>0.21353579069318318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.45">

--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\trans\MPNVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC0BE9-136B-4E6A-828F-9F9E40F3B4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF137C1C-9D14-47AE-9163-A8F7D7B59403}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="1245" windowWidth="20265" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -478,9 +478,6 @@
     <t>not on the basis of which types are compatible with which</t>
   </si>
   <si>
-    <t>Annual Energy Outlook 2020</t>
-  </si>
-  <si>
     <t>Table 39</t>
   </si>
   <si>
@@ -2852,6 +2849,9 @@
   </si>
   <si>
     <t>58-AEO2021.292.highogs-d120120a</t>
+  </si>
+  <si>
+    <t>Annual Energy Outlook 2021</t>
   </si>
 </sst>
 </file>
@@ -2860,9 +2860,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -3152,18 +3152,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3173,7 +3173,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
@@ -4508,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,22 +4539,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4574,17 +4574,17 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -4599,22 +4599,22 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>142</v>
+        <v>933</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
@@ -4784,27 +4784,27 @@
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
@@ -4844,17 +4844,17 @@
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
@@ -15630,38 +15630,38 @@
         <v>2050</v>
       </c>
       <c r="AJ1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
         <v>176</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>177</v>
-      </c>
-      <c r="D14" t="s">
-        <v>178</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -15757,37 +15757,37 @@
         <v>2050</v>
       </c>
       <c r="AJ14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
         <v>180</v>
-      </c>
-      <c r="C15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
         <v>182</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
         <v>184</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>185</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>186</v>
-      </c>
-      <c r="D17" t="s">
-        <v>187</v>
       </c>
       <c r="E17">
         <v>4430.5400390000004</v>
@@ -15888,16 +15888,16 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
         <v>188</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" t="s">
-        <v>190</v>
-      </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E18">
         <v>9.1703000000000007E-2</v>
@@ -15998,16 +15998,16 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
         <v>191</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>192</v>
       </c>
-      <c r="C19" t="s">
-        <v>193</v>
-      </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19">
         <v>4430.6318359999996</v>
@@ -16108,24 +16108,24 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
         <v>194</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" t="s">
         <v>196</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>197</v>
       </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21">
         <v>82.865729999999999</v>
@@ -16226,16 +16226,16 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
         <v>199</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>200</v>
       </c>
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22">
         <v>2.0141610000000001</v>
@@ -16336,16 +16336,16 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" t="s">
         <v>202</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>203</v>
       </c>
-      <c r="C23" t="s">
-        <v>204</v>
-      </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23">
         <v>45.098399999999998</v>
@@ -16446,16 +16446,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
         <v>205</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>206</v>
       </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E24">
         <v>65.759253999999999</v>
@@ -16556,16 +16556,16 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s">
         <v>208</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>209</v>
       </c>
-      <c r="C25" t="s">
-        <v>210</v>
-      </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E25">
         <v>20.674416000000001</v>
@@ -16666,16 +16666,16 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
         <v>211</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>212</v>
       </c>
-      <c r="C26" t="s">
-        <v>213</v>
-      </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26">
         <v>5.3106419999999996</v>
@@ -16776,16 +16776,16 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
         <v>214</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>215</v>
       </c>
-      <c r="C27" t="s">
-        <v>216</v>
-      </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -16886,16 +16886,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s">
         <v>217</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>218</v>
       </c>
-      <c r="C28" t="s">
-        <v>219</v>
-      </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>121.397232</v>
@@ -16996,16 +16996,16 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" t="s">
         <v>220</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>221</v>
       </c>
-      <c r="C29" t="s">
-        <v>222</v>
-      </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>0.43629899999999999</v>
@@ -17106,16 +17106,16 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
         <v>223</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>224</v>
       </c>
-      <c r="C30" t="s">
-        <v>225</v>
-      </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30">
         <v>2.233771</v>
@@ -17216,16 +17216,16 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
         <v>226</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>227</v>
       </c>
-      <c r="C31" t="s">
-        <v>228</v>
-      </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31">
         <v>0.41389199999999998</v>
@@ -17326,16 +17326,16 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" t="s">
         <v>229</v>
       </c>
-      <c r="B32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32">
         <v>0.55315300000000001</v>
@@ -17436,16 +17436,16 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" t="s">
         <v>231</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>232</v>
       </c>
-      <c r="C33" t="s">
-        <v>233</v>
-      </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -17546,16 +17546,16 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
         <v>234</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>235</v>
       </c>
-      <c r="C34" t="s">
-        <v>236</v>
-      </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34">
         <v>0.17832799999999999</v>
@@ -17656,16 +17656,16 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" t="s">
         <v>237</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>238</v>
       </c>
-      <c r="C35" t="s">
-        <v>239</v>
-      </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E35">
         <v>346.935272</v>
@@ -17769,13 +17769,13 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" t="s">
         <v>240</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>241</v>
-      </c>
-      <c r="D36" t="s">
-        <v>242</v>
       </c>
       <c r="E36">
         <v>7.2617570000000002</v>
@@ -17879,13 +17879,13 @@
         <v>118</v>
       </c>
       <c r="B37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" t="s">
         <v>243</v>
       </c>
-      <c r="C37" t="s">
-        <v>244</v>
-      </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E37">
         <v>4777.5668949999999</v>
@@ -17986,32 +17986,32 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" t="s">
         <v>245</v>
-      </c>
-      <c r="C38" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" t="s">
         <v>247</v>
-      </c>
-      <c r="C39" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
         <v>249</v>
       </c>
-      <c r="C40" t="s">
-        <v>250</v>
-      </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40">
         <v>6511.5112300000001</v>
@@ -18112,16 +18112,16 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C41" t="s">
         <v>251</v>
       </c>
-      <c r="C41" t="s">
-        <v>252</v>
-      </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E41">
         <v>46.653286000000001</v>
@@ -18222,16 +18222,16 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s">
         <v>253</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>254</v>
       </c>
-      <c r="C42" t="s">
-        <v>255</v>
-      </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E42">
         <v>6558.1645509999998</v>
@@ -18332,24 +18332,24 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" t="s">
         <v>256</v>
-      </c>
-      <c r="C43" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" t="s">
         <v>258</v>
       </c>
-      <c r="C44" t="s">
-        <v>259</v>
-      </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44">
         <v>658.66039999999998</v>
@@ -18450,16 +18450,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" t="s">
         <v>260</v>
       </c>
-      <c r="C45" t="s">
-        <v>261</v>
-      </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -18560,16 +18560,16 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
         <v>262</v>
       </c>
-      <c r="C46" t="s">
-        <v>263</v>
-      </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E46">
         <v>11.011377</v>
@@ -18670,16 +18670,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" t="s">
         <v>264</v>
       </c>
-      <c r="C47" t="s">
-        <v>265</v>
-      </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E47">
         <v>25.837799</v>
@@ -18780,16 +18780,16 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" t="s">
         <v>266</v>
       </c>
-      <c r="C48" t="s">
-        <v>267</v>
-      </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48">
         <v>3.735878</v>
@@ -18890,16 +18890,16 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" t="s">
         <v>268</v>
       </c>
-      <c r="C49" t="s">
-        <v>269</v>
-      </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E49">
         <v>20.528244000000001</v>
@@ -19000,16 +19000,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" t="s">
         <v>270</v>
       </c>
-      <c r="C50" t="s">
-        <v>271</v>
-      </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -19110,16 +19110,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" t="s">
         <v>272</v>
       </c>
-      <c r="C51" t="s">
-        <v>273</v>
-      </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E51">
         <v>216.35252399999999</v>
@@ -19220,16 +19220,16 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" t="s">
         <v>274</v>
       </c>
-      <c r="C52" t="s">
-        <v>275</v>
-      </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E52">
         <v>0.87621000000000004</v>
@@ -19330,16 +19330,16 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" t="s">
         <v>276</v>
       </c>
-      <c r="C53" t="s">
-        <v>277</v>
-      </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E53">
         <v>4.7817299999999996</v>
@@ -19440,16 +19440,16 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" t="s">
         <v>278</v>
       </c>
-      <c r="C54" t="s">
-        <v>279</v>
-      </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E54">
         <v>0.89677600000000002</v>
@@ -19550,16 +19550,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" t="s">
         <v>280</v>
       </c>
-      <c r="C55" t="s">
-        <v>281</v>
-      </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55">
         <v>3.090303</v>
@@ -19660,16 +19660,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" t="s">
         <v>282</v>
       </c>
-      <c r="C56" t="s">
-        <v>283</v>
-      </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -19770,16 +19770,16 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
+        <v>283</v>
+      </c>
+      <c r="C57" t="s">
         <v>284</v>
       </c>
-      <c r="C57" t="s">
-        <v>285</v>
-      </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E57">
         <v>5.2639999999999996E-3</v>
@@ -19880,16 +19880,16 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" t="s">
         <v>286</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>287</v>
       </c>
-      <c r="C58" t="s">
-        <v>288</v>
-      </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E58">
         <v>945.776611</v>
@@ -19993,13 +19993,13 @@
         <v>119</v>
       </c>
       <c r="B59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" t="s">
         <v>289</v>
       </c>
-      <c r="C59" t="s">
-        <v>290</v>
-      </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E59">
         <v>12.603731</v>
@@ -20103,13 +20103,13 @@
         <v>120</v>
       </c>
       <c r="B60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" t="s">
         <v>291</v>
       </c>
-      <c r="C60" t="s">
-        <v>292</v>
-      </c>
       <c r="D60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E60">
         <v>7503.9414059999999</v>
@@ -20213,13 +20213,13 @@
         <v>121</v>
       </c>
       <c r="B61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" t="s">
         <v>293</v>
       </c>
-      <c r="C61" t="s">
-        <v>294</v>
-      </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E61">
         <v>10.525676000000001</v>
@@ -20323,13 +20323,13 @@
         <v>122</v>
       </c>
       <c r="B62" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" t="s">
         <v>295</v>
       </c>
-      <c r="C62" t="s">
-        <v>296</v>
-      </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E62">
         <v>80.883010999999996</v>
@@ -20433,13 +20433,13 @@
         <v>123</v>
       </c>
       <c r="B63" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" t="s">
         <v>297</v>
       </c>
-      <c r="C63" t="s">
-        <v>298</v>
-      </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -20540,27 +20540,27 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" t="s">
         <v>299</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>300</v>
-      </c>
-      <c r="D64" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" t="s">
         <v>302</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>303</v>
       </c>
-      <c r="C65" t="s">
-        <v>304</v>
-      </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E65">
         <v>10942.050781</v>
@@ -20661,16 +20661,16 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s">
         <v>305</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>306</v>
       </c>
-      <c r="C66" t="s">
-        <v>307</v>
-      </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E66">
         <v>46.744987000000002</v>
@@ -20771,16 +20771,16 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67" t="s">
         <v>308</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>309</v>
       </c>
-      <c r="C67" t="s">
-        <v>310</v>
-      </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E67">
         <v>741.52612299999998</v>
@@ -20881,16 +20881,16 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>310</v>
+      </c>
+      <c r="B68" t="s">
         <v>311</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>312</v>
       </c>
-      <c r="C68" t="s">
-        <v>313</v>
-      </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E68">
         <v>149.72099299999999</v>
@@ -20991,16 +20991,16 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" t="s">
         <v>314</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>315</v>
       </c>
-      <c r="C69" t="s">
-        <v>316</v>
-      </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E69">
         <v>50.249180000000003</v>
@@ -21101,16 +21101,16 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>316</v>
+      </c>
+      <c r="B70" t="s">
         <v>317</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>318</v>
       </c>
-      <c r="C70" t="s">
-        <v>319</v>
-      </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E70">
         <v>337.74975599999999</v>
@@ -21211,16 +21211,16 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" t="s">
         <v>320</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>321</v>
       </c>
-      <c r="C71" t="s">
-        <v>322</v>
-      </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E71">
         <v>13.282132000000001</v>
@@ -21321,16 +21321,16 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>322</v>
+      </c>
+      <c r="B72" t="s">
         <v>323</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>324</v>
       </c>
-      <c r="C72" t="s">
-        <v>325</v>
-      </c>
       <c r="D72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72">
         <v>0.18359200000000001</v>
@@ -21434,13 +21434,13 @@
         <v>124</v>
       </c>
       <c r="B73" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73" t="s">
         <v>326</v>
       </c>
-      <c r="C73" t="s">
-        <v>327</v>
-      </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E73">
         <v>12281.507812</v>
@@ -21541,16 +21541,16 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" t="s">
         <v>328</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>329</v>
       </c>
-      <c r="C74" t="s">
-        <v>330</v>
-      </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74">
         <v>4206.5107420000004</v>
@@ -21651,16 +21651,16 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" t="s">
         <v>331</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>332</v>
       </c>
-      <c r="C75" t="s">
-        <v>333</v>
-      </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -21764,13 +21764,13 @@
         <v>125</v>
       </c>
       <c r="B76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" t="s">
         <v>334</v>
       </c>
-      <c r="C76" t="s">
-        <v>335</v>
-      </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E76">
         <v>5545.966797</v>
@@ -23036,38 +23036,38 @@
         <v>2050</v>
       </c>
       <c r="AJ1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
         <v>176</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>177</v>
-      </c>
-      <c r="D14" t="s">
-        <v>178</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -23163,37 +23163,37 @@
         <v>2050</v>
       </c>
       <c r="AJ14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" t="s">
         <v>382</v>
-      </c>
-      <c r="D17" t="s">
-        <v>383</v>
       </c>
       <c r="E17">
         <v>119.49128</v>
@@ -23294,16 +23294,16 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E18">
         <v>0.551319</v>
@@ -23404,16 +23404,16 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E19">
         <v>120.04259500000001</v>
@@ -23514,24 +23514,24 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E21">
         <v>4.8197700000000001</v>
@@ -23632,16 +23632,16 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E22">
         <v>0.2087</v>
@@ -23742,16 +23742,16 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E23">
         <v>0.17965500000000001</v>
@@ -23852,16 +23852,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E24">
         <v>0.39378200000000002</v>
@@ -23962,16 +23962,16 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E25">
         <v>0.330181</v>
@@ -24072,16 +24072,16 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E26">
         <v>0.17662900000000001</v>
@@ -24182,16 +24182,16 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -24292,16 +24292,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E28">
         <v>3.824201</v>
@@ -24402,16 +24402,16 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E29">
         <v>1.5592999999999999E-2</v>
@@ -24512,16 +24512,16 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E30">
         <v>3.6049999999999999E-2</v>
@@ -24622,16 +24622,16 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E31">
         <v>3.385E-3</v>
@@ -24732,16 +24732,16 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E32">
         <v>6.0749999999999997E-3</v>
@@ -24842,16 +24842,16 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -24952,16 +24952,16 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E34">
         <v>7.633E-3</v>
@@ -25062,16 +25062,16 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E35">
         <v>10.001652999999999</v>
@@ -25175,13 +25175,13 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E36">
         <v>130.04425000000001</v>
@@ -25282,32 +25282,32 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E39">
         <v>109.775116</v>
@@ -25408,16 +25408,16 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E40">
         <v>0.53340200000000004</v>
@@ -25518,16 +25518,16 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D41" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E41">
         <v>110.30851699999999</v>
@@ -25628,24 +25628,24 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E43">
         <v>15.788600000000001</v>
@@ -25746,16 +25746,16 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E44">
         <v>6.6799999999999997E-4</v>
@@ -25856,16 +25856,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E45">
         <v>3.5414000000000001E-2</v>
@@ -25966,16 +25966,16 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E46">
         <v>6.0679999999999998E-2</v>
@@ -26076,16 +26076,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E47">
         <v>5.6167000000000002E-2</v>
@@ -26186,16 +26186,16 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E48">
         <v>4.5997999999999997E-2</v>
@@ -26296,16 +26296,16 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -26406,16 +26406,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E50">
         <v>0.95845199999999997</v>
@@ -26516,16 +26516,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E51">
         <v>1.2926999999999999E-2</v>
@@ -26626,16 +26626,16 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E52">
         <v>3.3397000000000003E-2</v>
@@ -26736,16 +26736,16 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E53">
         <v>1.2971E-2</v>
@@ -26846,16 +26846,16 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D54" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E54">
         <v>5.9583999999999998E-2</v>
@@ -26956,16 +26956,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -27066,16 +27066,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E56">
         <v>5.0000000000000004E-6</v>
@@ -27176,16 +27176,16 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E57">
         <v>17.064865000000001</v>
@@ -27289,13 +27289,13 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D58" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E58">
         <v>127.373383</v>
@@ -27399,13 +27399,13 @@
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E59">
         <v>257.41763300000002</v>
@@ -27514,7 +27514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -27618,38 +27618,38 @@
         <v>2050</v>
       </c>
       <c r="AJ1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" t="s">
         <v>176</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>177</v>
-      </c>
-      <c r="D15" t="s">
-        <v>178</v>
       </c>
       <c r="E15">
         <v>2020</v>
@@ -27745,7 +27745,7 @@
         <v>2050</v>
       </c>
       <c r="AJ15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -27753,37 +27753,37 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" t="s">
         <v>431</v>
       </c>
-      <c r="B19" t="s">
-        <v>432</v>
-      </c>
       <c r="C19" t="s">
+        <v>681</v>
+      </c>
+      <c r="D19" t="s">
         <v>682</v>
-      </c>
-      <c r="D19" t="s">
-        <v>683</v>
       </c>
       <c r="E19">
         <v>44.303615999999998</v>
@@ -27884,16 +27884,16 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" t="s">
         <v>433</v>
       </c>
-      <c r="B20" t="s">
-        <v>434</v>
-      </c>
       <c r="C20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D20" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E20">
         <v>11.670487</v>
@@ -27994,16 +27994,16 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" t="s">
         <v>435</v>
       </c>
-      <c r="B21" t="s">
-        <v>436</v>
-      </c>
       <c r="C21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E21">
         <v>1.2333999999999999E-2</v>
@@ -28104,16 +28104,16 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" t="s">
         <v>437</v>
       </c>
-      <c r="B22" t="s">
-        <v>438</v>
-      </c>
       <c r="C22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E22">
         <v>6.5100000000000002E-3</v>
@@ -28214,16 +28214,16 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" t="s">
         <v>439</v>
       </c>
-      <c r="B23" t="s">
-        <v>440</v>
-      </c>
       <c r="C23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E23">
         <v>4.1170429999999998</v>
@@ -28324,16 +28324,16 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E24">
         <v>5.3699999999999998E-3</v>
@@ -28434,16 +28434,16 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>441</v>
+      </c>
+      <c r="B25" t="s">
         <v>442</v>
       </c>
-      <c r="B25" t="s">
-        <v>443</v>
-      </c>
       <c r="C25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D25" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E25">
         <v>4.6670000000000001E-3</v>
@@ -28544,16 +28544,16 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" t="s">
         <v>444</v>
       </c>
-      <c r="B26" t="s">
-        <v>445</v>
-      </c>
       <c r="C26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E26">
         <v>4.7369999999999999E-3</v>
@@ -28654,16 +28654,16 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E27">
         <v>1.9999999999999999E-6</v>
@@ -28764,16 +28764,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>446</v>
+      </c>
+      <c r="B28" t="s">
         <v>447</v>
       </c>
-      <c r="B28" t="s">
-        <v>448</v>
-      </c>
       <c r="C28" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E28">
         <v>60.124729000000002</v>
@@ -28874,24 +28874,24 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C29" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E30">
         <v>34.473965</v>
@@ -28992,16 +28992,16 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E31">
         <v>16.394169000000002</v>
@@ -29102,16 +29102,16 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D32" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E32">
         <v>4.2376999999999998E-2</v>
@@ -29212,16 +29212,16 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B33" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E33">
         <v>5.1877E-2</v>
@@ -29322,16 +29322,16 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E34">
         <v>0.559701</v>
@@ -29432,16 +29432,16 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E35">
         <v>5.4200000000000003E-3</v>
@@ -29542,16 +29542,16 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E36">
         <v>3.8600000000000001E-3</v>
@@ -29652,16 +29652,16 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C37" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E37">
         <v>3.6250000000000002E-3</v>
@@ -29762,16 +29762,16 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E38">
         <v>5.9309999999999996E-3</v>
@@ -29872,16 +29872,16 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>458</v>
+      </c>
+      <c r="B39" t="s">
         <v>459</v>
       </c>
-      <c r="B39" t="s">
-        <v>460</v>
-      </c>
       <c r="C39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39">
         <v>51.540877999999999</v>
@@ -29982,24 +29982,24 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C40" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D41" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E41">
         <v>160.74234000000001</v>
@@ -30100,16 +30100,16 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E42">
         <v>0.16367399999999999</v>
@@ -30210,16 +30210,16 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B43" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C43" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E43">
         <v>3.3450000000000001E-2</v>
@@ -30320,16 +30320,16 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C44" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D44" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E44">
         <v>1.935392</v>
@@ -30430,16 +30430,16 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -30540,16 +30540,16 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D46" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E46">
         <v>1.15E-3</v>
@@ -30650,16 +30650,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D47" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E47">
         <v>2.284E-3</v>
@@ -30760,16 +30760,16 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B48" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C48" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D48" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E48">
         <v>2.5300000000000001E-3</v>
@@ -30870,16 +30870,16 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C49" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E49">
         <v>2.8630000000000001E-3</v>
@@ -30980,16 +30980,16 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>470</v>
+      </c>
+      <c r="B50" t="s">
         <v>471</v>
       </c>
-      <c r="B50" t="s">
-        <v>472</v>
-      </c>
       <c r="C50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D50" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E50">
         <v>162.88360599999999</v>
@@ -31090,16 +31090,16 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>472</v>
+      </c>
+      <c r="B51" t="s">
         <v>473</v>
       </c>
-      <c r="B51" t="s">
-        <v>474</v>
-      </c>
       <c r="C51" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E51">
         <v>274.54852299999999</v>
@@ -31200,32 +31200,32 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C52" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C53" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C54" t="s">
+        <v>717</v>
+      </c>
+      <c r="D54" t="s">
         <v>718</v>
-      </c>
-      <c r="D54" t="s">
-        <v>719</v>
       </c>
       <c r="E54">
         <v>425.514252</v>
@@ -31326,16 +31326,16 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C55" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D55" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E55">
         <v>147.042542</v>
@@ -31436,16 +31436,16 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C56" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D56" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E56">
         <v>0.13056999999999999</v>
@@ -31546,16 +31546,16 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C57" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D57" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E57">
         <v>7.2439000000000003E-2</v>
@@ -31656,16 +31656,16 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C58" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D58" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E58">
         <v>50.220936000000002</v>
@@ -31766,16 +31766,16 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C59" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D59" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E59">
         <v>2.8212000000000001E-2</v>
@@ -31876,16 +31876,16 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C60" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D60" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E60">
         <v>2.8601999999999999E-2</v>
@@ -31986,16 +31986,16 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C61" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D61" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E61">
         <v>3.2344999999999999E-2</v>
@@ -32096,16 +32096,16 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C62" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D62" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E62">
         <v>1.7E-5</v>
@@ -32206,16 +32206,16 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C63" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D63" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E63">
         <v>623.06994599999996</v>
@@ -32316,24 +32316,24 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C64" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D65" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E65">
         <v>534.81951900000001</v>
@@ -32434,16 +32434,16 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C66" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D66" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E66">
         <v>310.04251099999999</v>
@@ -32544,16 +32544,16 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C67" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D67" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E67">
         <v>0.79686599999999996</v>
@@ -32654,16 +32654,16 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C68" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D68" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E68">
         <v>0.96256699999999995</v>
@@ -32764,16 +32764,16 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B69" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C69" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D69" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E69">
         <v>10.247214</v>
@@ -32874,16 +32874,16 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B70" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C70" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D70" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E70">
         <v>4.3038E-2</v>
@@ -32984,16 +32984,16 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B71" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C71" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D71" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E71">
         <v>3.7948999999999997E-2</v>
@@ -33094,16 +33094,16 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C72" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D72" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E72">
         <v>4.4144999999999997E-2</v>
@@ -33204,16 +33204,16 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B73" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C73" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D73" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E73">
         <v>7.1610999999999994E-2</v>
@@ -33314,16 +33314,16 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C74" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D74" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E74">
         <v>857.06536900000003</v>
@@ -33424,24 +33424,24 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C75" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C76" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D76" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E76">
         <v>3686.044922</v>
@@ -33542,16 +33542,16 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C77" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D77" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E77">
         <v>3.7846829999999998</v>
@@ -33652,16 +33652,16 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B78" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C78" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D78" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E78">
         <v>0.70109999999999995</v>
@@ -33762,16 +33762,16 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B79" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C79" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D79" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E79">
         <v>46.918025999999998</v>
@@ -33872,16 +33872,16 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B80" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C80" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D80" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -33982,16 +33982,16 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C81" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D81" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E81">
         <v>1.8748000000000001E-2</v>
@@ -34092,16 +34092,16 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B82" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C82" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D82" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E82">
         <v>9.7627000000000005E-2</v>
@@ -34202,16 +34202,16 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C83" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E83">
         <v>9.6310000000000007E-2</v>
@@ -34312,16 +34312,16 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C84" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D84" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E84">
         <v>6.1164000000000003E-2</v>
@@ -34422,16 +34422,16 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B85" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C85" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D85" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E85">
         <v>3737.7229000000002</v>
@@ -34532,27 +34532,27 @@
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C86" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B87" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C87" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D87" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E87">
         <v>4646.3789059999999</v>
@@ -34653,16 +34653,16 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B88" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C88" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D88" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E88">
         <v>460.86975100000001</v>
@@ -34763,16 +34763,16 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C89" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D89" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E89">
         <v>1.628536</v>
@@ -34873,16 +34873,16 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B90" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C90" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D90" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E90">
         <v>47.953029999999998</v>
@@ -34983,16 +34983,16 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B91" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C91" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D91" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E91">
         <v>60.468150999999999</v>
@@ -35093,16 +35093,16 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B92" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C92" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D92" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E92">
         <v>8.9997999999999995E-2</v>
@@ -35203,16 +35203,16 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C93" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D93" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E93">
         <v>0.16417799999999999</v>
@@ -35313,16 +35313,16 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C94" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D94" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E94">
         <v>0.17280000000000001</v>
@@ -35423,16 +35423,16 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B95" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C95" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D95" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E95">
         <v>0.13279199999999999</v>
@@ -35533,16 +35533,16 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>515</v>
+      </c>
+      <c r="B96" t="s">
         <v>516</v>
       </c>
-      <c r="B96" t="s">
-        <v>517</v>
-      </c>
       <c r="C96" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D96" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E96">
         <v>5217.8579099999997</v>
@@ -35643,32 +35643,32 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C97" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C98" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B99" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C99" t="s">
+        <v>763</v>
+      </c>
+      <c r="D99" t="s">
         <v>764</v>
-      </c>
-      <c r="D99" t="s">
-        <v>765</v>
       </c>
       <c r="E99">
         <v>14.441151</v>
@@ -35769,16 +35769,16 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B100" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C100" t="s">
+        <v>765</v>
+      </c>
+      <c r="D100" t="s">
         <v>766</v>
-      </c>
-      <c r="D100" t="s">
-        <v>767</v>
       </c>
       <c r="E100">
         <v>9.9266389999999998</v>
@@ -35879,16 +35879,16 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B101" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D101" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E101">
         <v>11.814458999999999</v>
@@ -35989,16 +35989,16 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B102" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C102" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D102" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E102">
         <v>11.239466</v>
@@ -36099,16 +36099,16 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B103" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C103" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D103" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E103">
         <v>10.253147</v>
@@ -36209,16 +36209,16 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B104" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C104" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D104" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E104">
         <v>26.399440999999999</v>
@@ -36319,16 +36319,16 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B105" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C105" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D105" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E105">
         <v>22.632963</v>
@@ -36429,16 +36429,16 @@
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B106" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C106" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D106" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E106">
         <v>18.318317</v>
@@ -36539,16 +36539,16 @@
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C107" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D107" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E107">
         <v>18.454547999999999</v>
@@ -36649,13 +36649,13 @@
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>527</v>
+      </c>
+      <c r="B108" t="s">
         <v>528</v>
       </c>
-      <c r="B108" t="s">
-        <v>529</v>
-      </c>
       <c r="C108" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E108">
         <v>13.189800999999999</v>
@@ -36756,24 +36756,24 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C109" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B110" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C110" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D110" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E110">
         <v>8.9404749999999993</v>
@@ -36874,16 +36874,16 @@
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B111" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C111" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D111" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E111">
         <v>6.6134009999999996</v>
@@ -36984,16 +36984,16 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B112" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C112" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D112" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E112">
         <v>6.6512799999999999</v>
@@ -37094,16 +37094,16 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B113" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C113" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D113" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E113">
         <v>6.7406439999999996</v>
@@ -37204,16 +37204,16 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C114" t="s">
+        <v>780</v>
+      </c>
+      <c r="D114" t="s">
         <v>781</v>
-      </c>
-      <c r="D114" t="s">
-        <v>782</v>
       </c>
       <c r="E114">
         <v>6.831359</v>
@@ -37314,16 +37314,16 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B115" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C115" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D115" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E115">
         <v>17.467234000000001</v>
@@ -37424,16 +37424,16 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B116" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C116" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D116" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E116">
         <v>14.109496</v>
@@ -37534,16 +37534,16 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B117" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C117" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D117" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E117">
         <v>10.271459999999999</v>
@@ -37644,16 +37644,16 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C118" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D118" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E118">
         <v>11.486765999999999</v>
@@ -37754,13 +37754,13 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>538</v>
+      </c>
+      <c r="B119" t="s">
         <v>539</v>
       </c>
-      <c r="B119" t="s">
-        <v>540</v>
-      </c>
       <c r="C119" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E119">
         <v>8.0269100000000009</v>
@@ -37861,24 +37861,24 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C120" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B121" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C121" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D121" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E121">
         <v>6.0484770000000001</v>
@@ -37979,16 +37979,16 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B122" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C122" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D122" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E122">
         <v>5.4088779999999996</v>
@@ -38089,16 +38089,16 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B123" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C123" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D123" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E123">
         <v>5.9671700000000003</v>
@@ -38199,16 +38199,16 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B124" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C124" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D124" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E124">
         <v>5.7214460000000003</v>
@@ -38309,16 +38309,16 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B125" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C125" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D125" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -38419,16 +38419,16 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B126" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C126" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D126" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E126">
         <v>8.50718</v>
@@ -38529,16 +38529,16 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B127" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C127" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D127" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E127">
         <v>3.2452800000000002</v>
@@ -38639,16 +38639,16 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B128" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C128" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D128" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E128">
         <v>3.2856359999999998</v>
@@ -38749,16 +38749,16 @@
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B129" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D129" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E129">
         <v>6.4930300000000001</v>
@@ -38859,13 +38859,13 @@
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>549</v>
+      </c>
+      <c r="B130" t="s">
         <v>550</v>
       </c>
-      <c r="B130" t="s">
-        <v>551</v>
-      </c>
       <c r="C130" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E130">
         <v>6.0436370000000004</v>
@@ -38966,13 +38966,13 @@
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>551</v>
+      </c>
+      <c r="B131" t="s">
         <v>552</v>
       </c>
-      <c r="B131" t="s">
-        <v>553</v>
-      </c>
       <c r="C131" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E131">
         <v>7.238181</v>
@@ -39073,32 +39073,32 @@
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C132" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C133" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B134" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C134" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D134" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E134">
         <v>2.6647099999999999</v>
@@ -39199,16 +39199,16 @@
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B135" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C135" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D135" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E135">
         <v>1.081769</v>
@@ -39309,16 +39309,16 @@
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B136" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C136" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D136" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E136">
         <v>5.9100000000000005E-4</v>
@@ -39419,16 +39419,16 @@
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B137" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C137" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D137" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E137">
         <v>2.6600000000000001E-4</v>
@@ -39529,16 +39529,16 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B138" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C138" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D138" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E138">
         <v>0.24854999999999999</v>
@@ -39639,16 +39639,16 @@
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B139" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C139" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D139" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E139">
         <v>3.28E-4</v>
@@ -39749,16 +39749,16 @@
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B140" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C140" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D140" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E140">
         <v>2.6899999999999998E-4</v>
@@ -39859,16 +39859,16 @@
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B141" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C141" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D141" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E141">
         <v>2.7300000000000002E-4</v>
@@ -39969,16 +39969,16 @@
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B142" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C142" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D142" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -40079,16 +40079,16 @@
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B143" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C143" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D143" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E143">
         <v>3.996756</v>
@@ -40189,24 +40189,24 @@
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C144" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B145" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C145" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D145" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E145">
         <v>2.113826</v>
@@ -40307,16 +40307,16 @@
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B146" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C146" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D146" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E146">
         <v>1.4032720000000001</v>
@@ -40417,16 +40417,16 @@
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B147" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C147" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D147" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E147">
         <v>3.166E-3</v>
@@ -40527,16 +40527,16 @@
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B148" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C148" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D148" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E148">
         <v>2.8370000000000001E-3</v>
@@ -40637,16 +40637,16 @@
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B149" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C149" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D149" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E149">
         <v>3.2770000000000001E-2</v>
@@ -40747,16 +40747,16 @@
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B150" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C150" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D150" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E150">
         <v>2.7700000000000001E-4</v>
@@ -40857,16 +40857,16 @@
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B151" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C151" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E151">
         <v>1.8599999999999999E-4</v>
@@ -40967,16 +40967,16 @@
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B152" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C152" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D152" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E152">
         <v>1.75E-4</v>
@@ -41077,16 +41077,16 @@
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B153" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C153" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D153" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E153">
         <v>2.8600000000000001E-4</v>
@@ -41187,16 +41187,16 @@
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B154" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C154" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D154" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E154">
         <v>3.5567950000000002</v>
@@ -41297,24 +41297,24 @@
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C155" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B156" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C156" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E156">
         <v>4.9273610000000003</v>
@@ -41415,16 +41415,16 @@
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B157" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C157" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D157" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E157">
         <v>4.7627999999999997E-2</v>
@@ -41525,16 +41525,16 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B158" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C158" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D158" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E158">
         <v>3.7469999999999999E-3</v>
@@ -41635,16 +41635,16 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B159" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C159" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D159" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E159">
         <v>4.4406000000000001E-2</v>
@@ -41745,16 +41745,16 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B160" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C160" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D160" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -41855,16 +41855,16 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B161" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C161" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D161" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E161">
         <v>1.13E-4</v>
@@ -41965,16 +41965,16 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B162" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C162" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D162" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E162">
         <v>2.3800000000000001E-4</v>
@@ -42075,16 +42075,16 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B163" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C163" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D163" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E163">
         <v>2.63E-4</v>
@@ -42185,16 +42185,16 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C164" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D164" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E164">
         <v>2.9700000000000001E-4</v>
@@ -42295,16 +42295,16 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B165" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C165" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D165" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E165">
         <v>5.0240520000000002</v>
@@ -42408,13 +42408,13 @@
         <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C166" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D166" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E166">
         <v>12.57761</v>
@@ -42518,37 +42518,37 @@
         <v>42</v>
       </c>
       <c r="C167" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C168" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C169" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B170" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C170" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D170" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E170">
         <v>16.018782000000002</v>
@@ -42649,16 +42649,16 @@
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B171" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C171" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D171" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E171">
         <v>11.370641000000001</v>
@@ -42759,16 +42759,16 @@
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B172" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C172" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D172" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E172">
         <v>12.278423999999999</v>
@@ -42869,16 +42869,16 @@
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B173" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C173" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D173" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E173">
         <v>12.111694</v>
@@ -42979,16 +42979,16 @@
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B174" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C174" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D174" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E174">
         <v>11.011964000000001</v>
@@ -43089,16 +43089,16 @@
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B175" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C175" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D175" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E175">
         <v>26.943646999999999</v>
@@ -43199,16 +43199,16 @@
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B176" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C176" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D176" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E176">
         <v>22.632963</v>
@@ -43309,16 +43309,16 @@
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B177" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C177" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D177" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E177">
         <v>18.318317</v>
@@ -43419,16 +43419,16 @@
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B178" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C178" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D178" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E178">
         <v>18.454547999999999</v>
@@ -43529,13 +43529,13 @@
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B179" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E179">
         <v>15.235818</v>
@@ -43636,24 +43636,24 @@
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C180" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B181" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C181" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D181" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E181">
         <v>9.6559519999999992</v>
@@ -43754,16 +43754,16 @@
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B182" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C182" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D182" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E182">
         <v>7.0943259999999997</v>
@@ -43864,16 +43864,16 @@
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C183" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D183" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E183">
         <v>6.923292</v>
@@ -43974,16 +43974,16 @@
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B184" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C184" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D184" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E184">
         <v>7.0355290000000004</v>
@@ -44084,16 +44084,16 @@
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B185" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C185" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D185" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E185">
         <v>7.0242139999999997</v>
@@ -44194,16 +44194,16 @@
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B186" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C186" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D186" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E186">
         <v>16.770685</v>
@@ -44304,16 +44304,16 @@
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B187" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C187" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D187" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E187">
         <v>14.109496</v>
@@ -44414,16 +44414,16 @@
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B188" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C188" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D188" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E188">
         <v>10.271459</v>
@@ -44524,16 +44524,16 @@
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B189" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C189" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D189" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E189">
         <v>11.486765999999999</v>
@@ -44634,13 +44634,13 @@
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B190" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C190" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E190">
         <v>8.8874870000000001</v>
@@ -44741,24 +44741,24 @@
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C191" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B192" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C192" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D192" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E192">
         <v>6.2664350000000004</v>
@@ -44859,16 +44859,16 @@
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B193" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C193" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D193" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E193">
         <v>6.0031239999999997</v>
@@ -44969,16 +44969,16 @@
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B194" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C194" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D194" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E194">
         <v>6.2969480000000004</v>
@@ -45079,16 +45079,16 @@
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B195" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C195" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D195" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E195">
         <v>5.6628550000000004</v>
@@ -45189,16 +45189,16 @@
     </row>
     <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B196" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C196" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D196" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -45299,16 +45299,16 @@
     </row>
     <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B197" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C197" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D197" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E197">
         <v>7.5361419999999999</v>
@@ -45409,16 +45409,16 @@
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B198" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C198" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D198" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E198">
         <v>7.8577649999999997</v>
@@ -45519,16 +45519,16 @@
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B199" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C199" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D199" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E199">
         <v>8.6751290000000001</v>
@@ -45629,16 +45629,16 @@
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B200" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C200" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D200" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E200">
         <v>6.2527379999999999</v>
@@ -45739,13 +45739,13 @@
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B201" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C201" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E201">
         <v>6.2572460000000003</v>
@@ -45846,13 +45846,13 @@
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B202" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C202" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E202">
         <v>7.6005520000000004</v>
@@ -45953,32 +45953,32 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C203" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C204" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B205" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C205" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D205" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E205">
         <v>147.36698899999999</v>
@@ -46079,16 +46079,16 @@
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B206" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C206" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D206" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E206">
         <v>36.340527000000002</v>
@@ -46189,16 +46189,16 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B207" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C207" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D207" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E207">
         <v>0.21667700000000001</v>
@@ -46299,16 +46299,16 @@
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B208" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C208" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D208" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E208">
         <v>0.10786</v>
@@ -46409,16 +46409,16 @@
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B209" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C209" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D209" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E209">
         <v>23.123978000000001</v>
@@ -46519,16 +46519,16 @@
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B210" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C210" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D210" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E210">
         <v>0.25462099999999999</v>
@@ -46629,16 +46629,16 @@
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B211" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C211" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D211" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E211">
         <v>0.26865299999999998</v>
@@ -46739,16 +46739,16 @@
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B212" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C212" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D212" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E212">
         <v>0.27268399999999998</v>
@@ -46849,16 +46849,16 @@
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B213" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C213" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D213" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E213">
         <v>1.3200000000000001E-4</v>
@@ -46959,16 +46959,16 @@
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B214" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C214" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D214" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E214">
         <v>207.952133</v>
@@ -47069,24 +47069,24 @@
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C215" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B216" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C216" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D216" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E216">
         <v>91.140923000000001</v>
@@ -47187,16 +47187,16 @@
     </row>
     <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B217" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C217" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D217" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E217">
         <v>46.458106999999998</v>
@@ -47297,16 +47297,16 @@
     </row>
     <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B218" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C218" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D218" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E218">
         <v>0.13500999999999999</v>
@@ -47407,16 +47407,16 @@
     </row>
     <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B219" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C219" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D219" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E219">
         <v>0.39564199999999999</v>
@@ -47517,16 +47517,16 @@
     </row>
     <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B220" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C220" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D220" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E220">
         <v>4.1055859999999997</v>
@@ -47627,16 +47627,16 @@
     </row>
     <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B221" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C221" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D221" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E221">
         <v>0.175927</v>
@@ -47737,16 +47737,16 @@
     </row>
     <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B222" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C222" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D222" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E222">
         <v>0.18624099999999999</v>
@@ -47847,16 +47847,16 @@
     </row>
     <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B223" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C223" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D223" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E223">
         <v>0.174905</v>
@@ -47957,16 +47957,16 @@
     </row>
     <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B224" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C224" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D224" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E224">
         <v>0.28611700000000001</v>
@@ -48067,16 +48067,16 @@
     </row>
     <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B225" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C225" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D225" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E225">
         <v>143.05848700000001</v>
@@ -48177,24 +48177,24 @@
     </row>
     <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C226" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B227" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C227" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D227" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E227">
         <v>210.45161400000001</v>
@@ -48295,16 +48295,16 @@
     </row>
     <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B228" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C228" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D228" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E228">
         <v>0.425543</v>
@@ -48405,16 +48405,16 @@
     </row>
     <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B229" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C229" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D229" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E229">
         <v>0.24471699999999999</v>
@@ -48515,16 +48515,16 @@
     </row>
     <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B230" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C230" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D230" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E230">
         <v>3.620339</v>
@@ -48625,16 +48625,16 @@
     </row>
     <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B231" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C231" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D231" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -48735,16 +48735,16 @@
     </row>
     <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B232" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C232" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D232" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E232">
         <v>0.104999</v>
@@ -48845,16 +48845,16 @@
     </row>
     <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B233" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C233" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D233" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E233">
         <v>0.15276799999999999</v>
@@ -48955,16 +48955,16 @@
     </row>
     <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B234" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C234" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D234" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E234">
         <v>0.168402</v>
@@ -49065,16 +49065,16 @@
     </row>
     <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B235" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C235" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D235" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E235">
         <v>0.206702</v>
@@ -49175,16 +49175,16 @@
     </row>
     <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B236" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C236" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D236" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E236">
         <v>215.37506099999999</v>
@@ -49285,16 +49285,16 @@
     </row>
     <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B237" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C237" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D237" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E237">
         <v>566.38568099999998</v>
@@ -49398,21 +49398,21 @@
         <v>41</v>
       </c>
       <c r="C238" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>648</v>
+      </c>
+      <c r="B239" t="s">
         <v>649</v>
       </c>
-      <c r="B239" t="s">
-        <v>650</v>
-      </c>
       <c r="C239" t="s">
+        <v>906</v>
+      </c>
+      <c r="D239" t="s">
         <v>907</v>
-      </c>
-      <c r="D239" t="s">
-        <v>908</v>
       </c>
       <c r="E239">
         <v>1508.5570070000001</v>
@@ -49513,16 +49513,16 @@
     </row>
     <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>650</v>
+      </c>
+      <c r="B240" t="s">
         <v>651</v>
       </c>
-      <c r="B240" t="s">
-        <v>652</v>
-      </c>
       <c r="C240" t="s">
+        <v>908</v>
+      </c>
+      <c r="D240" t="s">
         <v>909</v>
-      </c>
-      <c r="D240" t="s">
-        <v>910</v>
       </c>
       <c r="E240">
         <v>3.4893709999999998</v>
@@ -49623,24 +49623,24 @@
     </row>
     <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C241" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>653</v>
+      </c>
+      <c r="B242" t="s">
         <v>654</v>
       </c>
-      <c r="B242" t="s">
-        <v>655</v>
-      </c>
       <c r="C242" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D242" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E242">
         <v>431.86648600000001</v>
@@ -49741,16 +49741,16 @@
     </row>
     <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>655</v>
+      </c>
+      <c r="B243" t="s">
         <v>656</v>
       </c>
-      <c r="B243" t="s">
-        <v>657</v>
-      </c>
       <c r="C243" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D243" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -49851,16 +49851,16 @@
     </row>
     <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>657</v>
+      </c>
+      <c r="B244" t="s">
         <v>658</v>
       </c>
-      <c r="B244" t="s">
-        <v>659</v>
-      </c>
       <c r="C244" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D244" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -49961,16 +49961,16 @@
     </row>
     <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>659</v>
+      </c>
+      <c r="B245" t="s">
         <v>660</v>
       </c>
-      <c r="B245" t="s">
-        <v>661</v>
-      </c>
       <c r="C245" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D245" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E245">
         <v>0.462669</v>
@@ -50074,21 +50074,21 @@
         <v>40</v>
       </c>
       <c r="C246" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>661</v>
+      </c>
+      <c r="B247" t="s">
         <v>662</v>
       </c>
-      <c r="B247" t="s">
-        <v>663</v>
-      </c>
       <c r="C247" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D247" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E247">
         <v>347.68133499999999</v>
@@ -50189,16 +50189,16 @@
     </row>
     <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B248" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C248" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D248" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E248">
         <v>4.8419600000000003</v>
@@ -50299,24 +50299,24 @@
     </row>
     <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C249" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B250" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C250" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D250" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E250">
         <v>75.191635000000005</v>
@@ -50417,16 +50417,16 @@
     </row>
     <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B251" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C251" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D251" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E251">
         <v>1.7463169999999999</v>
@@ -50527,16 +50527,16 @@
     </row>
     <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B252" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C252" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D252" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -50637,16 +50637,16 @@
     </row>
     <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B253" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C253" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D253" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E253">
         <v>0.40545300000000001</v>
@@ -50750,21 +50750,21 @@
         <v>39</v>
       </c>
       <c r="C254" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>668</v>
+      </c>
+      <c r="B255" t="s">
         <v>669</v>
       </c>
-      <c r="B255" t="s">
-        <v>670</v>
-      </c>
       <c r="C255" t="s">
+        <v>924</v>
+      </c>
+      <c r="D255" t="s">
         <v>925</v>
-      </c>
-      <c r="D255" t="s">
-        <v>926</v>
       </c>
       <c r="E255">
         <v>4133.4975590000004</v>
@@ -50865,16 +50865,16 @@
     </row>
     <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>670</v>
+      </c>
+      <c r="B256" t="s">
         <v>671</v>
       </c>
-      <c r="B256" t="s">
-        <v>672</v>
-      </c>
       <c r="C256" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D256" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E256">
         <v>1553.1899410000001</v>
@@ -50975,16 +50975,16 @@
     </row>
     <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>672</v>
+      </c>
+      <c r="B257" t="s">
         <v>673</v>
       </c>
-      <c r="B257" t="s">
-        <v>674</v>
-      </c>
       <c r="C257" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D257" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E257">
         <v>2580.3076169999999</v>
@@ -51085,24 +51085,24 @@
     </row>
     <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B259" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C259" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D259" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E259">
         <v>425.03616299999999</v>
@@ -51203,16 +51203,16 @@
     </row>
     <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B260" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C260" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D260" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E260">
         <v>413.53491200000002</v>
@@ -51313,16 +51313,16 @@
     </row>
     <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B261" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C261" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D261" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -51423,16 +51423,16 @@
     </row>
     <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B262" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C262" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D262" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E262">
         <v>17.315902999999999</v>
@@ -52098,32 +52098,32 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -52166,7 +52166,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F35" s="44">
         <v>1.9495540182498248E-2</v>
@@ -52207,7 +52207,7 @@
     </row>
     <row r="36" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" s="43"/>
       <c r="F36" s="43">
@@ -52305,12 +52305,12 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -52349,14 +52349,14 @@
         <v>106</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" s="24"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
       <c r="N1" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="25"/>
@@ -52444,7 +52444,7 @@
         <v>2050</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -52496,7 +52496,7 @@
         <v>2021</v>
       </c>
       <c r="K9" s="28">
-        <f t="shared" ref="K9:AN9" si="0">J9+1</f>
+        <f t="shared" ref="K9:AM9" si="0">J9+1</f>
         <v>2022</v>
       </c>
       <c r="L9" s="28">
@@ -52631,7 +52631,7 @@
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="29">
-        <f t="shared" ref="I9:I40" si="1">D9</f>
+        <f t="shared" ref="I10:I40" si="1">D9</f>
         <v>1.0837883285483643E-2</v>
       </c>
       <c r="J10" s="15">
